--- a/helper/Employee_Process.xlsx
+++ b/helper/Employee_Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="334">
   <si>
     <t>Employee_Process</t>
   </si>
@@ -64,7 +64,7 @@
     <t>1Y_Department_Budget_and_HC_Plan</t>
   </si>
   <si>
-    <t>5_Year_Budget</t>
+    <t xml:space="preserve">5_Year_Budget </t>
   </si>
   <si>
     <t>5_Year_Sales_Volume_Calculation</t>
@@ -157,7 +157,7 @@
     <t>NH_Reception_Process</t>
   </si>
   <si>
-    <t>SCR_handles_One-click_service</t>
+    <t>SCR_handles_One-click_service_</t>
   </si>
   <si>
     <t>SCR_receives_One-click_service_booking_request_from_subscription_user</t>
@@ -295,7 +295,7 @@
     <t>User_experiences_2D_testdrive_coupon</t>
   </si>
   <si>
-    <t>User_experiences_normal_testdrive</t>
+    <t xml:space="preserve">User_experiences_normal_testdrive </t>
   </si>
   <si>
     <t>User_gets_normal_delivery</t>
@@ -370,46 +370,46 @@
     <t>Subscription_cars_delivery-related</t>
   </si>
   <si>
-    <t>EU_POS_Infrastructure_types_and_location_preference</t>
-  </si>
-  <si>
-    <t>Location_approval_process</t>
-  </si>
-  <si>
-    <t>EU_network_planning_2_0</t>
-  </si>
-  <si>
-    <t>EU_POS_Infrastructure_design_management_and_approval_process</t>
-  </si>
-  <si>
-    <t>Design_vendor_pool_selection_and_management_process</t>
-  </si>
-  <si>
-    <t>EU_NIO_House_Space_Hub_design_guidline</t>
-  </si>
-  <si>
-    <t>Construction_management_process_including_managing_vendors</t>
-  </si>
-  <si>
-    <t>Construction_vendor_pool_selection_and_management_process</t>
-  </si>
-  <si>
-    <t>NH_NS_Nhub_opening_preparation_list</t>
-  </si>
-  <si>
-    <t>NH_NS_Nhub_operation_management</t>
+    <t>EU_POS_Infrastructure_types_and_location_preference_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Location_approval_process</t>
+  </si>
+  <si>
+    <t>__EU_network_planning_2_0</t>
+  </si>
+  <si>
+    <t>_EU_POS_Infrastructure_design_management_and_approval_process</t>
+  </si>
+  <si>
+    <t>_Design_vendor_pool_selection_and_management_process</t>
+  </si>
+  <si>
+    <t>_EU_NIO_House_Space_Hub_design_guidline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Construction_management_process_including_managing_vendors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Construction_vendor_pool_selection_and_management_process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  NH_NS_Nhub_opening_preparation_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  NH_NS_Nhub_operation_management_</t>
   </si>
   <si>
     <t>Budget_approval_and_management_process_including_change_mana</t>
   </si>
   <si>
-    <t>DOA_and_paymanet_process</t>
-  </si>
-  <si>
-    <t>Budget_making_and_rolling_process</t>
-  </si>
-  <si>
-    <t>EU_POS_Infrastructure_projects_tracking_timeline_and_status_management_and_change_management_process</t>
+    <t xml:space="preserve">  DOA_and_paymanet_process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Budget_making_and_rolling_process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  EU_POS_Infrastructure_projects_tracking_timeline_and_status_management_and_change_management_process</t>
   </si>
   <si>
     <t>NIO_SCR_receives_RSA_request</t>
@@ -418,7 +418,7 @@
     <t>Interview_Process_for_Roles_under_2_0</t>
   </si>
   <si>
-    <t>Interview_Process_for_Roles_of_p3_0</t>
+    <t>Interview_Process_for_Roles_of_p3_0_</t>
   </si>
   <si>
     <t>Interview_Process_for_Roles_of_p4_0</t>
@@ -427,31 +427,31 @@
     <t>Interview_Process_for_Roles_of_p5_0</t>
   </si>
   <si>
-    <t>Leads_classification_and_follow_up_process_management</t>
-  </si>
-  <si>
-    <t>Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process</t>
+    <t xml:space="preserve">  Leads_classification_and_follow_up_process_management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process</t>
   </si>
   <si>
     <t>Test_drive_site_selection_layout_and_process_design_</t>
   </si>
   <si>
-    <t>Group_Test_Drive_Process_-_Standardize_the_group_test_drive_process</t>
+    <t>_Group_Test_Drive_Process_-_Standardize_the_group_test_drive_process</t>
   </si>
   <si>
     <t>Fellow_Performance_Evaluation_Process</t>
   </si>
   <si>
-    <t>Order_and_stock_planning_and_management_Process</t>
+    <t xml:space="preserve">  Order_and_stock_planning_and_management_Process</t>
   </si>
   <si>
     <t>Demo_car_and_display_car_management</t>
   </si>
   <si>
-    <t>Appointment-to-delivery_process</t>
-  </si>
-  <si>
-    <t>FIFO_steering_and_fleet_management</t>
+    <t>_Appointment-to-delivery_process</t>
+  </si>
+  <si>
+    <t>_FIFO_steering_and_fleet_management</t>
   </si>
   <si>
     <t>Mysterious_AmbassadorOpen_Check_process_and_standard_</t>
@@ -460,19 +460,19 @@
     <t>Small_loop-closing</t>
   </si>
   <si>
-    <t>Big_loop-closing</t>
+    <t>_Big_loop-closing</t>
   </si>
   <si>
     <t>Establish_EU_user_complaint_escalation_and_response_mechanism_</t>
   </si>
   <si>
-    <t>User_service_booking_process</t>
-  </si>
-  <si>
-    <t>AccidentRoadside_assistance_process</t>
-  </si>
-  <si>
-    <t>Courtesy_car_management_process</t>
+    <t>_User_service_booking_process_</t>
+  </si>
+  <si>
+    <t>_AccidentRoadside_assistance_process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Courtesy_car_management_process_</t>
   </si>
   <si>
     <t>User_Complain_Mechanism</t>
@@ -481,16 +481,16 @@
     <t>Pre-delivery_service_operation_process</t>
   </si>
   <si>
-    <t>Parts_and_accessories_forecast_and_stock_preparation_process</t>
+    <t>_Parts_and_accessories_forecast_and_stock_preparation_process_</t>
   </si>
   <si>
     <t>Inspection_Maintenance_Process</t>
   </si>
   <si>
-    <t>FOTA_and_remote_service_operation_process</t>
-  </si>
-  <si>
-    <t>Service_campaign_operation_management_process</t>
+    <t>_FOTA_and_remote_service_operation_process</t>
+  </si>
+  <si>
+    <t>_Service_campaign_operation_management_process_</t>
   </si>
   <si>
     <t>Central_warehouse_parts_replenishment_order_process</t>
@@ -502,13 +502,13 @@
     <t>User_activates_home_charger</t>
   </si>
   <si>
-    <t>User</t>
+    <t>User_</t>
   </si>
   <si>
     <t>Power_Infrastucture</t>
   </si>
   <si>
-    <t>Power_Related_Process</t>
+    <t>Power_Related_Process_</t>
   </si>
   <si>
     <t>Fellow_complete_testdrive_process</t>
@@ -592,10 +592,10 @@
     <t>SCR regularly checks in Debug for new user requests</t>
   </si>
   <si>
-    <t>Usercontacts SCR and wants to buy a car</t>
-  </si>
-  <si>
-    <t>Usercontacts SCR and wants to cancel his previously booked test drive</t>
+    <t>User_contacts SCR and wants to buy a car</t>
+  </si>
+  <si>
+    <t>User_contacts SCR and wants to cancel his previously booked test drive</t>
   </si>
   <si>
     <t>SCR regularly checks in CMP for low stars and calls the user to follow up</t>
@@ -604,10 +604,10 @@
     <t>The user contacts SCR and wants to rebook his previously booked test drive</t>
   </si>
   <si>
-    <t>Usercontacts SCR and wants to book a test drive.</t>
-  </si>
-  <si>
-    <t>Userwants to delete his app account. The user triggers the process by clicking on the "account deletion" function in the app.</t>
+    <t>User_contacts SCR and wants to book a test drive.</t>
+  </si>
+  <si>
+    <t>User_wants to delete his app account. The user triggers the process by clicking on the "account deletion" function in the app.</t>
   </si>
   <si>
     <t>SCR regularly checks in CMP for new user UGC and validates them</t>
@@ -738,7 +738,7 @@
     <t>AVP_Europe_Business_&amp;_Senior_Expert_Strategic_Planning</t>
   </si>
   <si>
-    <t>Analyst, Market &amp; User Research,Content_Specialist</t>
+    <t>Analyst, Market &amp; User_ Research,Content_Specialist</t>
   </si>
   <si>
     <t>SCR_English_Agent,Head_of_SCR_Europe,SCR_Agent,SCR_Onsite_Manager,Service_Coordinator_Representative,Service_Representative,Service_Advisor</t>
@@ -904,6 +904,9 @@
   </si>
   <si>
     <t>User_experiences_2D_testdrive</t>
+  </si>
+  <si>
+    <t>User_experiences_normal_testdrive</t>
   </si>
   <si>
     <t>User_experiences_Subscription_Delivery,User_experiences_Operational_Leasing_Delivery,User_experiences_Financial_Leasing_Delivery,User_experiences_Purchase_Delivery,User_uses_power_swap_with_opertional_leasing_car,User_uses_power_swap_with_financial_leasing_car,User_uses_power_swap_with_purchased_car,User_returns_a_Fin-leasing_car</t>
@@ -1454,10 +1457,10 @@
         <v>263</v>
       </c>
       <c r="N2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1489,10 +1492,10 @@
         <v>264</v>
       </c>
       <c r="N3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1527,10 +1530,10 @@
         <v>280</v>
       </c>
       <c r="N4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1565,10 +1568,10 @@
         <v>281</v>
       </c>
       <c r="N5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1600,10 +1603,10 @@
         <v>267</v>
       </c>
       <c r="N6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1641,10 +1644,10 @@
         <v>282</v>
       </c>
       <c r="N7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1676,10 +1679,10 @@
         <v>269</v>
       </c>
       <c r="N8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1711,10 +1714,10 @@
         <v>270</v>
       </c>
       <c r="N9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1746,7 +1749,7 @@
         <v>249</v>
       </c>
       <c r="O10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1772,7 +1775,7 @@
         <v>226</v>
       </c>
       <c r="O11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1804,10 +1807,10 @@
         <v>271</v>
       </c>
       <c r="N12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1836,10 +1839,10 @@
         <v>263</v>
       </c>
       <c r="N13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1871,10 +1874,10 @@
         <v>264</v>
       </c>
       <c r="N14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1903,10 +1906,10 @@
         <v>272</v>
       </c>
       <c r="N15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1938,10 +1941,10 @@
         <v>267</v>
       </c>
       <c r="N16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1973,10 +1976,10 @@
         <v>273</v>
       </c>
       <c r="N17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2008,10 +2011,10 @@
         <v>274</v>
       </c>
       <c r="N18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2040,7 +2043,7 @@
         <v>283</v>
       </c>
       <c r="P19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2072,10 +2075,10 @@
         <v>275</v>
       </c>
       <c r="N20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2107,7 +2110,7 @@
         <v>275</v>
       </c>
       <c r="O21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2139,10 +2142,10 @@
         <v>271</v>
       </c>
       <c r="N22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2174,10 +2177,10 @@
         <v>276</v>
       </c>
       <c r="N23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2206,10 +2209,10 @@
         <v>265</v>
       </c>
       <c r="N24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2238,10 +2241,10 @@
         <v>270</v>
       </c>
       <c r="N25" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2273,10 +2276,10 @@
         <v>270</v>
       </c>
       <c r="N26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2305,10 +2308,10 @@
         <v>226</v>
       </c>
       <c r="N27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2337,7 +2340,7 @@
         <v>226</v>
       </c>
       <c r="O28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2369,10 +2372,10 @@
         <v>273</v>
       </c>
       <c r="N29" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2404,10 +2407,10 @@
         <v>266</v>
       </c>
       <c r="N30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2439,10 +2442,10 @@
         <v>276</v>
       </c>
       <c r="N31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2468,7 +2471,7 @@
         <v>226</v>
       </c>
       <c r="O32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2494,7 +2497,7 @@
         <v>226</v>
       </c>
       <c r="O33" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2549,13 +2552,13 @@
         <v>284</v>
       </c>
       <c r="N35" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P35" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2596,13 +2599,13 @@
         <v>285</v>
       </c>
       <c r="N36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P36" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2631,7 +2634,7 @@
         <v>286</v>
       </c>
       <c r="O37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2663,10 +2666,10 @@
         <v>268</v>
       </c>
       <c r="N38" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2698,10 +2701,10 @@
         <v>264</v>
       </c>
       <c r="N39" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O39" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2730,7 +2733,7 @@
         <v>226</v>
       </c>
       <c r="O40" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2762,10 +2765,10 @@
         <v>272</v>
       </c>
       <c r="N41" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O41" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2800,10 +2803,10 @@
         <v>86</v>
       </c>
       <c r="N42" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O42" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2835,10 +2838,10 @@
         <v>267</v>
       </c>
       <c r="N43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2870,10 +2873,10 @@
         <v>274</v>
       </c>
       <c r="N44" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O44" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2905,10 +2908,10 @@
         <v>263</v>
       </c>
       <c r="N45" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O45" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2940,10 +2943,10 @@
         <v>274</v>
       </c>
       <c r="N46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O46" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2978,7 +2981,7 @@
         <v>287</v>
       </c>
       <c r="O47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3016,10 +3019,10 @@
         <v>288</v>
       </c>
       <c r="N48" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O48" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3057,10 +3060,10 @@
         <v>289</v>
       </c>
       <c r="N49" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3095,10 +3098,10 @@
         <v>267</v>
       </c>
       <c r="N50" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O50" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3136,10 +3139,10 @@
         <v>290</v>
       </c>
       <c r="N51" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O51" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3177,10 +3180,10 @@
         <v>291</v>
       </c>
       <c r="N52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O52" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3218,10 +3221,10 @@
         <v>290</v>
       </c>
       <c r="N53" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O53" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3259,10 +3262,10 @@
         <v>290</v>
       </c>
       <c r="N54" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O54" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3297,10 +3300,10 @@
         <v>273</v>
       </c>
       <c r="N55" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O55" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3338,10 +3341,10 @@
         <v>292</v>
       </c>
       <c r="N56" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O56" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3376,10 +3379,10 @@
         <v>266</v>
       </c>
       <c r="N57" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O57" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3414,7 +3417,7 @@
         <v>270</v>
       </c>
       <c r="O58" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3449,10 +3452,10 @@
         <v>272</v>
       </c>
       <c r="N59" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O59" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3487,10 +3490,10 @@
         <v>273</v>
       </c>
       <c r="N60" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O60" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3525,7 +3528,7 @@
         <v>269</v>
       </c>
       <c r="O61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3560,10 +3563,10 @@
         <v>271</v>
       </c>
       <c r="N62" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O62" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3595,10 +3598,10 @@
         <v>266</v>
       </c>
       <c r="N63" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O63" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3630,10 +3633,10 @@
         <v>269</v>
       </c>
       <c r="N64" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O64" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3662,7 +3665,7 @@
         <v>226</v>
       </c>
       <c r="O65" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3694,7 +3697,7 @@
         <v>274</v>
       </c>
       <c r="O66" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3720,7 +3723,7 @@
         <v>251</v>
       </c>
       <c r="P67" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -3752,7 +3755,7 @@
         <v>268</v>
       </c>
       <c r="O68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -3784,7 +3787,7 @@
         <v>270</v>
       </c>
       <c r="O69" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -3819,7 +3822,7 @@
         <v>83</v>
       </c>
       <c r="O70" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -3851,7 +3854,7 @@
         <v>84</v>
       </c>
       <c r="O71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -3886,7 +3889,7 @@
         <v>293</v>
       </c>
       <c r="O72" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -3918,7 +3921,7 @@
         <v>86</v>
       </c>
       <c r="O73" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -3947,7 +3950,7 @@
         <v>294</v>
       </c>
       <c r="O74" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -3979,7 +3982,7 @@
         <v>88</v>
       </c>
       <c r="O75" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4014,7 +4017,7 @@
         <v>89</v>
       </c>
       <c r="O76" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4046,7 +4049,7 @@
         <v>90</v>
       </c>
       <c r="O77" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4081,7 +4084,7 @@
         <v>91</v>
       </c>
       <c r="O78" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4119,10 +4122,10 @@
         <v>295</v>
       </c>
       <c r="O79" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P79" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4157,13 +4160,13 @@
         <v>252</v>
       </c>
       <c r="M80" t="s">
-        <v>93</v>
+        <v>296</v>
       </c>
       <c r="O80" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P80" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4192,7 +4195,7 @@
         <v>226</v>
       </c>
       <c r="O81" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4224,7 +4227,7 @@
         <v>95</v>
       </c>
       <c r="O82" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4253,7 +4256,7 @@
         <v>226</v>
       </c>
       <c r="O83" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4282,13 +4285,13 @@
         <v>226</v>
       </c>
       <c r="M84" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O84" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P84" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4317,10 +4320,10 @@
         <v>226</v>
       </c>
       <c r="M85" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O85" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -4352,7 +4355,7 @@
         <v>99</v>
       </c>
       <c r="O86" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -4381,7 +4384,7 @@
         <v>226</v>
       </c>
       <c r="O87" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -4413,7 +4416,7 @@
         <v>101</v>
       </c>
       <c r="O88" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -4439,10 +4442,10 @@
         <v>226</v>
       </c>
       <c r="O89" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -4471,10 +4474,10 @@
         <v>226</v>
       </c>
       <c r="M90" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O90" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4506,7 +4509,7 @@
         <v>104</v>
       </c>
       <c r="O91" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -4538,7 +4541,7 @@
         <v>282</v>
       </c>
       <c r="O92" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -4567,10 +4570,10 @@
         <v>226</v>
       </c>
       <c r="M93" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O93" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -4608,10 +4611,10 @@
         <v>267</v>
       </c>
       <c r="M94" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O94" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -4643,7 +4646,7 @@
         <v>108</v>
       </c>
       <c r="O95" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -4675,7 +4678,7 @@
         <v>109</v>
       </c>
       <c r="O96" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -4707,10 +4710,10 @@
         <v>276</v>
       </c>
       <c r="N97" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O97" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -4742,10 +4745,10 @@
         <v>274</v>
       </c>
       <c r="N98" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O98" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -4777,10 +4780,10 @@
         <v>279</v>
       </c>
       <c r="O99" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P99" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -4812,10 +4815,10 @@
         <v>279</v>
       </c>
       <c r="O100" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P100" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -4847,13 +4850,13 @@
         <v>279</v>
       </c>
       <c r="M101" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O101" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P101" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -4885,10 +4888,10 @@
         <v>279</v>
       </c>
       <c r="O102" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P102" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -4923,10 +4926,10 @@
         <v>293</v>
       </c>
       <c r="O103" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P103" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -4958,13 +4961,13 @@
         <v>279</v>
       </c>
       <c r="M104" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O104" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P104" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -5324,13 +5327,13 @@
         <v>277</v>
       </c>
       <c r="M119" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O119" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P119" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -6323,16 +6326,16 @@
         <v>267</v>
       </c>
       <c r="M173" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N173" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O173" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P173" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -6370,16 +6373,16 @@
         <v>267</v>
       </c>
       <c r="M174" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N174" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O174" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P174" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -6417,16 +6420,16 @@
         <v>267</v>
       </c>
       <c r="M175" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N175" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O175" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P175" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -6461,16 +6464,16 @@
         <v>260</v>
       </c>
       <c r="M176" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N176" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O176" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P176" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -6508,16 +6511,16 @@
         <v>267</v>
       </c>
       <c r="M177" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N177" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O177" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P177" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -6555,16 +6558,16 @@
         <v>267</v>
       </c>
       <c r="M178" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N178" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O178" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P178" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Employee_Process.xlsx
+++ b/helper/Employee_Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="339">
   <si>
     <t>Employee_Process</t>
   </si>
@@ -355,7 +355,7 @@
     <t>Get_vehicles_from_CN_or_EU_hub_to_RDC</t>
   </si>
   <si>
-    <t>Deal_with_any_subscription_cars_delivery-related_issues_with_RDC</t>
+    <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues</t>
   </si>
   <si>
     <t>Receive_subscription_order_from_user</t>
@@ -620,6 +620,9 @@
   </si>
   <si>
     <t>Upload, Update and maintain the lessons on eLearning platforms to allow people self learn online.</t>
+  </si>
+  <si>
+    <t>This process shows the subscription car get in and out of RDC</t>
   </si>
   <si>
     <t>This process covers breakdown and accident</t>
@@ -662,6 +665,9 @@
     <t>Answer user feedback in less than 30 seconds,Have turnover less than 40 days for a used car</t>
   </si>
   <si>
+    <t>Vehicle prepare well before delivery</t>
+  </si>
+  <si>
     <t>Average arrival rate of RSA within 1 hour &gt; 90%</t>
   </si>
   <si>
@@ -858,6 +864,9 @@
     <t>Titan,VAM_EU</t>
   </si>
   <si>
+    <t>Titan,VAM_EU,VOM</t>
+  </si>
+  <si>
     <t>User_creates_Operational_Leasing_order</t>
   </si>
   <si>
@@ -951,6 +960,9 @@
     <t>Develop_New_Users_and_Communities</t>
   </si>
   <si>
+    <t>Stock_Management</t>
+  </si>
+  <si>
     <t>Volume_Target</t>
   </si>
   <si>
@@ -988,6 +1000,9 @@
   </si>
   <si>
     <t>output.jpg</t>
+  </si>
+  <si>
+    <t>template.jpg</t>
   </si>
   <si>
     <t>&lt;a href='https://nio.feishu.cn/docx/R70Ldm6qNoCCl3xMPBOc7JzNnzh' target='_blank'&gt;nio.feishu.cn/docx/R70Ldm6qNoCCl3xMPBOc7JzNnzh&lt;/a&gt;</t>
@@ -1375,7 +1390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P178"/>
+  <dimension ref="A1:P158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1442,25 +1457,25 @@
         <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1477,25 +1492,25 @@
         <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="O3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1512,28 +1527,28 @@
         <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1550,28 +1565,28 @@
         <v>175</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1588,25 +1603,25 @@
         <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1623,31 +1638,31 @@
         <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1664,25 +1679,25 @@
         <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O8" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1699,25 +1714,25 @@
         <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O9" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1734,22 +1749,22 @@
         <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O10" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1766,16 +1781,16 @@
         <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1792,25 +1807,25 @@
         <v>172</v>
       </c>
       <c r="E12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1827,22 +1842,22 @@
         <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N13" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O13" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1859,25 +1874,25 @@
         <v>172</v>
       </c>
       <c r="E14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F14" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I14" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N14" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O14" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1894,22 +1909,22 @@
         <v>172</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N15" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O15" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1926,25 +1941,25 @@
         <v>172</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L16" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N16" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O16" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1961,25 +1976,25 @@
         <v>172</v>
       </c>
       <c r="E17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N17" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O17" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1996,25 +2011,25 @@
         <v>172</v>
       </c>
       <c r="E18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L18" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N18" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O18" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2031,19 +2046,19 @@
         <v>172</v>
       </c>
       <c r="F19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M19" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P19" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2060,25 +2075,25 @@
         <v>177</v>
       </c>
       <c r="E20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N20" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O20" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2095,22 +2110,22 @@
         <v>172</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F21" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G21" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O21" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2127,25 +2142,25 @@
         <v>178</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N22" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O22" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2162,25 +2177,25 @@
         <v>172</v>
       </c>
       <c r="E23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N23" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O23" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2197,22 +2212,22 @@
         <v>172</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N24" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O24" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2229,22 +2244,22 @@
         <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N25" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O25" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2261,25 +2276,25 @@
         <v>172</v>
       </c>
       <c r="E26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N26" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O26" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2296,22 +2311,22 @@
         <v>179</v>
       </c>
       <c r="E27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I27" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N27" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O27" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2328,19 +2343,19 @@
         <v>172</v>
       </c>
       <c r="E28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O28" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2357,25 +2372,25 @@
         <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G29" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I29" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N29" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O29" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2392,25 +2407,25 @@
         <v>181</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G30" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O30" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2427,25 +2442,25 @@
         <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G31" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I31" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N31" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O31" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2462,16 +2477,16 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G32" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I32" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O32" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2488,16 +2503,16 @@
         <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G33" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I33" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O33" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2511,7 +2526,7 @@
         <v>171</v>
       </c>
       <c r="K34" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2528,37 +2543,37 @@
         <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F35" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G35" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I35" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J35" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N35" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O35" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P35" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2575,37 +2590,37 @@
         <v>183</v>
       </c>
       <c r="E36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F36" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G36" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H36" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I36" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J36" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M36" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N36" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O36" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P36" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2622,19 +2637,19 @@
         <v>172</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G37" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I37" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M37" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O37" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2651,25 +2666,25 @@
         <v>184</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F38" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I38" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L38" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N38" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O38" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2686,25 +2701,25 @@
         <v>185</v>
       </c>
       <c r="E39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F39" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G39" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I39" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L39" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N39" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O39" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2721,19 +2736,19 @@
         <v>186</v>
       </c>
       <c r="E40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F40" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G40" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O40" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2750,25 +2765,25 @@
         <v>187</v>
       </c>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F41" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G41" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I41" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L41" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N41" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O41" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2785,28 +2800,28 @@
         <v>188</v>
       </c>
       <c r="E42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F42" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G42" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I42" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L42" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M42" t="s">
         <v>86</v>
       </c>
       <c r="N42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O42" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2823,25 +2838,25 @@
         <v>189</v>
       </c>
       <c r="E43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F43" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G43" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I43" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L43" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N43" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O43" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2858,25 +2873,25 @@
         <v>172</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F44" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G44" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I44" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L44" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N44" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O44" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2893,25 +2908,25 @@
         <v>172</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F45" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I45" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L45" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N45" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O45" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2928,25 +2943,25 @@
         <v>172</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F46" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G46" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I46" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L46" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N46" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O46" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2963,25 +2978,25 @@
         <v>172</v>
       </c>
       <c r="E47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F47" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G47" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I47" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L47" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M47" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O47" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2998,31 +3013,31 @@
         <v>190</v>
       </c>
       <c r="E48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F48" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G48" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H48" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L48" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M48" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N48" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O48" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3039,31 +3054,31 @@
         <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G49" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H49" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I49" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L49" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M49" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N49" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O49" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3080,28 +3095,28 @@
         <v>192</v>
       </c>
       <c r="E50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F50" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G50" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H50" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I50" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L50" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N50" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O50" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3118,31 +3133,31 @@
         <v>193</v>
       </c>
       <c r="E51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F51" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G51" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H51" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I51" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L51" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M51" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N51" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O51" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3159,31 +3174,31 @@
         <v>194</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F52" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G52" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H52" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I52" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M52" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="N52" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O52" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3200,31 +3215,31 @@
         <v>195</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F53" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G53" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H53" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I53" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L53" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M53" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N53" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O53" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3241,31 +3256,31 @@
         <v>196</v>
       </c>
       <c r="E54" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F54" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G54" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H54" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I54" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L54" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M54" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N54" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O54" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3282,28 +3297,28 @@
         <v>197</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F55" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H55" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I55" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L55" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N55" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O55" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3320,31 +3335,31 @@
         <v>198</v>
       </c>
       <c r="E56" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F56" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G56" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H56" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I56" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L56" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M56" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N56" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O56" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3361,28 +3376,28 @@
         <v>172</v>
       </c>
       <c r="E57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F57" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G57" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H57" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I57" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L57" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N57" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O57" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3399,25 +3414,25 @@
         <v>172</v>
       </c>
       <c r="E58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F58" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G58" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H58" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I58" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L58" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O58" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3434,28 +3449,28 @@
         <v>172</v>
       </c>
       <c r="E59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F59" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G59" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H59" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I59" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L59" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N59" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O59" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3472,28 +3487,28 @@
         <v>172</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F60" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G60" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H60" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I60" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L60" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N60" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O60" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3510,25 +3525,25 @@
         <v>172</v>
       </c>
       <c r="E61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F61" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H61" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I61" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L61" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O61" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3545,28 +3560,28 @@
         <v>172</v>
       </c>
       <c r="E62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F62" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G62" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H62" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I62" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L62" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N62" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O62" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3583,25 +3598,25 @@
         <v>172</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G63" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I63" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L63" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N63" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O63" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3618,25 +3633,25 @@
         <v>199</v>
       </c>
       <c r="E64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L64" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N64" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O64" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3653,19 +3668,19 @@
         <v>172</v>
       </c>
       <c r="E65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F65" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I65" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O65" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3682,22 +3697,22 @@
         <v>172</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F66" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G66" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I66" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L66" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O66" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3711,19 +3726,19 @@
         <v>171</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H67" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I67" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J67" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P67" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -3740,22 +3755,22 @@
         <v>172</v>
       </c>
       <c r="E68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F68" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G68" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I68" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L68" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O68" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -3772,22 +3787,22 @@
         <v>172</v>
       </c>
       <c r="E69" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F69" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G69" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I69" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L69" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O69" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -3804,25 +3819,25 @@
         <v>172</v>
       </c>
       <c r="E70" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F70" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G70" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H70" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I70" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M70" t="s">
         <v>83</v>
       </c>
       <c r="O70" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -3839,22 +3854,22 @@
         <v>172</v>
       </c>
       <c r="E71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F71" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G71" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I71" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M71" t="s">
         <v>84</v>
       </c>
       <c r="O71" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -3871,25 +3886,25 @@
         <v>172</v>
       </c>
       <c r="E72" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F72" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G72" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I72" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L72" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M72" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O72" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -3906,22 +3921,22 @@
         <v>172</v>
       </c>
       <c r="E73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F73" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G73" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I73" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M73" t="s">
         <v>86</v>
       </c>
       <c r="O73" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -3938,19 +3953,19 @@
         <v>172</v>
       </c>
       <c r="E74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G74" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I74" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M74" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O74" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -3967,22 +3982,22 @@
         <v>172</v>
       </c>
       <c r="E75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F75" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G75" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I75" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M75" t="s">
         <v>88</v>
       </c>
       <c r="O75" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -3999,25 +4014,25 @@
         <v>172</v>
       </c>
       <c r="E76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F76" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G76" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H76" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I76" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M76" t="s">
         <v>89</v>
       </c>
       <c r="O76" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4034,22 +4049,22 @@
         <v>172</v>
       </c>
       <c r="E77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F77" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G77" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I77" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M77" t="s">
         <v>90</v>
       </c>
       <c r="O77" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4066,25 +4081,25 @@
         <v>172</v>
       </c>
       <c r="E78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F78" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G78" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H78" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I78" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M78" t="s">
         <v>91</v>
       </c>
       <c r="O78" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4101,31 +4116,31 @@
         <v>172</v>
       </c>
       <c r="E79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F79" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H79" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I79" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J79" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M79" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O79" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P79" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4142,31 +4157,31 @@
         <v>172</v>
       </c>
       <c r="E80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F80" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G80" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H80" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I80" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J80" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M80" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O80" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P80" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4183,19 +4198,19 @@
         <v>172</v>
       </c>
       <c r="E81" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F81" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G81" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I81" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O81" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4212,22 +4227,22 @@
         <v>172</v>
       </c>
       <c r="E82" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F82" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G82" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I82" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M82" t="s">
         <v>95</v>
       </c>
       <c r="O82" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4244,19 +4259,19 @@
         <v>172</v>
       </c>
       <c r="E83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F83" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G83" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I83" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O83" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4273,25 +4288,25 @@
         <v>172</v>
       </c>
       <c r="E84" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F84" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G84" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I84" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M84" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O84" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P84" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4308,22 +4323,22 @@
         <v>172</v>
       </c>
       <c r="E85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F85" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G85" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I85" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M85" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O85" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -4340,22 +4355,22 @@
         <v>172</v>
       </c>
       <c r="E86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F86" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G86" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I86" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M86" t="s">
         <v>99</v>
       </c>
       <c r="O86" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -4372,19 +4387,19 @@
         <v>172</v>
       </c>
       <c r="E87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F87" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G87" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I87" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O87" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -4401,22 +4416,22 @@
         <v>172</v>
       </c>
       <c r="E88" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F88" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G88" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I88" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M88" t="s">
         <v>101</v>
       </c>
       <c r="O88" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -4430,22 +4445,22 @@
         <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G89" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H89" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I89" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O89" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P89" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -4462,22 +4477,22 @@
         <v>172</v>
       </c>
       <c r="E90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F90" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G90" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I90" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M90" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O90" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4494,22 +4509,22 @@
         <v>172</v>
       </c>
       <c r="E91" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F91" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G91" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I91" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M91" t="s">
         <v>104</v>
       </c>
       <c r="O91" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -4526,22 +4541,22 @@
         <v>172</v>
       </c>
       <c r="E92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F92" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G92" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I92" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M92" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O92" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -4558,22 +4573,22 @@
         <v>172</v>
       </c>
       <c r="E93" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F93" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G93" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I93" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M93" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O93" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -4590,31 +4605,31 @@
         <v>172</v>
       </c>
       <c r="E94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F94" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G94" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H94" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I94" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J94" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L94" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M94" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O94" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -4631,22 +4646,22 @@
         <v>172</v>
       </c>
       <c r="E95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F95" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G95" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I95" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M95" t="s">
         <v>108</v>
       </c>
       <c r="O95" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -4663,22 +4678,22 @@
         <v>172</v>
       </c>
       <c r="E96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F96" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G96" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I96" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M96" t="s">
         <v>109</v>
       </c>
       <c r="O96" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -4695,25 +4710,25 @@
         <v>200</v>
       </c>
       <c r="E97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F97" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G97" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L97" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N97" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O97" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -4730,25 +4745,25 @@
         <v>201</v>
       </c>
       <c r="E98" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F98" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G98" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I98" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L98" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N98" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O98" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -4762,28 +4777,31 @@
         <v>171</v>
       </c>
       <c r="F99" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G99" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H99" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I99" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J99" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L99" t="s">
-        <v>279</v>
+        <v>281</v>
+      </c>
+      <c r="N99" t="s">
+        <v>314</v>
       </c>
       <c r="O99" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P99" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -4796,29 +4814,38 @@
       <c r="C100" t="s">
         <v>171</v>
       </c>
+      <c r="D100" t="s">
+        <v>202</v>
+      </c>
+      <c r="E100" t="s">
+        <v>216</v>
+      </c>
       <c r="F100" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G100" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H100" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I100" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J100" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L100" t="s">
-        <v>279</v>
+        <v>282</v>
+      </c>
+      <c r="N100" t="s">
+        <v>314</v>
       </c>
       <c r="O100" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P100" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -4832,31 +4859,31 @@
         <v>171</v>
       </c>
       <c r="F101" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G101" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H101" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I101" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J101" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L101" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M101" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O101" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P101" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -4870,28 +4897,28 @@
         <v>171</v>
       </c>
       <c r="F102" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G102" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H102" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I102" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J102" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L102" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O102" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P102" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -4905,31 +4932,31 @@
         <v>171</v>
       </c>
       <c r="F103" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G103" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H103" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I103" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J103" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L103" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M103" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O103" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P103" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -4943,31 +4970,31 @@
         <v>171</v>
       </c>
       <c r="F104" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G104" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H104" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I104" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J104" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L104" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M104" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="O104" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P104" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -4981,16 +5008,16 @@
         <v>171</v>
       </c>
       <c r="F105" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G105" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I105" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J105" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -5004,16 +5031,16 @@
         <v>171</v>
       </c>
       <c r="F106" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G106" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I106" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J106" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5027,16 +5054,16 @@
         <v>171</v>
       </c>
       <c r="F107" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G107" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I107" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J107" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -5050,16 +5077,16 @@
         <v>171</v>
       </c>
       <c r="F108" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G108" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I108" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J108" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -5073,16 +5100,16 @@
         <v>171</v>
       </c>
       <c r="F109" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G109" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I109" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J109" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -5096,16 +5123,16 @@
         <v>171</v>
       </c>
       <c r="F110" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G110" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I110" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J110" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -5119,16 +5146,16 @@
         <v>171</v>
       </c>
       <c r="F111" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G111" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I111" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J111" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -5142,16 +5169,16 @@
         <v>171</v>
       </c>
       <c r="F112" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G112" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I112" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J112" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -5165,16 +5192,16 @@
         <v>171</v>
       </c>
       <c r="F113" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G113" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I113" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J113" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -5188,16 +5215,16 @@
         <v>171</v>
       </c>
       <c r="F114" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G114" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I114" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J114" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -5211,16 +5238,16 @@
         <v>171</v>
       </c>
       <c r="F115" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G115" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I115" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J115" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -5234,16 +5261,16 @@
         <v>171</v>
       </c>
       <c r="F116" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G116" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I116" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J116" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -5257,16 +5284,16 @@
         <v>171</v>
       </c>
       <c r="F117" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G117" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I117" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J117" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -5280,16 +5307,16 @@
         <v>171</v>
       </c>
       <c r="F118" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G118" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I118" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J118" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -5303,37 +5330,37 @@
         <v>171</v>
       </c>
       <c r="D119" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E119" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F119" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G119" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H119" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I119" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J119" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L119" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M119" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O119" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P119" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -5347,13 +5374,13 @@
         <v>171</v>
       </c>
       <c r="F120" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G120" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I120" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -5367,13 +5394,13 @@
         <v>171</v>
       </c>
       <c r="F121" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G121" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I121" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -5387,13 +5414,13 @@
         <v>171</v>
       </c>
       <c r="F122" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G122" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I122" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -5407,13 +5434,13 @@
         <v>171</v>
       </c>
       <c r="F123" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G123" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I123" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -5427,19 +5454,19 @@
         <v>171</v>
       </c>
       <c r="E124" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F124" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G124" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I124" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J124" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -5453,19 +5480,19 @@
         <v>171</v>
       </c>
       <c r="F125" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G125" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H125" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I125" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J125" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -5479,16 +5506,16 @@
         <v>171</v>
       </c>
       <c r="F126" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G126" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I126" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J126" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -5502,16 +5529,16 @@
         <v>171</v>
       </c>
       <c r="F127" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G127" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I127" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J127" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -5525,16 +5552,16 @@
         <v>171</v>
       </c>
       <c r="F128" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G128" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I128" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J128" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -5548,16 +5575,16 @@
         <v>171</v>
       </c>
       <c r="F129" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G129" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I129" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J129" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -5571,16 +5598,16 @@
         <v>171</v>
       </c>
       <c r="F130" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G130" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I130" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J130" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -5594,16 +5621,16 @@
         <v>171</v>
       </c>
       <c r="F131" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G131" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I131" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J131" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -5617,16 +5644,16 @@
         <v>171</v>
       </c>
       <c r="F132" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G132" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I132" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J132" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -5640,16 +5667,16 @@
         <v>171</v>
       </c>
       <c r="F133" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G133" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I133" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J133" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -5663,16 +5690,16 @@
         <v>171</v>
       </c>
       <c r="F134" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G134" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I134" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J134" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -5686,16 +5713,16 @@
         <v>171</v>
       </c>
       <c r="F135" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G135" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I135" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J135" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -5709,16 +5736,16 @@
         <v>171</v>
       </c>
       <c r="F136" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G136" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I136" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J136" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -5732,16 +5759,16 @@
         <v>171</v>
       </c>
       <c r="F137" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G137" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I137" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J137" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -5755,16 +5782,16 @@
         <v>171</v>
       </c>
       <c r="F138" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G138" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I138" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J138" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -5778,16 +5805,16 @@
         <v>171</v>
       </c>
       <c r="F139" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G139" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I139" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J139" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -5801,16 +5828,16 @@
         <v>171</v>
       </c>
       <c r="F140" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G140" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I140" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J140" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5824,16 +5851,16 @@
         <v>171</v>
       </c>
       <c r="F141" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G141" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I141" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J141" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5847,16 +5874,16 @@
         <v>171</v>
       </c>
       <c r="F142" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G142" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I142" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J142" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -5870,16 +5897,16 @@
         <v>171</v>
       </c>
       <c r="F143" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G143" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I143" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J143" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5893,19 +5920,19 @@
         <v>171</v>
       </c>
       <c r="F144" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G144" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I144" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J144" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5916,19 +5943,19 @@
         <v>171</v>
       </c>
       <c r="F145" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G145" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I145" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J145" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5939,16 +5966,16 @@
         <v>171</v>
       </c>
       <c r="F146" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G146" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I146" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5959,13 +5986,13 @@
         <v>171</v>
       </c>
       <c r="G147" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I147" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5976,16 +6003,16 @@
         <v>171</v>
       </c>
       <c r="F148" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G148" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I148" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5996,16 +6023,16 @@
         <v>171</v>
       </c>
       <c r="F149" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G149" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I149" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6016,16 +6043,16 @@
         <v>171</v>
       </c>
       <c r="F150" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G150" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I150" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6036,19 +6063,19 @@
         <v>171</v>
       </c>
       <c r="F151" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G151" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I151" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K151" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:16">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6059,515 +6086,295 @@
         <v>171</v>
       </c>
       <c r="F152" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G152" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I152" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C153" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="D153" t="s">
+        <v>204</v>
+      </c>
+      <c r="E153" t="s">
+        <v>219</v>
+      </c>
+      <c r="F153" t="s">
+        <v>239</v>
+      </c>
+      <c r="G153" t="s">
+        <v>240</v>
+      </c>
+      <c r="H153" t="s">
+        <v>249</v>
+      </c>
+      <c r="I153" t="s">
+        <v>228</v>
+      </c>
+      <c r="J153" t="s">
+        <v>262</v>
+      </c>
+      <c r="K153" t="s">
+        <v>264</v>
+      </c>
+      <c r="L153" t="s">
+        <v>269</v>
+      </c>
+      <c r="M153" t="s">
+        <v>307</v>
+      </c>
+      <c r="N153" t="s">
+        <v>315</v>
+      </c>
+      <c r="O153" t="s">
+        <v>327</v>
+      </c>
+      <c r="P153" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C154" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="D154" t="s">
+        <v>205</v>
+      </c>
+      <c r="E154" t="s">
+        <v>220</v>
+      </c>
+      <c r="F154" t="s">
+        <v>239</v>
+      </c>
+      <c r="G154" t="s">
+        <v>240</v>
+      </c>
+      <c r="H154" t="s">
+        <v>249</v>
+      </c>
+      <c r="I154" t="s">
+        <v>228</v>
+      </c>
+      <c r="J154" t="s">
+        <v>262</v>
+      </c>
+      <c r="L154" t="s">
+        <v>269</v>
+      </c>
+      <c r="M154" t="s">
+        <v>307</v>
+      </c>
+      <c r="N154" t="s">
+        <v>315</v>
+      </c>
+      <c r="O154" t="s">
+        <v>328</v>
+      </c>
+      <c r="P154" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C155" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="D155" t="s">
+        <v>206</v>
+      </c>
+      <c r="E155" t="s">
+        <v>220</v>
+      </c>
+      <c r="F155" t="s">
+        <v>239</v>
+      </c>
+      <c r="G155" t="s">
+        <v>240</v>
+      </c>
+      <c r="H155" t="s">
+        <v>249</v>
+      </c>
+      <c r="I155" t="s">
+        <v>228</v>
+      </c>
+      <c r="J155" t="s">
+        <v>262</v>
+      </c>
+      <c r="L155" t="s">
+        <v>269</v>
+      </c>
+      <c r="M155" t="s">
+        <v>307</v>
+      </c>
+      <c r="N155" t="s">
+        <v>315</v>
+      </c>
+      <c r="O155" t="s">
+        <v>328</v>
+      </c>
+      <c r="P155" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C156" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="D156" t="s">
+        <v>207</v>
+      </c>
+      <c r="E156" t="s">
+        <v>221</v>
+      </c>
+      <c r="F156" t="s">
+        <v>239</v>
+      </c>
+      <c r="G156" t="s">
+        <v>240</v>
+      </c>
+      <c r="H156" t="s">
+        <v>249</v>
+      </c>
+      <c r="I156" t="s">
+        <v>228</v>
+      </c>
+      <c r="J156" t="s">
+        <v>262</v>
+      </c>
+      <c r="M156" t="s">
+        <v>307</v>
+      </c>
+      <c r="N156" t="s">
+        <v>315</v>
+      </c>
+      <c r="O156" t="s">
+        <v>328</v>
+      </c>
+      <c r="P156" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C157" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="D157" t="s">
+        <v>208</v>
+      </c>
+      <c r="E157" t="s">
+        <v>222</v>
+      </c>
+      <c r="F157" t="s">
+        <v>239</v>
+      </c>
+      <c r="G157" t="s">
+        <v>240</v>
+      </c>
+      <c r="H157" t="s">
+        <v>249</v>
+      </c>
+      <c r="I157" t="s">
+        <v>228</v>
+      </c>
+      <c r="J157" t="s">
+        <v>262</v>
+      </c>
+      <c r="L157" t="s">
+        <v>269</v>
+      </c>
+      <c r="M157" t="s">
+        <v>307</v>
+      </c>
+      <c r="N157" t="s">
+        <v>315</v>
+      </c>
+      <c r="O157" t="s">
+        <v>328</v>
+      </c>
+      <c r="P157" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C158" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>164</v>
-      </c>
-      <c r="C159" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>164</v>
-      </c>
-      <c r="C160" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>164</v>
-      </c>
-      <c r="C161" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>164</v>
-      </c>
-      <c r="C162" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163" t="s">
-        <v>164</v>
-      </c>
-      <c r="C163" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164" t="s">
-        <v>164</v>
-      </c>
-      <c r="C164" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165" t="s">
-        <v>164</v>
-      </c>
-      <c r="C165" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166" t="s">
-        <v>164</v>
-      </c>
-      <c r="C166" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167" t="s">
-        <v>164</v>
-      </c>
-      <c r="C167" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168" t="s">
-        <v>164</v>
-      </c>
-      <c r="C168" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169" t="s">
-        <v>164</v>
-      </c>
-      <c r="C169" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170" t="s">
-        <v>164</v>
-      </c>
-      <c r="C170" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171" t="s">
-        <v>164</v>
-      </c>
-      <c r="C171" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172" t="s">
-        <v>164</v>
-      </c>
-      <c r="C172" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" t="s">
-        <v>165</v>
-      </c>
-      <c r="C173" t="s">
-        <v>171</v>
-      </c>
-      <c r="D173" t="s">
-        <v>203</v>
-      </c>
-      <c r="E173" t="s">
-        <v>217</v>
-      </c>
-      <c r="F173" t="s">
-        <v>237</v>
-      </c>
-      <c r="G173" t="s">
-        <v>238</v>
-      </c>
-      <c r="H173" t="s">
-        <v>247</v>
-      </c>
-      <c r="I173" t="s">
-        <v>226</v>
-      </c>
-      <c r="J173" t="s">
-        <v>260</v>
-      </c>
-      <c r="K173" t="s">
+      <c r="D158" t="s">
+        <v>209</v>
+      </c>
+      <c r="E158" t="s">
+        <v>223</v>
+      </c>
+      <c r="F158" t="s">
+        <v>239</v>
+      </c>
+      <c r="G158" t="s">
+        <v>240</v>
+      </c>
+      <c r="H158" t="s">
+        <v>249</v>
+      </c>
+      <c r="I158" t="s">
+        <v>228</v>
+      </c>
+      <c r="J158" t="s">
         <v>262</v>
       </c>
-      <c r="L173" t="s">
-        <v>267</v>
-      </c>
-      <c r="M173" t="s">
-        <v>304</v>
-      </c>
-      <c r="N173" t="s">
-        <v>311</v>
-      </c>
-      <c r="O173" t="s">
-        <v>323</v>
-      </c>
-      <c r="P173" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" t="s">
-        <v>166</v>
-      </c>
-      <c r="C174" t="s">
-        <v>171</v>
-      </c>
-      <c r="D174" t="s">
-        <v>204</v>
-      </c>
-      <c r="E174" t="s">
-        <v>218</v>
-      </c>
-      <c r="F174" t="s">
-        <v>237</v>
-      </c>
-      <c r="G174" t="s">
-        <v>238</v>
-      </c>
-      <c r="H174" t="s">
-        <v>247</v>
-      </c>
-      <c r="I174" t="s">
-        <v>226</v>
-      </c>
-      <c r="J174" t="s">
-        <v>260</v>
-      </c>
-      <c r="L174" t="s">
-        <v>267</v>
-      </c>
-      <c r="M174" t="s">
-        <v>304</v>
-      </c>
-      <c r="N174" t="s">
-        <v>311</v>
-      </c>
-      <c r="O174" t="s">
-        <v>313</v>
-      </c>
-      <c r="P174" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" t="s">
-        <v>167</v>
-      </c>
-      <c r="C175" t="s">
-        <v>171</v>
-      </c>
-      <c r="D175" t="s">
-        <v>205</v>
-      </c>
-      <c r="E175" t="s">
-        <v>218</v>
-      </c>
-      <c r="F175" t="s">
-        <v>237</v>
-      </c>
-      <c r="G175" t="s">
-        <v>238</v>
-      </c>
-      <c r="H175" t="s">
-        <v>247</v>
-      </c>
-      <c r="I175" t="s">
-        <v>226</v>
-      </c>
-      <c r="J175" t="s">
-        <v>260</v>
-      </c>
-      <c r="L175" t="s">
-        <v>267</v>
-      </c>
-      <c r="M175" t="s">
-        <v>304</v>
-      </c>
-      <c r="N175" t="s">
-        <v>311</v>
-      </c>
-      <c r="O175" t="s">
-        <v>313</v>
-      </c>
-      <c r="P175" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" t="s">
-        <v>168</v>
-      </c>
-      <c r="C176" t="s">
-        <v>171</v>
-      </c>
-      <c r="D176" t="s">
-        <v>206</v>
-      </c>
-      <c r="E176" t="s">
-        <v>219</v>
-      </c>
-      <c r="F176" t="s">
-        <v>237</v>
-      </c>
-      <c r="G176" t="s">
-        <v>238</v>
-      </c>
-      <c r="H176" t="s">
-        <v>247</v>
-      </c>
-      <c r="I176" t="s">
-        <v>226</v>
-      </c>
-      <c r="J176" t="s">
-        <v>260</v>
-      </c>
-      <c r="M176" t="s">
-        <v>304</v>
-      </c>
-      <c r="N176" t="s">
-        <v>311</v>
-      </c>
-      <c r="O176" t="s">
-        <v>313</v>
-      </c>
-      <c r="P176" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>169</v>
-      </c>
-      <c r="C177" t="s">
-        <v>171</v>
-      </c>
-      <c r="D177" t="s">
-        <v>207</v>
-      </c>
-      <c r="E177" t="s">
-        <v>220</v>
-      </c>
-      <c r="F177" t="s">
-        <v>237</v>
-      </c>
-      <c r="G177" t="s">
-        <v>238</v>
-      </c>
-      <c r="H177" t="s">
-        <v>247</v>
-      </c>
-      <c r="I177" t="s">
-        <v>226</v>
-      </c>
-      <c r="J177" t="s">
-        <v>260</v>
-      </c>
-      <c r="L177" t="s">
-        <v>267</v>
-      </c>
-      <c r="M177" t="s">
-        <v>304</v>
-      </c>
-      <c r="N177" t="s">
-        <v>311</v>
-      </c>
-      <c r="O177" t="s">
-        <v>313</v>
-      </c>
-      <c r="P177" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" t="s">
-        <v>170</v>
-      </c>
-      <c r="C178" t="s">
-        <v>171</v>
-      </c>
-      <c r="D178" t="s">
-        <v>208</v>
-      </c>
-      <c r="E178" t="s">
-        <v>221</v>
-      </c>
-      <c r="F178" t="s">
-        <v>237</v>
-      </c>
-      <c r="G178" t="s">
-        <v>238</v>
-      </c>
-      <c r="H178" t="s">
-        <v>247</v>
-      </c>
-      <c r="I178" t="s">
-        <v>226</v>
-      </c>
-      <c r="J178" t="s">
-        <v>260</v>
-      </c>
-      <c r="L178" t="s">
-        <v>267</v>
-      </c>
-      <c r="M178" t="s">
-        <v>304</v>
-      </c>
-      <c r="N178" t="s">
-        <v>311</v>
-      </c>
-      <c r="O178" t="s">
-        <v>313</v>
-      </c>
-      <c r="P178" t="s">
-        <v>333</v>
+      <c r="L158" t="s">
+        <v>269</v>
+      </c>
+      <c r="M158" t="s">
+        <v>307</v>
+      </c>
+      <c r="N158" t="s">
+        <v>315</v>
+      </c>
+      <c r="O158" t="s">
+        <v>328</v>
+      </c>
+      <c r="P158" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Employee_Process.xlsx
+++ b/helper/Employee_Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="912">
   <si>
     <t>Employee_Process</t>
   </si>
@@ -2173,6 +2173,9 @@
     <t>Legal_Commercial_Team</t>
   </si>
   <si>
+    <t>Country_Head_of_Service,Specialist_Insurance_Strategy_Germany,Head_of_European_Service_Operation_-_ESO,EU_Buyer,HQ_&amp;_Country_FBP_-_Finance_Business_Partner,Legal_Commercial_Team</t>
+  </si>
+  <si>
     <t>Head_of_Marketing_Communications_&amp;_PR_Europe,Technical_Support_Lead,EU_Product_launch_Team,Product_Experience_Operation_Manager,Experience_Manager</t>
   </si>
   <si>
@@ -2741,6 +2744,9 @@
   </si>
   <si>
     <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400498-9374</t>
+  </si>
+  <si>
+    <t>CJ todo</t>
   </si>
   <si>
     <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400217-4668</t>
@@ -3260,16 +3266,16 @@
         <v>631</v>
       </c>
       <c r="I2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="K2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="N2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O2" s="2">
         <v>44980.49791666667</v>
@@ -3298,16 +3304,16 @@
         <v>632</v>
       </c>
       <c r="I3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M3" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="N3" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O3" s="2">
         <v>44980.49791666667</v>
@@ -3339,13 +3345,13 @@
         <v>633</v>
       </c>
       <c r="K4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M4" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="N4" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O4" s="2">
         <v>44980.49791666667</v>
@@ -3377,13 +3383,13 @@
         <v>633</v>
       </c>
       <c r="K5" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M5" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O5" s="2">
         <v>44980.49791666667</v>
@@ -3415,16 +3421,16 @@
         <v>634</v>
       </c>
       <c r="I6" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K6" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M6" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O6" s="2">
         <v>44980.49791666667</v>
@@ -3456,16 +3462,16 @@
         <v>635</v>
       </c>
       <c r="I7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M7" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N7" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O7" s="2">
         <v>44980.49791666667</v>
@@ -3497,13 +3503,13 @@
         <v>636</v>
       </c>
       <c r="I8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M8" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="N8" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O8" s="2">
         <v>44980.49791666667</v>
@@ -3535,16 +3541,16 @@
         <v>637</v>
       </c>
       <c r="I9" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="N9" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O9" s="2">
         <v>44980.49791666667</v>
@@ -3576,16 +3582,16 @@
         <v>638</v>
       </c>
       <c r="I10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M10" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="N10" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O10" s="2">
         <v>44980.49791666667</v>
@@ -3617,13 +3623,13 @@
         <v>633</v>
       </c>
       <c r="I11" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M11" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N11" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O11" s="2">
         <v>44980.49791666667</v>
@@ -3655,19 +3661,19 @@
         <v>639</v>
       </c>
       <c r="I12" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J12" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K12" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M12" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N12" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O12" s="2">
         <v>44980.49791666667</v>
@@ -3699,16 +3705,16 @@
         <v>639</v>
       </c>
       <c r="I13" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K13" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M13" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N13" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O13" s="2">
         <v>44980.49791666667</v>
@@ -3740,16 +3746,16 @@
         <v>639</v>
       </c>
       <c r="I14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M14" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N14" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O14" s="2">
         <v>44980.49791666667</v>
@@ -3781,16 +3787,16 @@
         <v>640</v>
       </c>
       <c r="I15" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K15" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M15" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N15" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O15" s="2">
         <v>44980.49791666667</v>
@@ -3822,19 +3828,19 @@
         <v>640</v>
       </c>
       <c r="I16" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J16" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K16" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M16" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N16" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O16" s="2">
         <v>44980.49791666667</v>
@@ -3866,13 +3872,13 @@
         <v>640</v>
       </c>
       <c r="K17" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M17" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N17" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O17" s="2">
         <v>44980.49791666667</v>
@@ -3904,13 +3910,13 @@
         <v>640</v>
       </c>
       <c r="K18" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M18" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N18" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O18" s="2">
         <v>44980.49791666667</v>
@@ -3942,13 +3948,13 @@
         <v>640</v>
       </c>
       <c r="K19" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M19" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N19" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O19" s="2">
         <v>44980.49791666667</v>
@@ -3980,16 +3986,16 @@
         <v>640</v>
       </c>
       <c r="I20" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="K20" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M20" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N20" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O20" s="2">
         <v>44980.49791666667</v>
@@ -4021,13 +4027,13 @@
         <v>640</v>
       </c>
       <c r="K21" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M21" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N21" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O21" s="2">
         <v>44980.49791666667</v>
@@ -4059,19 +4065,19 @@
         <v>641</v>
       </c>
       <c r="I22" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J22" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K22" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M22" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N22" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O22" s="2">
         <v>44980.49791666667</v>
@@ -4100,16 +4106,16 @@
         <v>642</v>
       </c>
       <c r="K23" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="M23" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N23" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O23" s="2">
         <v>44981.42430555556</v>
@@ -4141,16 +4147,16 @@
         <v>641</v>
       </c>
       <c r="I24" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K24" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M24" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N24" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O24" s="2">
         <v>44980.49791666667</v>
@@ -4182,16 +4188,16 @@
         <v>641</v>
       </c>
       <c r="I25" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K25" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M25" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N25" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O25" s="2">
         <v>44980.49791666667</v>
@@ -4223,19 +4229,19 @@
         <v>641</v>
       </c>
       <c r="I26" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J26" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K26" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M26" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N26" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O26" s="2">
         <v>44980.49791666667</v>
@@ -4267,19 +4273,19 @@
         <v>641</v>
       </c>
       <c r="I27" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J27" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K27" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M27" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N27" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O27" s="2">
         <v>44980.49791666667</v>
@@ -4311,19 +4317,19 @@
         <v>641</v>
       </c>
       <c r="I28" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J28" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="K28" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M28" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N28" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O28" s="2">
         <v>44980.49791666667</v>
@@ -4355,16 +4361,16 @@
         <v>641</v>
       </c>
       <c r="I29" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K29" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M29" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N29" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O29" s="2">
         <v>44980.49791666667</v>
@@ -4396,16 +4402,16 @@
         <v>641</v>
       </c>
       <c r="I30" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K30" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M30" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N30" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O30" s="2">
         <v>44980.49791666667</v>
@@ -4437,16 +4443,16 @@
         <v>641</v>
       </c>
       <c r="I31" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K31" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M31" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N31" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O31" s="2">
         <v>44980.49791666667</v>
@@ -4478,16 +4484,16 @@
         <v>641</v>
       </c>
       <c r="I32" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K32" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M32" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N32" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O32" s="2">
         <v>44980.49791666667</v>
@@ -4519,16 +4525,16 @@
         <v>641</v>
       </c>
       <c r="I33" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K33" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M33" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N33" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O33" s="2">
         <v>44980.49791666667</v>
@@ -4560,19 +4566,19 @@
         <v>641</v>
       </c>
       <c r="I34" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J34" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K34" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M34" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N34" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O34" s="2">
         <v>44980.49791666667</v>
@@ -4604,16 +4610,16 @@
         <v>641</v>
       </c>
       <c r="I35" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K35" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M35" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N35" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O35" s="2">
         <v>44980.49791666667</v>
@@ -4645,16 +4651,16 @@
         <v>641</v>
       </c>
       <c r="I36" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K36" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M36" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N36" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O36" s="2">
         <v>44980.49791666667</v>
@@ -4686,16 +4692,16 @@
         <v>641</v>
       </c>
       <c r="I37" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K37" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M37" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N37" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O37" s="2">
         <v>44980.49791666667</v>
@@ -4727,16 +4733,16 @@
         <v>641</v>
       </c>
       <c r="I38" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K38" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M38" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N38" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O38" s="2">
         <v>44980.49791666667</v>
@@ -4768,16 +4774,16 @@
         <v>641</v>
       </c>
       <c r="I39" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K39" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M39" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N39" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O39" s="2">
         <v>44980.49791666667</v>
@@ -4809,19 +4815,19 @@
         <v>641</v>
       </c>
       <c r="I40" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J40" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="K40" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M40" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N40" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O40" s="2">
         <v>44980.49791666667</v>
@@ -4853,16 +4859,16 @@
         <v>641</v>
       </c>
       <c r="I41" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K41" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M41" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N41" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O41" s="2">
         <v>44980.49791666667</v>
@@ -4894,16 +4900,16 @@
         <v>641</v>
       </c>
       <c r="I42" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K42" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M42" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N42" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O42" s="2">
         <v>44980.49791666667</v>
@@ -4935,16 +4941,16 @@
         <v>641</v>
       </c>
       <c r="I43" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K43" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M43" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N43" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O43" s="2">
         <v>44980.49791666667</v>
@@ -4976,16 +4982,16 @@
         <v>641</v>
       </c>
       <c r="I44" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K44" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M44" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N44" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O44" s="2">
         <v>44980.49791666667</v>
@@ -5017,16 +5023,16 @@
         <v>641</v>
       </c>
       <c r="I45" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="K45" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M45" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N45" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O45" s="2">
         <v>44980.49791666667</v>
@@ -5058,16 +5064,16 @@
         <v>641</v>
       </c>
       <c r="I46" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K46" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M46" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N46" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O46" s="2">
         <v>44980.49791666667</v>
@@ -5093,19 +5099,19 @@
         <v>643</v>
       </c>
       <c r="I47" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K47" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="M47" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N47" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O47" s="2">
         <v>44981.41180555556</v>
@@ -5131,16 +5137,16 @@
         <v>580</v>
       </c>
       <c r="I48" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K48" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M48" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N48" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O48" s="2">
         <v>44980.49791666667</v>
@@ -5172,19 +5178,19 @@
         <v>644</v>
       </c>
       <c r="I49" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K49" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="M49" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N49" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O49" s="2">
         <v>44981.41736111111</v>
@@ -5216,19 +5222,19 @@
         <v>645</v>
       </c>
       <c r="I50" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K50" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="M50" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N50" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O50" s="2">
         <v>44981.41875</v>
@@ -5260,19 +5266,19 @@
         <v>646</v>
       </c>
       <c r="I51" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="K51" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="M51" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N51" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O51" s="2">
         <v>44981.42083333333</v>
@@ -5295,10 +5301,10 @@
         <v>588</v>
       </c>
       <c r="M52" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N52" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O52" s="2">
         <v>44980.49791666667</v>
@@ -5321,10 +5327,10 @@
         <v>588</v>
       </c>
       <c r="M53" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N53" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O53" s="2">
         <v>44980.49791666667</v>
@@ -5347,10 +5353,10 @@
         <v>588</v>
       </c>
       <c r="M54" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N54" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O54" s="2">
         <v>44980.49791666667</v>
@@ -5373,10 +5379,10 @@
         <v>588</v>
       </c>
       <c r="M55" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N55" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O55" s="2">
         <v>44980.49791666667</v>
@@ -5399,10 +5405,10 @@
         <v>588</v>
       </c>
       <c r="M56" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N56" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O56" s="2">
         <v>44980.49791666667</v>
@@ -5425,10 +5431,10 @@
         <v>588</v>
       </c>
       <c r="M57" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N57" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O57" s="2">
         <v>44980.49791666667</v>
@@ -5451,10 +5457,10 @@
         <v>588</v>
       </c>
       <c r="M58" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N58" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O58" s="2">
         <v>44980.49791666667</v>
@@ -5477,10 +5483,10 @@
         <v>588</v>
       </c>
       <c r="M59" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N59" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O59" s="2">
         <v>44980.49791666667</v>
@@ -5503,10 +5509,10 @@
         <v>588</v>
       </c>
       <c r="M60" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N60" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O60" s="2">
         <v>44980.49791666667</v>
@@ -5529,10 +5535,10 @@
         <v>588</v>
       </c>
       <c r="M61" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N61" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O61" s="2">
         <v>44980.49791666667</v>
@@ -5555,10 +5561,10 @@
         <v>588</v>
       </c>
       <c r="M62" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N62" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O62" s="2">
         <v>44980.49791666667</v>
@@ -5581,10 +5587,10 @@
         <v>588</v>
       </c>
       <c r="M63" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N63" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O63" s="2">
         <v>44980.49791666667</v>
@@ -5607,10 +5613,10 @@
         <v>588</v>
       </c>
       <c r="M64" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N64" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O64" s="2">
         <v>44980.49791666667</v>
@@ -5633,10 +5639,10 @@
         <v>588</v>
       </c>
       <c r="M65" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N65" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O65" s="2">
         <v>44980.49791666667</v>
@@ -5659,10 +5665,10 @@
         <v>588</v>
       </c>
       <c r="M66" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N66" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O66" s="2">
         <v>44980.49791666667</v>
@@ -5685,10 +5691,10 @@
         <v>588</v>
       </c>
       <c r="M67" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N67" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O67" s="2">
         <v>44980.49791666667</v>
@@ -5711,10 +5717,10 @@
         <v>588</v>
       </c>
       <c r="M68" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N68" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O68" s="2">
         <v>44980.49791666667</v>
@@ -5743,19 +5749,19 @@
         <v>647</v>
       </c>
       <c r="I69" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J69" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="K69" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M69" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N69" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O69" s="2">
         <v>44980.49791666667</v>
@@ -5781,19 +5787,19 @@
         <v>580</v>
       </c>
       <c r="I70" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J70" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="K70" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M70" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N70" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O70" s="2">
         <v>44980.49791666667</v>
@@ -5825,16 +5831,16 @@
         <v>648</v>
       </c>
       <c r="I71" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K71" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M71" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N71" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O71" s="2">
         <v>44980.49791666667</v>
@@ -5863,16 +5869,16 @@
         <v>580</v>
       </c>
       <c r="I72" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K72" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M72" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N72" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O72" s="2">
         <v>44980.49791666667</v>
@@ -5904,16 +5910,16 @@
         <v>649</v>
       </c>
       <c r="I73" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K73" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M73" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N73" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O73" s="2">
         <v>44980.49791666667</v>
@@ -5942,19 +5948,19 @@
         <v>650</v>
       </c>
       <c r="I74" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J74" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="K74" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M74" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N74" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O74" s="2">
         <v>44980.49791666667</v>
@@ -5986,16 +5992,16 @@
         <v>651</v>
       </c>
       <c r="I75" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K75" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="M75" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N75" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O75" s="2">
         <v>44980.49791666667</v>
@@ -6018,13 +6024,13 @@
         <v>445</v>
       </c>
       <c r="K76" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M76" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N76" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O76" s="2">
         <v>44980.49791666667</v>
@@ -6050,16 +6056,16 @@
         <v>580</v>
       </c>
       <c r="J77" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K77" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="M77" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N77" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O77" s="2">
         <v>44980.49791666667</v>
@@ -6091,16 +6097,16 @@
         <v>652</v>
       </c>
       <c r="I78" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K78" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M78" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N78" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O78" s="2">
         <v>44980.49791666667</v>
@@ -6132,16 +6138,16 @@
         <v>653</v>
       </c>
       <c r="I79" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="K79" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M79" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N79" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O79" s="2">
         <v>44980.49791666667</v>
@@ -6173,16 +6179,16 @@
         <v>654</v>
       </c>
       <c r="I80" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K80" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="M80" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N80" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O80" s="2">
         <v>44980.49791666667</v>
@@ -6208,16 +6214,16 @@
         <v>580</v>
       </c>
       <c r="J81" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="K81" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M81" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N81" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O81" s="2">
         <v>44980.49791666667</v>
@@ -6249,16 +6255,16 @@
         <v>654</v>
       </c>
       <c r="I82" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="K82" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M82" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N82" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O82" s="2">
         <v>44980.49791666667</v>
@@ -6290,16 +6296,16 @@
         <v>655</v>
       </c>
       <c r="I83" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K83" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M83" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N83" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O83" s="2">
         <v>44980.49791666667</v>
@@ -6331,16 +6337,16 @@
         <v>655</v>
       </c>
       <c r="I84" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K84" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="M84" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N84" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O84" s="2">
         <v>44980.49791666667</v>
@@ -6366,16 +6372,16 @@
         <v>580</v>
       </c>
       <c r="J85" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="K85" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M85" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N85" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O85" s="2">
         <v>44980.49791666667</v>
@@ -6407,16 +6413,16 @@
         <v>656</v>
       </c>
       <c r="I86" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K86" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M86" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N86" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O86" s="2">
         <v>44980.49791666667</v>
@@ -6448,16 +6454,16 @@
         <v>657</v>
       </c>
       <c r="I87" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K87" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M87" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N87" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O87" s="2">
         <v>44980.49791666667</v>
@@ -6489,16 +6495,16 @@
         <v>654</v>
       </c>
       <c r="I88" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="K88" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M88" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N88" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O88" s="2">
         <v>44980.49791666667</v>
@@ -6530,16 +6536,16 @@
         <v>658</v>
       </c>
       <c r="I89" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K89" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M89" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N89" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O89" s="2">
         <v>44980.49791666667</v>
@@ -6571,16 +6577,16 @@
         <v>659</v>
       </c>
       <c r="I90" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K90" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="M90" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N90" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O90" s="2">
         <v>44980.49791666667</v>
@@ -6612,16 +6618,16 @@
         <v>660</v>
       </c>
       <c r="I91" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K91" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="M91" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N91" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O91" s="2">
         <v>44980.49791666667</v>
@@ -6653,16 +6659,16 @@
         <v>661</v>
       </c>
       <c r="I92" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K92" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M92" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N92" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O92" s="2">
         <v>44980.49791666667</v>
@@ -6694,16 +6700,16 @@
         <v>662</v>
       </c>
       <c r="I93" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K93" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="M93" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N93" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O93" s="2">
         <v>44980.49791666667</v>
@@ -6729,16 +6735,16 @@
         <v>580</v>
       </c>
       <c r="J94" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="K94" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M94" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N94" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O94" s="2">
         <v>44980.49791666667</v>
@@ -6770,16 +6776,16 @@
         <v>663</v>
       </c>
       <c r="I95" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K95" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="M95" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N95" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O95" s="2">
         <v>44980.49791666667</v>
@@ -6811,16 +6817,16 @@
         <v>664</v>
       </c>
       <c r="I96" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="K96" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M96" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N96" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O96" s="2">
         <v>44980.49791666667</v>
@@ -6852,16 +6858,16 @@
         <v>654</v>
       </c>
       <c r="I97" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K97" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M97" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N97" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O97" s="2">
         <v>44980.49791666667</v>
@@ -6893,13 +6899,13 @@
         <v>665</v>
       </c>
       <c r="K98" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="M98" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N98" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O98" s="2">
         <v>44980.49791666667</v>
@@ -6928,16 +6934,16 @@
         <v>666</v>
       </c>
       <c r="I99" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="K99" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="M99" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N99" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O99" s="2">
         <v>44980.49791666667</v>
@@ -6957,13 +6963,13 @@
         <v>278</v>
       </c>
       <c r="K100" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="M100" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N100" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O100" s="2">
         <v>44980.49791666667</v>
@@ -6995,16 +7001,16 @@
         <v>654</v>
       </c>
       <c r="I101" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K101" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M101" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N101" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O101" s="2">
         <v>44980.49791666667</v>
@@ -7033,19 +7039,19 @@
         <v>592</v>
       </c>
       <c r="I102" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="J102" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="K102" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M102" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N102" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O102" s="2">
         <v>44980.77708333333</v>
@@ -7071,16 +7077,16 @@
         <v>593</v>
       </c>
       <c r="I103" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K103" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M103" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N103" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O103" s="2">
         <v>44980.7875</v>
@@ -7106,16 +7112,16 @@
         <v>580</v>
       </c>
       <c r="I104" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K104" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M104" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N104" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O104" s="2">
         <v>44980.82916666667</v>
@@ -7141,16 +7147,16 @@
         <v>580</v>
       </c>
       <c r="I105" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K105" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M105" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N105" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O105" s="2">
         <v>44980.83055555556</v>
@@ -7182,22 +7188,22 @@
         <v>667</v>
       </c>
       <c r="I106" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J106" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="K106" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="M106" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N106" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O106" s="2">
         <v>44981.60833333333</v>
@@ -7229,16 +7235,16 @@
         <v>668</v>
       </c>
       <c r="I107" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K107" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="M107" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N107" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O107" s="2">
         <v>44980.84166666667</v>
@@ -7270,16 +7276,16 @@
         <v>668</v>
       </c>
       <c r="I108" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K108" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="M108" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N108" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O108" s="2">
         <v>44980.85208333333</v>
@@ -7311,16 +7317,16 @@
         <v>668</v>
       </c>
       <c r="I109" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K109" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="M109" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N109" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O109" s="2">
         <v>44980.85486111111</v>
@@ -7352,16 +7358,16 @@
         <v>669</v>
       </c>
       <c r="I110" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K110" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="M110" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N110" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O110" s="2">
         <v>44980.85763888889</v>
@@ -7393,16 +7399,16 @@
         <v>669</v>
       </c>
       <c r="I111" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K111" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="M111" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N111" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O111" s="2">
         <v>44980.86041666667</v>
@@ -7425,13 +7431,13 @@
         <v>316</v>
       </c>
       <c r="K112" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="M112" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N112" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O112" s="2">
         <v>44981.59027777778</v>
@@ -7454,10 +7460,10 @@
         <v>316</v>
       </c>
       <c r="M113" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N113" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O113" s="2">
         <v>44981.59166666667</v>
@@ -7480,10 +7486,10 @@
         <v>316</v>
       </c>
       <c r="M114" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N114" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O114" s="2">
         <v>44981.59305555555</v>
@@ -7506,10 +7512,10 @@
         <v>316</v>
       </c>
       <c r="M115" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N115" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O115" s="2">
         <v>44981.59305555555</v>
@@ -7532,10 +7538,10 @@
         <v>316</v>
       </c>
       <c r="M116" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N116" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O116" s="2">
         <v>44981.59305555555</v>
@@ -7558,10 +7564,10 @@
         <v>316</v>
       </c>
       <c r="M117" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N117" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O117" s="2">
         <v>44981.59305555555</v>
@@ -7584,10 +7590,10 @@
         <v>316</v>
       </c>
       <c r="M118" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N118" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O118" s="2">
         <v>44981.59305555555</v>
@@ -7619,16 +7625,16 @@
         <v>670</v>
       </c>
       <c r="I119" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K119" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M119" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N119" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O119" s="2">
         <v>44980.49791666667</v>
@@ -7651,19 +7657,19 @@
         <v>481</v>
       </c>
       <c r="I120" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J120" t="s">
         <v>131</v>
       </c>
       <c r="K120" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M120" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N120" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O120" s="2">
         <v>44980.49791666667</v>
@@ -7692,22 +7698,22 @@
         <v>671</v>
       </c>
       <c r="I121" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J121" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="K121" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="M121" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N121" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O121" s="2">
         <v>44981.37013888889</v>
@@ -7736,22 +7742,22 @@
         <v>672</v>
       </c>
       <c r="I122" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J122" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="K122" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="M122" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N122" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O122" s="2">
         <v>44981.37291666667</v>
@@ -7780,22 +7786,22 @@
         <v>673</v>
       </c>
       <c r="I123" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J123" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="K123" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="M123" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N123" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O123" s="2">
         <v>44981.37430555555</v>
@@ -7824,19 +7830,19 @@
         <v>674</v>
       </c>
       <c r="I124" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J124" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="K124" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M124" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N124" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O124" s="2">
         <v>44981.36458333334</v>
@@ -7862,16 +7868,16 @@
         <v>675</v>
       </c>
       <c r="I125" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K125" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M125" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N125" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O125" s="2">
         <v>44981.36458333334</v>
@@ -7897,16 +7903,16 @@
         <v>675</v>
       </c>
       <c r="I126" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K126" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M126" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N126" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O126" s="2">
         <v>44981.36458333334</v>
@@ -7932,16 +7938,16 @@
         <v>675</v>
       </c>
       <c r="I127" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K127" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M127" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N127" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O127" s="2">
         <v>44981.36458333334</v>
@@ -7967,16 +7973,16 @@
         <v>673</v>
       </c>
       <c r="I128" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="K128" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M128" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N128" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O128" s="2">
         <v>44981.36458333334</v>
@@ -8002,16 +8008,16 @@
         <v>673</v>
       </c>
       <c r="I129" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="K129" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M129" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N129" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O129" s="2">
         <v>44981.36458333334</v>
@@ -8037,16 +8043,16 @@
         <v>676</v>
       </c>
       <c r="I130" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K130" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M130" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N130" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O130" s="2">
         <v>44981.36458333334</v>
@@ -8072,16 +8078,16 @@
         <v>676</v>
       </c>
       <c r="I131" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K131" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M131" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N131" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O131" s="2">
         <v>44981.36458333334</v>
@@ -8107,16 +8113,16 @@
         <v>676</v>
       </c>
       <c r="I132" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K132" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M132" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N132" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O132" s="2">
         <v>44981.36458333334</v>
@@ -8142,16 +8148,16 @@
         <v>676</v>
       </c>
       <c r="I133" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K133" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M133" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N133" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O133" s="2">
         <v>44981.36458333334</v>
@@ -8183,19 +8189,19 @@
         <v>677</v>
       </c>
       <c r="I134" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J134" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="K134" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M134" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N134" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O134" s="2">
         <v>44980.49791666667</v>
@@ -8227,19 +8233,19 @@
         <v>677</v>
       </c>
       <c r="I135" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J135" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="K135" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M135" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N135" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O135" s="2">
         <v>44980.49791666667</v>
@@ -8268,16 +8274,16 @@
         <v>677</v>
       </c>
       <c r="I136" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K136" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M136" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N136" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O136" s="2">
         <v>44980.49791666667</v>
@@ -8309,19 +8315,19 @@
         <v>677</v>
       </c>
       <c r="I137" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J137" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="K137" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M137" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N137" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O137" s="2">
         <v>44980.49791666667</v>
@@ -8350,16 +8356,16 @@
         <v>677</v>
       </c>
       <c r="I138" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K138" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M138" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N138" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O138" s="2">
         <v>44980.49791666667</v>
@@ -8388,16 +8394,16 @@
         <v>677</v>
       </c>
       <c r="I139" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K139" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M139" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N139" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O139" s="2">
         <v>44980.49791666667</v>
@@ -8426,16 +8432,16 @@
         <v>677</v>
       </c>
       <c r="I140" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K140" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M140" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N140" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O140" s="2">
         <v>44980.49791666667</v>
@@ -8464,16 +8470,16 @@
         <v>677</v>
       </c>
       <c r="I141" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K141" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M141" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N141" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O141" s="2">
         <v>44980.49791666667</v>
@@ -8505,16 +8511,16 @@
         <v>677</v>
       </c>
       <c r="I142" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K142" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M142" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N142" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O142" s="2">
         <v>44980.49791666667</v>
@@ -8543,16 +8549,16 @@
         <v>677</v>
       </c>
       <c r="I143" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K143" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M143" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N143" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O143" s="2">
         <v>44980.49791666667</v>
@@ -8584,13 +8590,13 @@
         <v>678</v>
       </c>
       <c r="I144" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M144" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="N144" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O144" s="2">
         <v>44980.49791666667</v>
@@ -8622,16 +8628,16 @@
         <v>679</v>
       </c>
       <c r="I145" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K145" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M145" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="N145" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O145" s="2">
         <v>44980.49791666667</v>
@@ -8663,13 +8669,13 @@
         <v>680</v>
       </c>
       <c r="I146" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M146" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="N146" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O146" s="2">
         <v>44980.49791666667</v>
@@ -8701,13 +8707,13 @@
         <v>681</v>
       </c>
       <c r="I147" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M147" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="N147" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O147" s="2">
         <v>44980.49791666667</v>
@@ -8739,13 +8745,13 @@
         <v>681</v>
       </c>
       <c r="I148" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M148" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="N148" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O148" s="2">
         <v>44980.49791666667</v>
@@ -8777,13 +8783,13 @@
         <v>682</v>
       </c>
       <c r="I149" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M149" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="N149" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O149" s="2">
         <v>44981.57986111111</v>
@@ -8815,13 +8821,13 @@
         <v>683</v>
       </c>
       <c r="I150" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M150" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="N150" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O150" s="2">
         <v>44981.57986111111</v>
@@ -8853,13 +8859,13 @@
         <v>684</v>
       </c>
       <c r="I151" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M151" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="N151" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O151" s="2">
         <v>44980.49791666667</v>
@@ -8891,13 +8897,13 @@
         <v>685</v>
       </c>
       <c r="I152" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M152" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="N152" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O152" s="2">
         <v>44980.49791666667</v>
@@ -8929,13 +8935,13 @@
         <v>686</v>
       </c>
       <c r="I153" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M153" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="N153" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O153" s="2">
         <v>44980.49791666667</v>
@@ -8967,13 +8973,13 @@
         <v>687</v>
       </c>
       <c r="I154" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M154" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="N154" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O154" s="2">
         <v>44980.49791666667</v>
@@ -9005,13 +9011,13 @@
         <v>687</v>
       </c>
       <c r="I155" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M155" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="N155" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O155" s="2">
         <v>44980.49791666667</v>
@@ -9043,13 +9049,13 @@
         <v>688</v>
       </c>
       <c r="I156" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M156" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="N156" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O156" s="2">
         <v>44980.49791666667</v>
@@ -9081,13 +9087,13 @@
         <v>689</v>
       </c>
       <c r="I157" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M157" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="N157" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O157" s="2">
         <v>44980.49791666667</v>
@@ -9119,13 +9125,13 @@
         <v>690</v>
       </c>
       <c r="I158" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M158" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="N158" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O158" s="2">
         <v>44980.49791666667</v>
@@ -9154,13 +9160,13 @@
         <v>691</v>
       </c>
       <c r="K159" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="M159" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N159" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="O159" s="2">
         <v>44980.58472222222</v>
@@ -9189,13 +9195,13 @@
         <v>692</v>
       </c>
       <c r="K160" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="M160" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N160" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="O160" s="2">
         <v>44980.58472222222</v>
@@ -9224,13 +9230,13 @@
         <v>693</v>
       </c>
       <c r="K161" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M161" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N161" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="O161" s="2">
         <v>44980.58472222222</v>
@@ -9256,13 +9262,13 @@
         <v>391</v>
       </c>
       <c r="K162" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="M162" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N162" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="O162" s="2">
         <v>44980.58541666667</v>
@@ -9288,13 +9294,13 @@
         <v>391</v>
       </c>
       <c r="K163" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M163" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N163" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="O163" s="2">
         <v>44980.58541666667</v>
@@ -9320,13 +9326,13 @@
         <v>391</v>
       </c>
       <c r="K164" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M164" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N164" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="O164" s="2">
         <v>44980.58541666667</v>
@@ -9352,13 +9358,13 @@
         <v>391</v>
       </c>
       <c r="K165" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="M165" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N165" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="O165" s="2">
         <v>44980.58541666667</v>
@@ -9384,13 +9390,13 @@
         <v>391</v>
       </c>
       <c r="K166" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M166" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N166" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="O166" s="2">
         <v>44980.58541666667</v>
@@ -9416,13 +9422,13 @@
         <v>391</v>
       </c>
       <c r="K167" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="M167" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N167" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="O167" s="2">
         <v>44980.58611111111</v>
@@ -9448,13 +9454,13 @@
         <v>391</v>
       </c>
       <c r="K168" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="M168" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N168" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="O168" s="2">
         <v>44980.58611111111</v>
@@ -9480,13 +9486,13 @@
         <v>391</v>
       </c>
       <c r="K169" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M169" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N169" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="O169" s="2">
         <v>44980.58611111111</v>
@@ -9509,10 +9515,10 @@
         <v>505</v>
       </c>
       <c r="M170" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N170" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O170" s="2">
         <v>44980.49791666667</v>
@@ -9544,19 +9550,22 @@
         <v>694</v>
       </c>
       <c r="I171" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="K171" t="s">
-        <v>851</v>
+        <v>852</v>
+      </c>
+      <c r="L171" t="s">
+        <v>888</v>
       </c>
       <c r="M171" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N171" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O171" s="2">
-        <v>44981.65138888889</v>
+        <v>44981.65625</v>
       </c>
     </row>
     <row r="172" spans="1:15">
@@ -9585,19 +9594,22 @@
         <v>695</v>
       </c>
       <c r="I172" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K172" t="s">
-        <v>852</v>
+        <v>853</v>
+      </c>
+      <c r="L172" t="s">
+        <v>888</v>
       </c>
       <c r="M172" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N172" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O172" s="2">
-        <v>44981.65138888889</v>
+        <v>44981.65625</v>
       </c>
     </row>
     <row r="173" spans="1:15">
@@ -9626,19 +9638,22 @@
         <v>694</v>
       </c>
       <c r="I173" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K173" t="s">
-        <v>853</v>
+        <v>854</v>
+      </c>
+      <c r="L173" t="s">
+        <v>888</v>
       </c>
       <c r="M173" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N173" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O173" s="2">
-        <v>44981.65138888889</v>
+        <v>44981.65625</v>
       </c>
     </row>
     <row r="174" spans="1:15">
@@ -9667,19 +9682,22 @@
         <v>694</v>
       </c>
       <c r="I174" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="K174" t="s">
-        <v>854</v>
+        <v>855</v>
+      </c>
+      <c r="L174" t="s">
+        <v>888</v>
       </c>
       <c r="M174" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N174" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O174" s="2">
-        <v>44981.65138888889</v>
+        <v>44981.65625</v>
       </c>
     </row>
     <row r="175" spans="1:15">
@@ -9708,16 +9726,16 @@
         <v>696</v>
       </c>
       <c r="I175" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J175" t="s">
         <v>188</v>
       </c>
       <c r="M175" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N175" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O175" s="2">
         <v>44980.49791666667</v>
@@ -9749,16 +9767,16 @@
         <v>696</v>
       </c>
       <c r="I176" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K176" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M176" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N176" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O176" s="2">
         <v>44980.49791666667</v>
@@ -9787,16 +9805,16 @@
         <v>580</v>
       </c>
       <c r="J177" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M177" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N177" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O177" s="2">
-        <v>44980.49791666667</v>
+        <v>44981.65694444445</v>
       </c>
     </row>
     <row r="178" spans="1:15">
@@ -9821,20 +9839,26 @@
       <c r="G178" t="s">
         <v>613</v>
       </c>
+      <c r="H178" t="s">
+        <v>697</v>
+      </c>
       <c r="I178" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K178" t="s">
-        <v>855</v>
+        <v>856</v>
+      </c>
+      <c r="L178" t="s">
+        <v>888</v>
       </c>
       <c r="M178" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N178" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O178" s="2">
-        <v>44980.49791666667</v>
+        <v>44981.65694444445</v>
       </c>
     </row>
     <row r="179" spans="1:15">
@@ -9859,20 +9883,26 @@
       <c r="G179" t="s">
         <v>614</v>
       </c>
+      <c r="H179" t="s">
+        <v>697</v>
+      </c>
       <c r="I179" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="K179" t="s">
-        <v>855</v>
+        <v>856</v>
+      </c>
+      <c r="L179" t="s">
+        <v>888</v>
       </c>
       <c r="M179" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N179" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O179" s="2">
-        <v>44980.49791666667</v>
+        <v>44981.65694444445</v>
       </c>
     </row>
     <row r="180" spans="1:15">
@@ -9898,10 +9928,10 @@
         <v>580</v>
       </c>
       <c r="M180" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N180" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O180" s="2">
         <v>44980.49791666667</v>
@@ -9930,16 +9960,16 @@
         <v>580</v>
       </c>
       <c r="I181" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K181" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="M181" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N181" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O181" s="2">
         <v>44980.49791666667</v>
@@ -9962,10 +9992,10 @@
         <v>516</v>
       </c>
       <c r="M182" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N182" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O182" s="2">
         <v>44980.49791666667</v>
@@ -9994,13 +10024,13 @@
         <v>580</v>
       </c>
       <c r="J183" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M183" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N183" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O183" s="2">
         <v>44980.49791666667</v>
@@ -10029,16 +10059,16 @@
         <v>580</v>
       </c>
       <c r="I184" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="K184" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="M184" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N184" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O184" s="2">
         <v>44980.49791666667</v>
@@ -10067,16 +10097,16 @@
         <v>580</v>
       </c>
       <c r="I185" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K185" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="M185" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N185" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O185" s="2">
         <v>44980.49791666667</v>
@@ -10105,16 +10135,16 @@
         <v>580</v>
       </c>
       <c r="I186" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K186" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="M186" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N186" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O186" s="2">
         <v>44980.49791666667</v>
@@ -10143,16 +10173,16 @@
         <v>580</v>
       </c>
       <c r="I187" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K187" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="M187" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N187" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O187" s="2">
         <v>44980.49791666667</v>
@@ -10181,13 +10211,13 @@
         <v>580</v>
       </c>
       <c r="J188" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M188" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N188" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O188" s="2">
         <v>44980.49791666667</v>
@@ -10216,16 +10246,16 @@
         <v>580</v>
       </c>
       <c r="I189" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K189" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="M189" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N189" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O189" s="2">
         <v>44980.49791666667</v>
@@ -10248,10 +10278,10 @@
         <v>524</v>
       </c>
       <c r="M190" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N190" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O190" s="2">
         <v>44980.49791666667</v>
@@ -10280,13 +10310,13 @@
         <v>580</v>
       </c>
       <c r="J191" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M191" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N191" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O191" s="2">
         <v>44980.49791666667</v>
@@ -10315,16 +10345,16 @@
         <v>615</v>
       </c>
       <c r="I192" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K192" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M192" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N192" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O192" s="2">
         <v>44980.49791666667</v>
@@ -10353,16 +10383,16 @@
         <v>580</v>
       </c>
       <c r="I193" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="K193" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M193" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N193" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O193" s="2">
         <v>44980.49791666667</v>
@@ -10391,16 +10421,16 @@
         <v>580</v>
       </c>
       <c r="I194" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K194" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M194" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N194" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O194" s="2">
         <v>44980.49791666667</v>
@@ -10429,16 +10459,16 @@
         <v>616</v>
       </c>
       <c r="I195" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="K195" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M195" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N195" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O195" s="2">
         <v>44980.49791666667</v>
@@ -10467,16 +10497,16 @@
         <v>617</v>
       </c>
       <c r="I196" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K196" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M196" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N196" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O196" s="2">
         <v>44980.49791666667</v>
@@ -10505,16 +10535,16 @@
         <v>618</v>
       </c>
       <c r="I197" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="K197" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M197" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N197" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O197" s="2">
         <v>44980.49791666667</v>
@@ -10543,16 +10573,16 @@
         <v>619</v>
       </c>
       <c r="I198" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K198" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M198" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N198" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O198" s="2">
         <v>44980.49791666667</v>
@@ -10581,16 +10611,16 @@
         <v>620</v>
       </c>
       <c r="I199" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K199" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M199" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N199" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O199" s="2">
         <v>44980.49791666667</v>
@@ -10619,16 +10649,16 @@
         <v>580</v>
       </c>
       <c r="I200" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K200" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M200" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N200" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O200" s="2">
         <v>44980.49791666667</v>
@@ -10657,16 +10687,16 @@
         <v>580</v>
       </c>
       <c r="I201" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K201" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M201" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N201" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O201" s="2">
         <v>44980.49791666667</v>
@@ -10695,13 +10725,13 @@
         <v>580</v>
       </c>
       <c r="J202" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="M202" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N202" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O202" s="2">
         <v>44980.49791666667</v>
@@ -10730,16 +10760,16 @@
         <v>580</v>
       </c>
       <c r="I203" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K203" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="M203" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N203" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O203" s="2">
         <v>44980.49791666667</v>
@@ -10768,16 +10798,16 @@
         <v>580</v>
       </c>
       <c r="I204" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K204" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="M204" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N204" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O204" s="2">
         <v>44980.49791666667</v>
@@ -10806,13 +10836,13 @@
         <v>621</v>
       </c>
       <c r="I205" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M205" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N205" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O205" s="2">
         <v>44980.49791666667</v>
@@ -10841,16 +10871,16 @@
         <v>622</v>
       </c>
       <c r="I206" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="K206" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="M206" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N206" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O206" s="2">
         <v>44980.49791666667</v>
@@ -10879,16 +10909,16 @@
         <v>580</v>
       </c>
       <c r="I207" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="K207" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="M207" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N207" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O207" s="2">
         <v>44980.49791666667</v>
@@ -10917,13 +10947,13 @@
         <v>580</v>
       </c>
       <c r="K208" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="M208" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N208" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O208" s="2">
         <v>44980.49791666667</v>
@@ -10946,10 +10976,10 @@
         <v>524</v>
       </c>
       <c r="M209" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N209" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O209" s="2">
         <v>44980.49791666667</v>
@@ -10981,10 +11011,10 @@
         <v>223</v>
       </c>
       <c r="M210" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N210" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O210" s="2">
         <v>44980.49791666667</v>
@@ -11013,19 +11043,19 @@
         <v>580</v>
       </c>
       <c r="I211" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J211" t="s">
         <v>223</v>
       </c>
       <c r="K211" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="M211" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N211" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O211" s="2">
         <v>44980.49791666667</v>
@@ -11054,13 +11084,13 @@
         <v>580</v>
       </c>
       <c r="J212" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M212" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N212" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O212" s="2">
         <v>44980.49791666667</v>
@@ -11089,16 +11119,16 @@
         <v>580</v>
       </c>
       <c r="I213" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K213" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="M213" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N213" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O213" s="2">
         <v>44980.49791666667</v>
@@ -11121,13 +11151,13 @@
         <v>524</v>
       </c>
       <c r="I214" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M214" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N214" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O214" s="2">
         <v>44980.49791666667</v>
@@ -11156,16 +11186,16 @@
         <v>580</v>
       </c>
       <c r="I215" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K215" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="M215" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N215" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O215" s="2">
         <v>44980.49791666667</v>
@@ -11188,13 +11218,13 @@
         <v>524</v>
       </c>
       <c r="I216" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M216" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N216" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O216" s="2">
         <v>44980.49791666667</v>
@@ -11226,10 +11256,10 @@
         <v>230</v>
       </c>
       <c r="M217" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N217" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O217" s="2">
         <v>44980.49791666667</v>
@@ -11258,16 +11288,16 @@
         <v>580</v>
       </c>
       <c r="I218" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K218" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="M218" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N218" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O218" s="2">
         <v>44980.49791666667</v>
@@ -11299,10 +11329,10 @@
         <v>232</v>
       </c>
       <c r="M219" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N219" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O219" s="2">
         <v>44980.49791666667</v>
@@ -11331,16 +11361,16 @@
         <v>580</v>
       </c>
       <c r="I220" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K220" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="M220" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N220" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O220" s="2">
         <v>44980.49791666667</v>
@@ -11369,13 +11399,13 @@
         <v>580</v>
       </c>
       <c r="J221" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M221" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N221" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O221" s="2">
         <v>44980.49791666667</v>
@@ -11404,13 +11434,13 @@
         <v>580</v>
       </c>
       <c r="J222" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M222" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N222" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O222" s="2">
         <v>44980.49791666667</v>
@@ -11439,16 +11469,16 @@
         <v>580</v>
       </c>
       <c r="I223" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K223" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M223" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N223" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O223" s="2">
         <v>44980.49791666667</v>
@@ -11477,16 +11507,16 @@
         <v>580</v>
       </c>
       <c r="I224" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K224" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M224" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N224" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O224" s="2">
         <v>44980.49791666667</v>
@@ -11509,10 +11539,10 @@
         <v>524</v>
       </c>
       <c r="M225" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N225" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O225" s="2">
         <v>44980.49791666667</v>
@@ -11535,10 +11565,10 @@
         <v>524</v>
       </c>
       <c r="M226" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N226" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O226" s="2">
         <v>44980.49791666667</v>
@@ -11564,10 +11594,10 @@
         <v>580</v>
       </c>
       <c r="M227" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N227" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O227" s="2">
         <v>44980.49791666667</v>
@@ -11596,16 +11626,16 @@
         <v>623</v>
       </c>
       <c r="I228" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="K228" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="M228" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N228" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O228" s="2">
         <v>44980.49791666667</v>
@@ -11628,10 +11658,10 @@
         <v>524</v>
       </c>
       <c r="M229" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N229" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O229" s="2">
         <v>44980.49791666667</v>
@@ -11663,10 +11693,10 @@
         <v>243</v>
       </c>
       <c r="M230" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N230" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O230" s="2">
         <v>44980.49791666667</v>
@@ -11698,10 +11728,10 @@
         <v>244</v>
       </c>
       <c r="M231" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N231" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O231" s="2">
         <v>44980.49791666667</v>
@@ -11730,16 +11760,16 @@
         <v>580</v>
       </c>
       <c r="I232" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K232" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="M232" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N232" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O232" s="2">
         <v>44980.49791666667</v>
@@ -11771,10 +11801,10 @@
         <v>246</v>
       </c>
       <c r="M233" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N233" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O233" s="2">
         <v>44980.49791666667</v>
@@ -11797,13 +11827,13 @@
         <v>391</v>
       </c>
       <c r="J234" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M234" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N234" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O234" s="2">
         <v>44980.49791666667</v>
@@ -11826,10 +11856,10 @@
         <v>391</v>
       </c>
       <c r="M235" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N235" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O235" s="2">
         <v>44980.49791666667</v>
@@ -11852,10 +11882,10 @@
         <v>391</v>
       </c>
       <c r="M236" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N236" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O236" s="2">
         <v>44980.49791666667</v>
@@ -11878,10 +11908,10 @@
         <v>391</v>
       </c>
       <c r="M237" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N237" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O237" s="2">
         <v>44980.49791666667</v>
@@ -11904,10 +11934,10 @@
         <v>391</v>
       </c>
       <c r="M238" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N238" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O238" s="2">
         <v>44980.49791666667</v>
@@ -11930,10 +11960,10 @@
         <v>391</v>
       </c>
       <c r="M239" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N239" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O239" s="2">
         <v>44980.49791666667</v>
@@ -11962,16 +11992,16 @@
         <v>609</v>
       </c>
       <c r="H240" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="I240" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M240" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="N240" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O240" s="2">
         <v>44980.49791666667</v>
@@ -12000,16 +12030,16 @@
         <v>624</v>
       </c>
       <c r="H241" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I241" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M241" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="N241" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O241" s="2">
         <v>44980.49791666667</v>
@@ -12038,16 +12068,16 @@
         <v>625</v>
       </c>
       <c r="H242" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I242" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M242" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="N242" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O242" s="2">
         <v>44980.49791666667</v>
@@ -12076,16 +12106,16 @@
         <v>626</v>
       </c>
       <c r="H243" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I243" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M243" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="N243" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O243" s="2">
         <v>44980.49791666667</v>
@@ -12114,16 +12144,16 @@
         <v>627</v>
       </c>
       <c r="H244" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I244" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M244" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="N244" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O244" s="2">
         <v>44980.49791666667</v>
@@ -12152,16 +12182,16 @@
         <v>628</v>
       </c>
       <c r="H245" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I245" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M245" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="N245" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O245" s="2">
         <v>44980.49791666667</v>
@@ -12190,16 +12220,16 @@
         <v>629</v>
       </c>
       <c r="H246" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I246" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M246" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="N246" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O246" s="2">
         <v>44980.49791666667</v>
@@ -12228,16 +12258,16 @@
         <v>630</v>
       </c>
       <c r="H247" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I247" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M247" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="N247" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O247" s="2">
         <v>44980.49791666667</v>
@@ -12260,16 +12290,16 @@
         <v>382</v>
       </c>
       <c r="H248" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="M248" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N248" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O248" s="2">
         <v>44981.35486111111</v>
@@ -12292,16 +12322,16 @@
         <v>383</v>
       </c>
       <c r="H249" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L249" s="3" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="M249" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N249" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O249" s="2">
         <v>44981.35486111111</v>
@@ -12324,16 +12354,16 @@
         <v>384</v>
       </c>
       <c r="H250" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L250" s="3" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="M250" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N250" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O250" s="2">
         <v>44981.35486111111</v>
@@ -12356,16 +12386,16 @@
         <v>385</v>
       </c>
       <c r="H251" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L251" s="3" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="M251" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="N251" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O251" s="2">
         <v>44981.35486111111</v>
@@ -12394,22 +12424,22 @@
         <v>580</v>
       </c>
       <c r="H252" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I252" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K252" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="L252" s="3" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="M252" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N252" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O252" s="2">
         <v>44981.54791666667</v>
@@ -12438,22 +12468,22 @@
         <v>580</v>
       </c>
       <c r="H253" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I253" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K253" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="L253" s="3" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="M253" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N253" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O253" s="2">
         <v>44981.54861111111</v>
@@ -12482,22 +12512,22 @@
         <v>580</v>
       </c>
       <c r="H254" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I254" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K254" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="L254" s="3" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="M254" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N254" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="O254" s="2">
         <v>44981.55069444444</v>
@@ -12526,22 +12556,22 @@
         <v>580</v>
       </c>
       <c r="H255" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="I255" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K255" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="M255" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N255" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="O255" s="2">
         <v>44981.59236111111</v>
@@ -12561,10 +12591,10 @@
         <v>304</v>
       </c>
       <c r="M256" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N256" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="O256" s="2">
         <v>44981.63472222222</v>

--- a/helper/Employee_Process.xlsx
+++ b/helper/Employee_Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="1006">
   <si>
     <t>Employee_Process</t>
   </si>
@@ -82,7 +82,7 @@
     <t>Privacy_Impact_Assessment_-_Pia</t>
   </si>
   <si>
-    <t>Maintenance_Of_Register_Ofing_Activities_Ropa</t>
+    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa</t>
   </si>
   <si>
     <t>Complete_Purchasing_Process</t>
@@ -163,13 +163,13 @@
     <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination_If_Applicable</t>
+    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination</t>
   </si>
   <si>
     <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade_If_Applicable</t>
+    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade</t>
   </si>
   <si>
     <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction</t>
@@ -181,7 +181,7 @@
     <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning_Owned_By_NIO_Power</t>
+    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning</t>
   </si>
   <si>
     <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service</t>
@@ -283,7 +283,7 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Recycling_Batteries_And_Cars_In_Progress</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Recycling_Batteries_And_Cars</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life</t>
@@ -316,7 +316,7 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_ChargersIssues</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map</t>
@@ -328,10 +328,10 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_StationIssues</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_ChargingIssues</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Charging</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
@@ -352,13 +352,13 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_AppIn_Progress</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_SCR_Template_NameIn_Progress</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert_Need_Breakdown_and_More_Clarification</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_SCR_Template_Name</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert</t>
   </si>
   <si>
     <t>COE_Product_Design_-_Product_Marketing_Department_-_PMK_-_Digital_GTM_EU</t>
@@ -430,10 +430,10 @@
     <t>EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication</t>
   </si>
   <si>
-    <t>EB_User_Development_-_Communication_&amp;_Events_-_Product_go-to-market_communicationin_progress</t>
-  </si>
-  <si>
-    <t>EB_User_Development_-_Communication_&amp;_Events_-_NIO_Summer_in_progress</t>
+    <t>EB_User_Development_-_Communication_&amp;_Events_-_Product_go-to-market_communication</t>
+  </si>
+  <si>
+    <t>EB_User_Development_-_Communication_&amp;_Events_-_NIO_Summer</t>
   </si>
   <si>
     <t>EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management</t>
@@ -523,7 +523,7 @@
     <t>MSRP_Pricing_SOP</t>
   </si>
   <si>
-    <t>User_Behavior_Tracking_System_UBTS</t>
+    <t>User_Behavior_Tracking_System_-_UBTS</t>
   </si>
   <si>
     <t>Market_Intelligence_Europe</t>
@@ -911,9 +911,6 @@
   </si>
   <si>
     <t>COE-PD-Product_Experience</t>
-  </si>
-  <si>
-    <t>COE-PD-Product_Marketing,COE-PD-Product_Marketing</t>
   </si>
   <si>
     <t>EU_Service_Network</t>
@@ -2524,22 +2521,22 @@
     <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable)</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
+    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO - Recycling Batteries And Cars (In Progress)</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Recycling_Batteries_And_Cars</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life</t>
@@ -2548,7 +2545,7 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Deleting_Charging_&amp;_Battery_Swap_Order,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Deleting_Charging_&amp;_Battery_Swap_Order,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Charging,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting</t>
@@ -2933,6 +2930,9 @@
   </si>
   <si>
     <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022402899-10891</t>
+  </si>
+  <si>
+    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710111-10397</t>
   </si>
   <si>
     <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022401429-4275</t>
@@ -3542,22 +3542,22 @@
         <v>278</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M2" t="s">
         <v>991</v>
@@ -3583,19 +3583,19 @@
         <v>278</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M3" t="s">
         <v>992</v>
@@ -3621,22 +3621,22 @@
         <v>279</v>
       </c>
       <c r="E4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M4" t="s">
         <v>993</v>
@@ -3662,22 +3662,22 @@
         <v>279</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="M5" t="s">
         <v>994</v>
@@ -3703,22 +3703,22 @@
         <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M6" t="s">
         <v>994</v>
@@ -3744,22 +3744,22 @@
         <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M7" t="s">
         <v>994</v>
@@ -3785,19 +3785,19 @@
         <v>280</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M8" t="s">
         <v>995</v>
@@ -3823,19 +3823,19 @@
         <v>280</v>
       </c>
       <c r="E9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -3847,7 +3847,7 @@
         <v>994</v>
       </c>
       <c r="O9" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3864,25 +3864,25 @@
         <v>281</v>
       </c>
       <c r="E10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="M10" t="s">
         <v>996</v>
@@ -3908,19 +3908,19 @@
         <v>282</v>
       </c>
       <c r="E11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M11" t="s">
         <v>994</v>
@@ -3946,25 +3946,25 @@
         <v>283</v>
       </c>
       <c r="E12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M12" t="s">
         <v>994</v>
@@ -3990,22 +3990,22 @@
         <v>283</v>
       </c>
       <c r="E13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I13" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M13" t="s">
         <v>994</v>
@@ -4031,22 +4031,22 @@
         <v>283</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M14" t="s">
         <v>994</v>
@@ -4072,22 +4072,22 @@
         <v>283</v>
       </c>
       <c r="E15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K15" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="M15" t="s">
         <v>994</v>
@@ -4113,25 +4113,25 @@
         <v>283</v>
       </c>
       <c r="E16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I16" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J16" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K16" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M16" t="s">
         <v>994</v>
@@ -4157,19 +4157,19 @@
         <v>283</v>
       </c>
       <c r="E17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M17" t="s">
         <v>994</v>
@@ -4195,19 +4195,19 @@
         <v>283</v>
       </c>
       <c r="E18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M18" t="s">
         <v>994</v>
@@ -4233,19 +4233,19 @@
         <v>283</v>
       </c>
       <c r="E19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H19" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M19" t="s">
         <v>994</v>
@@ -4271,22 +4271,22 @@
         <v>283</v>
       </c>
       <c r="E20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H20" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I20" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K20" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M20" t="s">
         <v>994</v>
@@ -4312,19 +4312,19 @@
         <v>283</v>
       </c>
       <c r="E21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M21" t="s">
         <v>994</v>
@@ -4350,28 +4350,28 @@
         <v>284</v>
       </c>
       <c r="E22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L22" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M22" t="s">
         <v>994</v>
@@ -4397,19 +4397,19 @@
         <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K23" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="M23" t="s">
         <v>994</v>
@@ -4435,25 +4435,25 @@
         <v>284</v>
       </c>
       <c r="E24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I24" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K24" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L24" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M24" t="s">
         <v>997</v>
@@ -4479,31 +4479,34 @@
         <v>284</v>
       </c>
       <c r="E25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I25" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K25" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L25" t="s">
+        <v>947</v>
       </c>
       <c r="M25" t="s">
         <v>997</v>
       </c>
       <c r="N25" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O25" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.74791666667</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -4520,34 +4523,37 @@
         <v>284</v>
       </c>
       <c r="E26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I26" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J26" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K26" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L26" t="s">
+        <v>947</v>
       </c>
       <c r="M26" t="s">
         <v>997</v>
       </c>
       <c r="N26" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O26" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.75</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -4564,34 +4570,37 @@
         <v>284</v>
       </c>
       <c r="E27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I27" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K27" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L27" t="s">
+        <v>947</v>
       </c>
       <c r="M27" t="s">
         <v>997</v>
       </c>
       <c r="N27" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O27" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.75208333333</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -4608,34 +4617,37 @@
         <v>284</v>
       </c>
       <c r="E28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J28" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K28" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L28" t="s">
+        <v>947</v>
       </c>
       <c r="M28" t="s">
         <v>997</v>
       </c>
       <c r="N28" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O28" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.75347222222</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -4652,31 +4664,34 @@
         <v>284</v>
       </c>
       <c r="E29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G29" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H29" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K29" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L29" t="s">
+        <v>947</v>
       </c>
       <c r="M29" t="s">
         <v>997</v>
       </c>
       <c r="N29" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O29" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.75486111111</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -4693,31 +4708,34 @@
         <v>284</v>
       </c>
       <c r="E30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H30" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I30" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K30" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L30" t="s">
+        <v>947</v>
       </c>
       <c r="M30" t="s">
         <v>997</v>
       </c>
       <c r="N30" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O30" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.75625</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -4734,31 +4752,34 @@
         <v>284</v>
       </c>
       <c r="E31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G31" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I31" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K31" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L31" t="s">
+        <v>947</v>
       </c>
       <c r="M31" t="s">
         <v>997</v>
       </c>
       <c r="N31" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O31" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.75763888889</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -4775,31 +4796,34 @@
         <v>284</v>
       </c>
       <c r="E32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I32" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K32" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L32" t="s">
+        <v>947</v>
       </c>
       <c r="M32" t="s">
         <v>997</v>
       </c>
       <c r="N32" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O32" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.75902777778</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -4816,31 +4840,34 @@
         <v>284</v>
       </c>
       <c r="E33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H33" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I33" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K33" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L33" t="s">
+        <v>947</v>
       </c>
       <c r="M33" t="s">
         <v>997</v>
       </c>
       <c r="N33" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O33" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.76041666666</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -4857,34 +4884,37 @@
         <v>284</v>
       </c>
       <c r="E34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H34" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J34" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K34" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L34" t="s">
+        <v>947</v>
       </c>
       <c r="M34" t="s">
         <v>997</v>
       </c>
       <c r="N34" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O34" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.76111111111</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -4901,31 +4931,34 @@
         <v>284</v>
       </c>
       <c r="E35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H35" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I35" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K35" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L35" t="s">
+        <v>947</v>
       </c>
       <c r="M35" t="s">
         <v>997</v>
       </c>
       <c r="N35" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O35" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.7625</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -4942,22 +4975,22 @@
         <v>284</v>
       </c>
       <c r="E36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K36" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M36" t="s">
         <v>997</v>
@@ -4966,7 +4999,7 @@
         <v>994</v>
       </c>
       <c r="O36" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -4983,31 +5016,34 @@
         <v>284</v>
       </c>
       <c r="E37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H37" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I37" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K37" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L37" t="s">
+        <v>947</v>
       </c>
       <c r="M37" t="s">
         <v>997</v>
       </c>
       <c r="N37" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O37" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.76388888889</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -5024,22 +5060,22 @@
         <v>284</v>
       </c>
       <c r="E38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K38" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M38" t="s">
         <v>997</v>
@@ -5048,7 +5084,7 @@
         <v>994</v>
       </c>
       <c r="O38" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -5065,31 +5101,34 @@
         <v>284</v>
       </c>
       <c r="E39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H39" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K39" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L39" t="s">
+        <v>947</v>
       </c>
       <c r="M39" t="s">
         <v>997</v>
       </c>
       <c r="N39" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O39" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.76527777778</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -5106,34 +5145,37 @@
         <v>284</v>
       </c>
       <c r="E40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J40" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K40" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L40" t="s">
+        <v>947</v>
       </c>
       <c r="M40" t="s">
         <v>997</v>
       </c>
       <c r="N40" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O40" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.76597222222</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -5150,22 +5192,25 @@
         <v>284</v>
       </c>
       <c r="E41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G41" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H41" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I41" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K41" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>949</v>
       </c>
       <c r="M41" t="s">
         <v>997</v>
@@ -5174,7 +5219,7 @@
         <v>994</v>
       </c>
       <c r="O41" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.78125</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -5191,22 +5236,22 @@
         <v>284</v>
       </c>
       <c r="E42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K42" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M42" t="s">
         <v>997</v>
@@ -5215,7 +5260,7 @@
         <v>994</v>
       </c>
       <c r="O42" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -5232,31 +5277,34 @@
         <v>284</v>
       </c>
       <c r="E43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F43" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I43" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K43" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L43" t="s">
+        <v>947</v>
       </c>
       <c r="M43" t="s">
         <v>997</v>
       </c>
       <c r="N43" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O43" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.76805555556</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -5273,31 +5321,34 @@
         <v>284</v>
       </c>
       <c r="E44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F44" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G44" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H44" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I44" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K44" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="L44" t="s">
+        <v>947</v>
       </c>
       <c r="M44" t="s">
         <v>997</v>
       </c>
       <c r="N44" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O44" s="2">
-        <v>44984.57083333333</v>
+        <v>44984.76875</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -5314,22 +5365,22 @@
         <v>284</v>
       </c>
       <c r="E45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G45" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H45" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K45" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="M45" t="s">
         <v>997</v>
@@ -5355,22 +5406,22 @@
         <v>284</v>
       </c>
       <c r="E46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F46" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G46" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H46" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I46" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K46" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="M46" t="s">
         <v>997</v>
@@ -5396,16 +5447,16 @@
         <v>285</v>
       </c>
       <c r="E47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H47" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I47" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K47" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>950</v>
@@ -5434,16 +5485,16 @@
         <v>285</v>
       </c>
       <c r="F48" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G48" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I48" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K48" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M48" t="s">
         <v>998</v>
@@ -5469,22 +5520,22 @@
         <v>285</v>
       </c>
       <c r="E49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G49" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H49" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K49" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>951</v>
@@ -5513,22 +5564,22 @@
         <v>285</v>
       </c>
       <c r="E50" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F50" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G50" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H50" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I50" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K50" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>952</v>
@@ -5557,22 +5608,22 @@
         <v>285</v>
       </c>
       <c r="E51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F51" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G51" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H51" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I51" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K51" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>953</v>
@@ -5693,22 +5744,22 @@
         <v>286</v>
       </c>
       <c r="E56" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F56" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G56" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H56" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I56" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K56" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>954</v>
@@ -5737,22 +5788,22 @@
         <v>286</v>
       </c>
       <c r="E57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F57" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G57" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H57" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I57" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K57" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>955</v>
@@ -6034,22 +6085,22 @@
         <v>287</v>
       </c>
       <c r="F69" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G69" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H69" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I69" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J69" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K69" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M69" t="s">
         <v>998</v>
@@ -6075,19 +6126,19 @@
         <v>287</v>
       </c>
       <c r="F70" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G70" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I70" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J70" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K70" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="M70" t="s">
         <v>998</v>
@@ -6113,22 +6164,22 @@
         <v>287</v>
       </c>
       <c r="E71" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F71" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G71" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H71" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I71" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K71" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M71" t="s">
         <v>998</v>
@@ -6154,19 +6205,19 @@
         <v>287</v>
       </c>
       <c r="E72" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F72" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G72" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I72" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K72" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M72" t="s">
         <v>998</v>
@@ -6192,22 +6243,22 @@
         <v>287</v>
       </c>
       <c r="E73" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F73" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G73" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H73" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I73" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K73" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M73" t="s">
         <v>998</v>
@@ -6233,22 +6284,22 @@
         <v>287</v>
       </c>
       <c r="F74" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G74" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H74" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I74" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J74" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K74" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="M74" t="s">
         <v>998</v>
@@ -6274,22 +6325,22 @@
         <v>287</v>
       </c>
       <c r="E75" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F75" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G75" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H75" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I75" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K75" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M75" t="s">
         <v>998</v>
@@ -6315,25 +6366,25 @@
         <v>287</v>
       </c>
       <c r="F76" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G76" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I76" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K76" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M76" t="s">
         <v>998</v>
       </c>
       <c r="N76" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="O76" s="2">
-        <v>44984.69444444445</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -6350,19 +6401,19 @@
         <v>287</v>
       </c>
       <c r="F77" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G77" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I77" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J77" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K77" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M77" t="s">
         <v>998</v>
@@ -6388,22 +6439,22 @@
         <v>287</v>
       </c>
       <c r="E78" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F78" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G78" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H78" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I78" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K78" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="M78" t="s">
         <v>998</v>
@@ -6429,22 +6480,22 @@
         <v>287</v>
       </c>
       <c r="E79" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F79" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G79" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H79" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I79" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K79" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M79" t="s">
         <v>998</v>
@@ -6470,22 +6521,22 @@
         <v>287</v>
       </c>
       <c r="E80" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F80" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G80" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H80" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I80" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K80" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>956</v>
@@ -6514,16 +6565,16 @@
         <v>287</v>
       </c>
       <c r="F81" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G81" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J81" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="K81" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="M81" t="s">
         <v>998</v>
@@ -6549,22 +6600,22 @@
         <v>287</v>
       </c>
       <c r="E82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F82" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G82" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H82" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I82" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K82" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M82" t="s">
         <v>998</v>
@@ -6590,22 +6641,22 @@
         <v>287</v>
       </c>
       <c r="E83" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F83" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G83" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H83" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I83" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K83" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M83" t="s">
         <v>998</v>
@@ -6631,22 +6682,22 @@
         <v>287</v>
       </c>
       <c r="E84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F84" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H84" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I84" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K84" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M84" t="s">
         <v>998</v>
@@ -6672,16 +6723,16 @@
         <v>287</v>
       </c>
       <c r="F85" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G85" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J85" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="K85" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M85" t="s">
         <v>998</v>
@@ -6707,22 +6758,22 @@
         <v>287</v>
       </c>
       <c r="E86" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F86" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G86" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H86" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I86" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K86" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M86" t="s">
         <v>998</v>
@@ -6748,22 +6799,22 @@
         <v>287</v>
       </c>
       <c r="E87" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F87" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G87" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H87" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I87" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K87" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M87" t="s">
         <v>998</v>
@@ -6772,7 +6823,7 @@
         <v>994</v>
       </c>
       <c r="O87" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -6789,22 +6840,22 @@
         <v>287</v>
       </c>
       <c r="E88" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F88" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H88" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I88" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K88" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M88" t="s">
         <v>998</v>
@@ -6830,22 +6881,22 @@
         <v>287</v>
       </c>
       <c r="E89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G89" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H89" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I89" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K89" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="M89" t="s">
         <v>998</v>
@@ -6871,22 +6922,22 @@
         <v>287</v>
       </c>
       <c r="E90" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F90" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G90" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H90" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I90" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K90" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="M90" t="s">
         <v>998</v>
@@ -6912,22 +6963,22 @@
         <v>287</v>
       </c>
       <c r="E91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F91" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G91" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H91" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I91" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K91" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="M91" t="s">
         <v>998</v>
@@ -6936,7 +6987,7 @@
         <v>994</v>
       </c>
       <c r="O91" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -6953,22 +7004,22 @@
         <v>287</v>
       </c>
       <c r="E92" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F92" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G92" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H92" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I92" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K92" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="M92" t="s">
         <v>998</v>
@@ -6977,7 +7028,7 @@
         <v>994</v>
       </c>
       <c r="O92" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -6994,22 +7045,22 @@
         <v>287</v>
       </c>
       <c r="E93" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F93" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G93" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H93" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I93" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K93" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M93" t="s">
         <v>998</v>
@@ -7035,16 +7086,16 @@
         <v>287</v>
       </c>
       <c r="F94" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G94" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J94" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="K94" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="M94" t="s">
         <v>998</v>
@@ -7070,22 +7121,22 @@
         <v>287</v>
       </c>
       <c r="E95" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F95" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G95" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H95" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I95" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K95" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="M95" t="s">
         <v>998</v>
@@ -7111,22 +7162,22 @@
         <v>287</v>
       </c>
       <c r="E96" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F96" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G96" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H96" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I96" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K96" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="M96" t="s">
         <v>998</v>
@@ -7152,22 +7203,22 @@
         <v>287</v>
       </c>
       <c r="E97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F97" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G97" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H97" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I97" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K97" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="M97" t="s">
         <v>998</v>
@@ -7193,19 +7244,19 @@
         <v>287</v>
       </c>
       <c r="E98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F98" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G98" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H98" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K98" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M98" t="s">
         <v>998</v>
@@ -7231,19 +7282,19 @@
         <v>287</v>
       </c>
       <c r="F99" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G99" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H99" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I99" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K99" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M99" t="s">
         <v>998</v>
@@ -7252,7 +7303,7 @@
         <v>994</v>
       </c>
       <c r="O99" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -7269,19 +7320,19 @@
         <v>287</v>
       </c>
       <c r="F100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K100" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M100" t="s">
         <v>998</v>
       </c>
       <c r="N100" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="O100" s="2">
-        <v>44984.69722222222</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -7298,22 +7349,22 @@
         <v>287</v>
       </c>
       <c r="E101" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F101" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G101" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H101" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I101" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K101" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M101" t="s">
         <v>998</v>
@@ -7322,7 +7373,7 @@
         <v>994</v>
       </c>
       <c r="O101" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -7339,22 +7390,22 @@
         <v>288</v>
       </c>
       <c r="E102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F102" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G102" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I102" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K102" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="M102" t="s">
         <v>998</v>
@@ -7380,22 +7431,22 @@
         <v>289</v>
       </c>
       <c r="E103" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F103" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G103" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I103" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J103" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K103" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M103" t="s">
         <v>998</v>
@@ -7421,16 +7472,16 @@
         <v>289</v>
       </c>
       <c r="F104" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G104" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I104" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K104" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M104" t="s">
         <v>998</v>
@@ -7456,16 +7507,16 @@
         <v>289</v>
       </c>
       <c r="F105" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G105" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I105" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K105" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M105" t="s">
         <v>998</v>
@@ -7491,16 +7542,16 @@
         <v>289</v>
       </c>
       <c r="F106" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G106" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I106" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K106" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M106" t="s">
         <v>998</v>
@@ -7526,25 +7577,25 @@
         <v>289</v>
       </c>
       <c r="E107" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F107" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G107" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H107" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I107" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J107" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K107" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>957</v>
@@ -7573,22 +7624,22 @@
         <v>289</v>
       </c>
       <c r="E108" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F108" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G108" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H108" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I108" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K108" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M108" t="s">
         <v>998</v>
@@ -7614,22 +7665,22 @@
         <v>289</v>
       </c>
       <c r="E109" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F109" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G109" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H109" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I109" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K109" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M109" t="s">
         <v>998</v>
@@ -7655,22 +7706,22 @@
         <v>289</v>
       </c>
       <c r="E110" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F110" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G110" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H110" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I110" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K110" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M110" t="s">
         <v>998</v>
@@ -7696,22 +7747,22 @@
         <v>289</v>
       </c>
       <c r="E111" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F111" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G111" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I111" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K111" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M111" t="s">
         <v>998</v>
@@ -7737,22 +7788,22 @@
         <v>289</v>
       </c>
       <c r="E112" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F112" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G112" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H112" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I112" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K112" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M112" t="s">
         <v>998</v>
@@ -7778,25 +7829,25 @@
         <v>290</v>
       </c>
       <c r="E113" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F113" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G113" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H113" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I113" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J113" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K113" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L113" s="3" t="s">
         <v>958</v>
@@ -7825,22 +7876,22 @@
         <v>290</v>
       </c>
       <c r="E114" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F114" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G114" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H114" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I114" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K114" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M114" t="s">
         <v>998</v>
@@ -7866,22 +7917,22 @@
         <v>290</v>
       </c>
       <c r="E115" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F115" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G115" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H115" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I115" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K115" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M115" t="s">
         <v>998</v>
@@ -7907,22 +7958,22 @@
         <v>290</v>
       </c>
       <c r="E116" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F116" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G116" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H116" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I116" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K116" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M116" t="s">
         <v>998</v>
@@ -7948,22 +7999,22 @@
         <v>290</v>
       </c>
       <c r="E117" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F117" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G117" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H117" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I117" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K117" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M117" t="s">
         <v>998</v>
@@ -7989,22 +8040,22 @@
         <v>290</v>
       </c>
       <c r="E118" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F118" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G118" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I118" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K118" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M118" t="s">
         <v>998</v>
@@ -8030,22 +8081,22 @@
         <v>290</v>
       </c>
       <c r="E119" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F119" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G119" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H119" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I119" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K119" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M119" t="s">
         <v>998</v>
@@ -8071,25 +8122,25 @@
         <v>291</v>
       </c>
       <c r="E120" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F120" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G120" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H120" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I120" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J120" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K120" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="L120" s="3" t="s">
         <v>959</v>
@@ -8118,22 +8169,22 @@
         <v>291</v>
       </c>
       <c r="E121" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F121" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G121" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H121" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I121" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K121" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M121" t="s">
         <v>998</v>
@@ -8159,22 +8210,22 @@
         <v>291</v>
       </c>
       <c r="E122" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F122" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H122" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I122" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K122" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M122" t="s">
         <v>998</v>
@@ -8200,22 +8251,22 @@
         <v>292</v>
       </c>
       <c r="E123" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F123" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G123" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I123" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K123" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M123" t="s">
         <v>998</v>
@@ -8241,22 +8292,22 @@
         <v>292</v>
       </c>
       <c r="E124" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F124" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G124" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H124" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I124" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K124" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M124" t="s">
         <v>998</v>
@@ -8282,7 +8333,7 @@
         <v>292</v>
       </c>
       <c r="K125" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M125" t="s">
         <v>998</v>
@@ -8291,7 +8342,7 @@
         <v>994</v>
       </c>
       <c r="O125" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.43055555555</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -8308,16 +8359,16 @@
         <v>292</v>
       </c>
       <c r="K126" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="M126" t="s">
         <v>998</v>
       </c>
       <c r="N126" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="O126" s="2">
-        <v>44984.57361111111</v>
+        <v>44985.43055555555</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -8334,22 +8385,22 @@
         <v>280</v>
       </c>
       <c r="E127" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F127" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G127" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H127" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I127" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K127" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M127" t="s">
         <v>998</v>
@@ -8375,25 +8426,25 @@
         <v>280</v>
       </c>
       <c r="E128" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F128" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G128" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H128" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I128" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J128" t="s">
         <v>140</v>
       </c>
       <c r="K128" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M128" t="s">
         <v>998</v>
@@ -8419,22 +8470,22 @@
         <v>293</v>
       </c>
       <c r="E129" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F129" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H129" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I129" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J129" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K129" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="L129" s="3" t="s">
         <v>960</v>
@@ -8463,22 +8514,22 @@
         <v>293</v>
       </c>
       <c r="E130" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F130" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H130" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I130" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J130" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K130" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>961</v>
@@ -8507,22 +8558,22 @@
         <v>293</v>
       </c>
       <c r="E131" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F131" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H131" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I131" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J131" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K131" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="L131" s="3" t="s">
         <v>962</v>
@@ -8551,22 +8602,22 @@
         <v>293</v>
       </c>
       <c r="E132" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F132" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H132" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I132" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J132" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K132" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="L132" s="3" t="s">
         <v>963</v>
@@ -8595,22 +8646,22 @@
         <v>293</v>
       </c>
       <c r="E133" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F133" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G133" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H133" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I133" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K133" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M133" t="s">
         <v>998</v>
@@ -8636,22 +8687,22 @@
         <v>293</v>
       </c>
       <c r="E134" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F134" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G134" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H134" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I134" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K134" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M134" t="s">
         <v>998</v>
@@ -8677,22 +8728,22 @@
         <v>293</v>
       </c>
       <c r="E135" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F135" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G135" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H135" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I135" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K135" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M135" t="s">
         <v>998</v>
@@ -8718,22 +8769,22 @@
         <v>293</v>
       </c>
       <c r="E136" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F136" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G136" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H136" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I136" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K136" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M136" t="s">
         <v>998</v>
@@ -8759,22 +8810,22 @@
         <v>293</v>
       </c>
       <c r="E137" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F137" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G137" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H137" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I137" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K137" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M137" t="s">
         <v>998</v>
@@ -8800,22 +8851,22 @@
         <v>293</v>
       </c>
       <c r="E138" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F138" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G138" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H138" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I138" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K138" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M138" t="s">
         <v>998</v>
@@ -8841,22 +8892,22 @@
         <v>293</v>
       </c>
       <c r="E139" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F139" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G139" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H139" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I139" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K139" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M139" t="s">
         <v>998</v>
@@ -8882,22 +8933,22 @@
         <v>293</v>
       </c>
       <c r="E140" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F140" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G140" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H140" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I140" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K140" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M140" t="s">
         <v>998</v>
@@ -8923,22 +8974,22 @@
         <v>293</v>
       </c>
       <c r="E141" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F141" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G141" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H141" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I141" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="K141" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M141" t="s">
         <v>998</v>
@@ -8964,25 +9015,25 @@
         <v>294</v>
       </c>
       <c r="E142" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F142" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G142" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H142" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I142" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J142" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K142" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M142" t="s">
         <v>998</v>
@@ -9008,25 +9059,25 @@
         <v>294</v>
       </c>
       <c r="E143" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F143" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G143" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H143" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I143" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J143" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K143" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>964</v>
@@ -9055,19 +9106,19 @@
         <v>294</v>
       </c>
       <c r="E144" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G144" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H144" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I144" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K144" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M144" t="s">
         <v>998</v>
@@ -9093,25 +9144,25 @@
         <v>294</v>
       </c>
       <c r="E145" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F145" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G145" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H145" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I145" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J145" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K145" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M145" t="s">
         <v>998</v>
@@ -9137,16 +9188,16 @@
         <v>294</v>
       </c>
       <c r="G146" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H146" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I146" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K146" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M146" t="s">
         <v>998</v>
@@ -9172,16 +9223,16 @@
         <v>294</v>
       </c>
       <c r="G147" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H147" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I147" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K147" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M147" t="s">
         <v>998</v>
@@ -9207,16 +9258,16 @@
         <v>294</v>
       </c>
       <c r="G148" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H148" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I148" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K148" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M148" t="s">
         <v>998</v>
@@ -9242,19 +9293,19 @@
         <v>294</v>
       </c>
       <c r="E149" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G149" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H149" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I149" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K149" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M149" t="s">
         <v>998</v>
@@ -9280,22 +9331,22 @@
         <v>294</v>
       </c>
       <c r="E150" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F150" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G150" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H150" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I150" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K150" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M150" t="s">
         <v>998</v>
@@ -9321,19 +9372,19 @@
         <v>294</v>
       </c>
       <c r="E151" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H151" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I151" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K151" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M151" t="s">
         <v>998</v>
@@ -9359,19 +9410,19 @@
         <v>294</v>
       </c>
       <c r="E152" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F152" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G152" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H152" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I152" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M152" t="s">
         <v>999</v>
@@ -9397,22 +9448,22 @@
         <v>295</v>
       </c>
       <c r="E153" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F153" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G153" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H153" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I153" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K153" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="L153" s="3" t="s">
         <v>965</v>
@@ -9441,22 +9492,22 @@
         <v>296</v>
       </c>
       <c r="E154" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F154" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G154" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H154" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I154" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K154" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M154" t="s">
         <v>1000</v>
@@ -9482,19 +9533,19 @@
         <v>297</v>
       </c>
       <c r="E155" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F155" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G155" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H155" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I155" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M155" t="s">
         <v>1001</v>
@@ -9520,19 +9571,19 @@
         <v>297</v>
       </c>
       <c r="E156" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F156" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G156" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H156" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I156" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M156" t="s">
         <v>1002</v>
@@ -9541,7 +9592,7 @@
         <v>994</v>
       </c>
       <c r="O156" s="2">
-        <v>44984.57083333333</v>
+        <v>44985.42986111111</v>
       </c>
     </row>
     <row r="157" spans="1:15">
@@ -9558,19 +9609,19 @@
         <v>297</v>
       </c>
       <c r="E157" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F157" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G157" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H157" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I157" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M157" t="s">
         <v>1001</v>
@@ -9596,19 +9647,19 @@
         <v>298</v>
       </c>
       <c r="E158" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F158" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G158" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H158" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I158" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M158" t="s">
         <v>1003</v>
@@ -9634,19 +9685,19 @@
         <v>298</v>
       </c>
       <c r="E159" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F159" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G159" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H159" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I159" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M159" t="s">
         <v>1003</v>
@@ -9669,22 +9720,22 @@
         <v>277</v>
       </c>
       <c r="D160" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E160" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F160" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G160" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H160" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I160" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M160" t="s">
         <v>1004</v>
@@ -9707,22 +9758,22 @@
         <v>277</v>
       </c>
       <c r="D161" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E161" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F161" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G161" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H161" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I161" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M161" t="s">
         <v>1004</v>
@@ -9745,22 +9796,22 @@
         <v>277</v>
       </c>
       <c r="D162" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E162" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F162" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G162" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H162" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I162" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M162" t="s">
         <v>1004</v>
@@ -9783,22 +9834,22 @@
         <v>277</v>
       </c>
       <c r="D163" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E163" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F163" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G163" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H163" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I163" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M163" t="s">
         <v>1004</v>
@@ -9821,22 +9872,22 @@
         <v>277</v>
       </c>
       <c r="D164" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E164" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F164" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G164" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H164" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I164" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M164" t="s">
         <v>1004</v>
@@ -9859,22 +9910,22 @@
         <v>277</v>
       </c>
       <c r="D165" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E165" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F165" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G165" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H165" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I165" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M165" t="s">
         <v>1004</v>
@@ -9897,22 +9948,22 @@
         <v>277</v>
       </c>
       <c r="D166" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E166" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F166" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G166" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H166" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I166" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M166" t="s">
         <v>1004</v>
@@ -9935,22 +9986,22 @@
         <v>277</v>
       </c>
       <c r="D167" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E167" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F167" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G167" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H167" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I167" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M167" t="s">
         <v>1004</v>
@@ -9976,13 +10027,13 @@
         <v>280</v>
       </c>
       <c r="E168" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H168" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K168" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="M168" t="s">
         <v>994</v>
@@ -10008,13 +10059,13 @@
         <v>280</v>
       </c>
       <c r="E169" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H169" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K169" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="M169" t="s">
         <v>994</v>
@@ -10040,13 +10091,13 @@
         <v>280</v>
       </c>
       <c r="E170" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H170" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K170" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="M170" t="s">
         <v>994</v>
@@ -10072,10 +10123,10 @@
         <v>280</v>
       </c>
       <c r="E171" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K171" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M171" t="s">
         <v>994</v>
@@ -10101,10 +10152,10 @@
         <v>280</v>
       </c>
       <c r="E172" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K172" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="M172" t="s">
         <v>994</v>
@@ -10130,10 +10181,10 @@
         <v>280</v>
       </c>
       <c r="E173" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K173" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M173" t="s">
         <v>994</v>
@@ -10159,10 +10210,10 @@
         <v>280</v>
       </c>
       <c r="E174" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K174" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="M174" t="s">
         <v>994</v>
@@ -10188,10 +10239,10 @@
         <v>280</v>
       </c>
       <c r="E175" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K175" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="M175" t="s">
         <v>994</v>
@@ -10217,10 +10268,10 @@
         <v>280</v>
       </c>
       <c r="E176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K176" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="M176" t="s">
         <v>994</v>
@@ -10246,10 +10297,10 @@
         <v>280</v>
       </c>
       <c r="E177" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K177" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M177" t="s">
         <v>994</v>
@@ -10275,10 +10326,10 @@
         <v>280</v>
       </c>
       <c r="E178" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K178" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M178" t="s">
         <v>994</v>
@@ -10301,25 +10352,25 @@
         <v>277</v>
       </c>
       <c r="D179" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E179" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F179" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G179" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H179" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I179" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K179" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L179" s="3" t="s">
         <v>966</v>
@@ -10345,25 +10396,25 @@
         <v>277</v>
       </c>
       <c r="D180" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E180" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F180" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G180" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H180" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I180" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="K180" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L180" s="3" t="s">
         <v>967</v>
@@ -10389,25 +10440,25 @@
         <v>277</v>
       </c>
       <c r="D181" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E181" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F181" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G181" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H181" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I181" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="K181" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L181" s="3" t="s">
         <v>968</v>
@@ -10433,25 +10484,25 @@
         <v>277</v>
       </c>
       <c r="D182" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E182" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F182" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G182" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H182" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I182" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K182" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L182" s="3" t="s">
         <v>969</v>
@@ -10477,22 +10528,22 @@
         <v>277</v>
       </c>
       <c r="D183" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E183" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F183" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G183" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H183" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I183" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J183" t="s">
         <v>197</v>
@@ -10518,25 +10569,25 @@
         <v>277</v>
       </c>
       <c r="D184" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E184" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G184" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H184" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I184" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K184" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="M184" t="s">
         <v>997</v>
@@ -10559,19 +10610,19 @@
         <v>277</v>
       </c>
       <c r="D185" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E185" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F185" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G185" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J185" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="M185" t="s">
         <v>997</v>
@@ -10594,25 +10645,25 @@
         <v>277</v>
       </c>
       <c r="D186" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E186" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F186" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G186" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H186" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I186" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K186" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L186" s="3" t="s">
         <v>970</v>
@@ -10638,25 +10689,25 @@
         <v>277</v>
       </c>
       <c r="D187" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E187" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F187" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G187" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H187" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I187" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K187" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L187" s="3" t="s">
         <v>971</v>
@@ -10682,16 +10733,16 @@
         <v>277</v>
       </c>
       <c r="D188" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E188" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F188" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G188" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M188" t="s">
         <v>997</v>
@@ -10714,25 +10765,25 @@
         <v>277</v>
       </c>
       <c r="D189" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E189" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F189" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G189" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H189" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I189" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K189" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L189" t="s">
         <v>972</v>
@@ -10758,10 +10809,10 @@
         <v>277</v>
       </c>
       <c r="D190" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F190" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M190" t="s">
         <v>997</v>
@@ -10784,19 +10835,19 @@
         <v>277</v>
       </c>
       <c r="D191" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E191" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F191" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G191" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J191" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="M191" t="s">
         <v>997</v>
@@ -10819,25 +10870,25 @@
         <v>277</v>
       </c>
       <c r="D192" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E192" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F192" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G192" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H192" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I192" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="K192" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="L192" s="3" t="s">
         <v>973</v>
@@ -10863,25 +10914,25 @@
         <v>277</v>
       </c>
       <c r="D193" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E193" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F193" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G193" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H193" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I193" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K193" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L193" t="s">
         <v>972</v>
@@ -10907,25 +10958,25 @@
         <v>277</v>
       </c>
       <c r="D194" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E194" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F194" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G194" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H194" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I194" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K194" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L194" s="3" t="s">
         <v>974</v>
@@ -10951,25 +11002,25 @@
         <v>277</v>
       </c>
       <c r="D195" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E195" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F195" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G195" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H195" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I195" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K195" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L195" s="3" t="s">
         <v>975</v>
@@ -10995,25 +11046,25 @@
         <v>277</v>
       </c>
       <c r="D196" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E196" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F196" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G196" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H196" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I196" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J196" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="M196" t="s">
         <v>997</v>
@@ -11036,25 +11087,25 @@
         <v>277</v>
       </c>
       <c r="D197" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F197" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G197" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H197" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I197" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K197" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L197" t="s">
         <v>976</v>
@@ -11080,16 +11131,16 @@
         <v>277</v>
       </c>
       <c r="D198" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F198" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H198" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I198" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M198" t="s">
         <v>997</v>
@@ -11112,25 +11163,25 @@
         <v>277</v>
       </c>
       <c r="D199" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E199" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F199" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G199" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H199" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I199" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J199" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="M199" t="s">
         <v>997</v>
@@ -11153,25 +11204,25 @@
         <v>277</v>
       </c>
       <c r="D200" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E200" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F200" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G200" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H200" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I200" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K200" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L200" t="s">
         <v>976</v>
@@ -11197,25 +11248,25 @@
         <v>277</v>
       </c>
       <c r="D201" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E201" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F201" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G201" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H201" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I201" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K201" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L201" t="s">
         <v>976</v>
@@ -11241,25 +11292,25 @@
         <v>277</v>
       </c>
       <c r="D202" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E202" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F202" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G202" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H202" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I202" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K202" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L202" t="s">
         <v>976</v>
@@ -11285,25 +11336,25 @@
         <v>277</v>
       </c>
       <c r="D203" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E203" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F203" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G203" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H203" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I203" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K203" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L203" t="s">
         <v>976</v>
@@ -11329,25 +11380,25 @@
         <v>277</v>
       </c>
       <c r="D204" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E204" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F204" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G204" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H204" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I204" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K204" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L204" t="s">
         <v>976</v>
@@ -11373,25 +11424,25 @@
         <v>277</v>
       </c>
       <c r="D205" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E205" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F205" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G205" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H205" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I205" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K205" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L205" t="s">
         <v>976</v>
@@ -11417,25 +11468,25 @@
         <v>277</v>
       </c>
       <c r="D206" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E206" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F206" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G206" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H206" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I206" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K206" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L206" t="s">
         <v>976</v>
@@ -11461,25 +11512,25 @@
         <v>277</v>
       </c>
       <c r="D207" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E207" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F207" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G207" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H207" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I207" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K207" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L207" t="s">
         <v>977</v>
@@ -11505,25 +11556,25 @@
         <v>277</v>
       </c>
       <c r="D208" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E208" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F208" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G208" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H208" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I208" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K208" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L208" t="s">
         <v>976</v>
@@ -11549,25 +11600,25 @@
         <v>277</v>
       </c>
       <c r="D209" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E209" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F209" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G209" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H209" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I209" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K209" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L209" t="s">
         <v>976</v>
@@ -11593,25 +11644,25 @@
         <v>277</v>
       </c>
       <c r="D210" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E210" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F210" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G210" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H210" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I210" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J210" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="M210" t="s">
         <v>997</v>
@@ -11634,25 +11685,25 @@
         <v>277</v>
       </c>
       <c r="D211" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E211" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F211" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G211" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H211" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I211" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K211" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L211" t="s">
         <v>976</v>
@@ -11678,25 +11729,25 @@
         <v>277</v>
       </c>
       <c r="D212" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E212" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F212" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G212" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H212" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I212" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K212" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L212" t="s">
         <v>976</v>
@@ -11722,22 +11773,22 @@
         <v>277</v>
       </c>
       <c r="D213" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E213" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F213" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G213" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H213" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I213" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M213" t="s">
         <v>997</v>
@@ -11760,25 +11811,25 @@
         <v>277</v>
       </c>
       <c r="D214" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E214" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F214" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G214" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H214" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I214" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K214" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L214" t="s">
         <v>976</v>
@@ -11804,25 +11855,25 @@
         <v>277</v>
       </c>
       <c r="D215" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E215" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F215" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G215" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H215" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I215" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K215" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L215" t="s">
         <v>976</v>
@@ -11848,25 +11899,25 @@
         <v>277</v>
       </c>
       <c r="D216" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E216" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F216" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G216" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H216" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I216" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K216" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L216" t="s">
         <v>976</v>
@@ -11892,13 +11943,13 @@
         <v>277</v>
       </c>
       <c r="D217" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F217" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H217" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="M217" t="s">
         <v>997</v>
@@ -11921,28 +11972,28 @@
         <v>277</v>
       </c>
       <c r="D218" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E218" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F218" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G218" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H218" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I218" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J218" t="s">
         <v>231</v>
       </c>
       <c r="K218" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L218" t="s">
         <v>976</v>
@@ -11968,25 +12019,25 @@
         <v>277</v>
       </c>
       <c r="D219" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E219" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F219" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G219" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H219" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I219" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J219" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M219" t="s">
         <v>997</v>
@@ -12009,25 +12060,25 @@
         <v>277</v>
       </c>
       <c r="D220" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E220" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F220" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G220" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H220" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I220" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K220" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L220" s="3" t="s">
         <v>978</v>
@@ -12053,16 +12104,16 @@
         <v>277</v>
       </c>
       <c r="D221" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F221" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H221" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I221" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M221" t="s">
         <v>997</v>
@@ -12085,25 +12136,25 @@
         <v>277</v>
       </c>
       <c r="D222" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E222" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F222" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G222" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H222" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I222" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K222" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L222" t="s">
         <v>976</v>
@@ -12129,16 +12180,16 @@
         <v>277</v>
       </c>
       <c r="D223" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F223" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H223" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I223" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M223" t="s">
         <v>997</v>
@@ -12161,25 +12212,25 @@
         <v>277</v>
       </c>
       <c r="D224" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E224" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F224" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G224" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H224" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I224" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K224" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L224" s="3" t="s">
         <v>979</v>
@@ -12205,16 +12256,16 @@
         <v>277</v>
       </c>
       <c r="D225" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E225" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F225" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G225" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J225" t="s">
         <v>239</v>
@@ -12240,25 +12291,25 @@
         <v>277</v>
       </c>
       <c r="D226" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E226" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F226" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G226" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H226" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I226" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K226" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="L226" s="3" t="s">
         <v>980</v>
@@ -12284,22 +12335,22 @@
         <v>277</v>
       </c>
       <c r="D227" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E227" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F227" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G227" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H227" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J227" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="M227" t="s">
         <v>997</v>
@@ -12322,22 +12373,22 @@
         <v>277</v>
       </c>
       <c r="D228" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E228" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F228" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G228" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H228" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J228" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="M228" t="s">
         <v>997</v>
@@ -12360,25 +12411,25 @@
         <v>277</v>
       </c>
       <c r="D229" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E229" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F229" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G229" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H229" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I229" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K229" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L229" t="s">
         <v>976</v>
@@ -12404,25 +12455,25 @@
         <v>277</v>
       </c>
       <c r="D230" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E230" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F230" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G230" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H230" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I230" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K230" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L230" t="s">
         <v>976</v>
@@ -12448,13 +12499,13 @@
         <v>277</v>
       </c>
       <c r="D231" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F231" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H231" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M231" t="s">
         <v>997</v>
@@ -12477,13 +12528,13 @@
         <v>277</v>
       </c>
       <c r="D232" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F232" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H232" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M232" t="s">
         <v>997</v>
@@ -12506,16 +12557,16 @@
         <v>277</v>
       </c>
       <c r="D233" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F233" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G233" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H233" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M233" t="s">
         <v>997</v>
@@ -12538,25 +12589,25 @@
         <v>277</v>
       </c>
       <c r="D234" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E234" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F234" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G234" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H234" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I234" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K234" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L234" t="s">
         <v>976</v>
@@ -12582,13 +12633,13 @@
         <v>277</v>
       </c>
       <c r="D235" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F235" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H235" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M235" t="s">
         <v>997</v>
@@ -12611,22 +12662,22 @@
         <v>277</v>
       </c>
       <c r="D236" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E236" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F236" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G236" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H236" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I236" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J236" t="s">
         <v>250</v>
@@ -12652,22 +12703,22 @@
         <v>277</v>
       </c>
       <c r="D237" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E237" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F237" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G237" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H237" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I237" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J237" t="s">
         <v>251</v>
@@ -12693,25 +12744,25 @@
         <v>277</v>
       </c>
       <c r="D238" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E238" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F238" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G238" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H238" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I238" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K238" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L238" t="s">
         <v>976</v>
@@ -12737,16 +12788,16 @@
         <v>277</v>
       </c>
       <c r="D239" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E239" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F239" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G239" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J239" t="s">
         <v>253</v>
@@ -12772,13 +12823,13 @@
         <v>277</v>
       </c>
       <c r="D240" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F240" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J240" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="M240" t="s">
         <v>997</v>
@@ -12801,10 +12852,10 @@
         <v>277</v>
       </c>
       <c r="D241" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F241" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M241" t="s">
         <v>997</v>
@@ -12827,10 +12878,10 @@
         <v>277</v>
       </c>
       <c r="D242" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F242" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M242" t="s">
         <v>997</v>
@@ -12853,10 +12904,10 @@
         <v>277</v>
       </c>
       <c r="D243" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F243" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M243" t="s">
         <v>997</v>
@@ -12879,10 +12930,10 @@
         <v>277</v>
       </c>
       <c r="D244" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F244" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M244" t="s">
         <v>997</v>
@@ -12905,10 +12956,10 @@
         <v>277</v>
       </c>
       <c r="D245" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F245" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M245" t="s">
         <v>997</v>
@@ -12931,22 +12982,22 @@
         <v>277</v>
       </c>
       <c r="D246" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E246" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F246" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G246" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H246" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I246" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L246" t="s">
         <v>981</v>
@@ -12975,19 +13026,19 @@
         <v>296</v>
       </c>
       <c r="E247" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F247" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G247" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H247" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I247" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L247" t="s">
         <v>981</v>
@@ -13016,19 +13067,19 @@
         <v>296</v>
       </c>
       <c r="E248" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F248" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G248" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H248" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I248" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L248" t="s">
         <v>981</v>
@@ -13057,19 +13108,19 @@
         <v>296</v>
       </c>
       <c r="E249" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F249" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G249" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H249" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I249" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L249" t="s">
         <v>981</v>
@@ -13098,19 +13149,19 @@
         <v>296</v>
       </c>
       <c r="E250" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F250" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G250" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H250" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I250" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L250" t="s">
         <v>981</v>
@@ -13139,19 +13190,19 @@
         <v>296</v>
       </c>
       <c r="E251" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F251" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G251" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H251" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I251" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L251" t="s">
         <v>981</v>
@@ -13180,19 +13231,19 @@
         <v>296</v>
       </c>
       <c r="E252" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F252" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G252" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H252" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I252" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L252" t="s">
         <v>981</v>
@@ -13221,19 +13272,19 @@
         <v>296</v>
       </c>
       <c r="E253" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F253" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G253" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H253" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I253" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L253" t="s">
         <v>981</v>
@@ -13259,13 +13310,13 @@
         <v>277</v>
       </c>
       <c r="D254" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E254" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H254" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L254" s="3" t="s">
         <v>982</v>
@@ -13291,13 +13342,13 @@
         <v>277</v>
       </c>
       <c r="D255" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E255" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H255" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L255" s="3" t="s">
         <v>983</v>
@@ -13323,13 +13374,13 @@
         <v>277</v>
       </c>
       <c r="D256" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E256" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H256" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L256" s="3" t="s">
         <v>984</v>
@@ -13355,13 +13406,13 @@
         <v>277</v>
       </c>
       <c r="D257" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E257" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H257" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L257" s="3" t="s">
         <v>985</v>
@@ -13387,25 +13438,25 @@
         <v>277</v>
       </c>
       <c r="D258" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E258" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F258" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G258" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H258" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I258" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K258" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L258" s="3" t="s">
         <v>986</v>
@@ -13431,25 +13482,25 @@
         <v>277</v>
       </c>
       <c r="D259" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E259" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F259" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G259" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H259" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I259" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K259" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L259" s="3" t="s">
         <v>987</v>
@@ -13475,25 +13526,25 @@
         <v>277</v>
       </c>
       <c r="D260" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E260" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F260" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G260" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H260" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I260" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K260" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L260" s="3" t="s">
         <v>988</v>
@@ -13519,25 +13570,25 @@
         <v>277</v>
       </c>
       <c r="D261" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E261" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F261" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G261" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H261" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I261" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K261" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="L261" s="3" t="s">
         <v>989</v>
@@ -13563,10 +13614,10 @@
         <v>277</v>
       </c>
       <c r="D262" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F262" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M262" t="s">
         <v>997</v>
@@ -13589,19 +13640,19 @@
         <v>277</v>
       </c>
       <c r="D263" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E263" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H263" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I263" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K263" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L263" s="3" t="s">
         <v>990</v>
@@ -13620,43 +13671,44 @@
   <hyperlinks>
     <hyperlink ref="L10" r:id="rId1"/>
     <hyperlink ref="L23" r:id="rId2"/>
-    <hyperlink ref="L47" r:id="rId3"/>
-    <hyperlink ref="L49" r:id="rId4"/>
-    <hyperlink ref="L50" r:id="rId5"/>
-    <hyperlink ref="L51" r:id="rId6"/>
-    <hyperlink ref="L56" r:id="rId7"/>
-    <hyperlink ref="L57" r:id="rId8"/>
-    <hyperlink ref="L80" r:id="rId9"/>
-    <hyperlink ref="L107" r:id="rId10"/>
-    <hyperlink ref="L113" r:id="rId11"/>
-    <hyperlink ref="L120" r:id="rId12"/>
-    <hyperlink ref="L129" r:id="rId13"/>
-    <hyperlink ref="L130" r:id="rId14"/>
-    <hyperlink ref="L131" r:id="rId15"/>
-    <hyperlink ref="L132" r:id="rId16"/>
-    <hyperlink ref="L143" r:id="rId17"/>
-    <hyperlink ref="L153" r:id="rId18"/>
-    <hyperlink ref="L179" r:id="rId19"/>
-    <hyperlink ref="L180" r:id="rId20"/>
-    <hyperlink ref="L181" r:id="rId21"/>
-    <hyperlink ref="L182" r:id="rId22"/>
-    <hyperlink ref="L186" r:id="rId23"/>
-    <hyperlink ref="L187" r:id="rId24"/>
-    <hyperlink ref="L192" r:id="rId25"/>
-    <hyperlink ref="L194" r:id="rId26"/>
-    <hyperlink ref="L195" r:id="rId27"/>
-    <hyperlink ref="L220" r:id="rId28"/>
-    <hyperlink ref="L224" r:id="rId29"/>
-    <hyperlink ref="L226" r:id="rId30"/>
-    <hyperlink ref="L254" r:id="rId31"/>
-    <hyperlink ref="L255" r:id="rId32"/>
-    <hyperlink ref="L256" r:id="rId33"/>
-    <hyperlink ref="L257" r:id="rId34"/>
-    <hyperlink ref="L258" r:id="rId35"/>
-    <hyperlink ref="L259" r:id="rId36"/>
-    <hyperlink ref="L260" r:id="rId37"/>
-    <hyperlink ref="L261" r:id="rId38"/>
-    <hyperlink ref="L263" r:id="rId39"/>
+    <hyperlink ref="L41" r:id="rId3"/>
+    <hyperlink ref="L47" r:id="rId4"/>
+    <hyperlink ref="L49" r:id="rId5"/>
+    <hyperlink ref="L50" r:id="rId6"/>
+    <hyperlink ref="L51" r:id="rId7"/>
+    <hyperlink ref="L56" r:id="rId8"/>
+    <hyperlink ref="L57" r:id="rId9"/>
+    <hyperlink ref="L80" r:id="rId10"/>
+    <hyperlink ref="L107" r:id="rId11"/>
+    <hyperlink ref="L113" r:id="rId12"/>
+    <hyperlink ref="L120" r:id="rId13"/>
+    <hyperlink ref="L129" r:id="rId14"/>
+    <hyperlink ref="L130" r:id="rId15"/>
+    <hyperlink ref="L131" r:id="rId16"/>
+    <hyperlink ref="L132" r:id="rId17"/>
+    <hyperlink ref="L143" r:id="rId18"/>
+    <hyperlink ref="L153" r:id="rId19"/>
+    <hyperlink ref="L179" r:id="rId20"/>
+    <hyperlink ref="L180" r:id="rId21"/>
+    <hyperlink ref="L181" r:id="rId22"/>
+    <hyperlink ref="L182" r:id="rId23"/>
+    <hyperlink ref="L186" r:id="rId24"/>
+    <hyperlink ref="L187" r:id="rId25"/>
+    <hyperlink ref="L192" r:id="rId26"/>
+    <hyperlink ref="L194" r:id="rId27"/>
+    <hyperlink ref="L195" r:id="rId28"/>
+    <hyperlink ref="L220" r:id="rId29"/>
+    <hyperlink ref="L224" r:id="rId30"/>
+    <hyperlink ref="L226" r:id="rId31"/>
+    <hyperlink ref="L254" r:id="rId32"/>
+    <hyperlink ref="L255" r:id="rId33"/>
+    <hyperlink ref="L256" r:id="rId34"/>
+    <hyperlink ref="L257" r:id="rId35"/>
+    <hyperlink ref="L258" r:id="rId36"/>
+    <hyperlink ref="L259" r:id="rId37"/>
+    <hyperlink ref="L260" r:id="rId38"/>
+    <hyperlink ref="L261" r:id="rId39"/>
+    <hyperlink ref="L263" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/helper/Employee_Process.xlsx
+++ b/helper/Employee_Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="1024">
   <si>
     <t>Employee_Process</t>
   </si>
@@ -2923,139 +2923,193 @@
     <t>&lt;a href='https://nio.feishu.cn/file/boxcnOedx9xTROQjXMms0teVoUf' target='_blank'&gt;nio.feishu.cn/file/boxcnOedx9xTROQjXMms0teVoUf&lt;/a&gt;</t>
   </si>
   <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022704809-9052</t>
-  </si>
-  <si>
-    <t>EU SOP Approval (nio.com)</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022402899-10891</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710111-10397</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022401429-4275</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022402129-10021</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022402757-4918</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022402948-5656</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022709708-2237</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703467-5613</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022706264-5420</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022406281-7767</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022410109-10380</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022706982-3575</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400197-5002</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400708-8670</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400498-9374</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022401209-3799</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022409285-4928</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703707-7842</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408910-2051</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408137-8689</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408326-3750</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408116-10348</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408211-4401</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408316-9033</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703186-8865</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703779-4837</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703692-6361</t>
-  </si>
-  <si>
-    <t>todo</t>
-  </si>
-  <si>
-    <t>averie 加stakeholder</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703135-3557</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703656-7328</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703187-3018</t>
-  </si>
-  <si>
-    <t>等强哥</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400217-4668</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400191-10637</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400212-7604</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400841-3735</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022405665-9358</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022405482-8760</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022405619-9044</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022405325-1001</t>
-  </si>
-  <si>
-    <t>https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703364-7166</t>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022704809-9052' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022704809-9052&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022709420-6824' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022709420-6824&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022402899-10891' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022402899-10891&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022709757-5883' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022709757-5883&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022709277-6415' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022709277-6415&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022709734-4062' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022709734-4062&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710303-5466' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710303-5466&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710634-8847' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710634-8847&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710765-7200' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710765-7200&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710165-9110' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710165-9110&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710706-2086' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710706-2086&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710143-7316' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710143-7316&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710428-3588' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710428-3588&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710690-7975' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710690-7975&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710943-3628' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710943-3628&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710581-1449' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710581-1449&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710132-2411' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710132-2411&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710395-8480' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710395-8480&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710111-10397' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710111-10397&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710920-2493' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710920-2493&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710138-8711' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022710138-8711&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022401429-4275' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022401429-4275&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022402129-10021' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022402129-10021&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022402757-4918' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022402757-4918&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022402948-5656' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022402948-5656&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022709708-2237' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022709708-2237&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703467-5613' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703467-5613&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022706264-5420' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022706264-5420&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022406281-7767' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022406281-7767&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022410109-10380' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022410109-10380&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022706982-3575' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022706982-3575&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400197-5002' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400197-5002&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400708-8670' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400708-8670&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400498-9374' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400498-9374&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022401209-3799' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022401209-3799&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022409285-4928' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022409285-4928&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703707-7842' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703707-7842&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408910-2051' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408910-2051&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408137-8689' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408137-8689&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408326-3750' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408326-3750&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408116-10348' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408116-10348&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408211-4401' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408211-4401&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408316-9033' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022408316-9033&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='done' target='_blank'&gt;done&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703186-8865' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703186-8865&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703779-4837' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703779-4837&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703692-6361' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703692-6361&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='todo' target='_blank'&gt;todo&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='averie' target='_blank'&gt;averie 加stakeholder&lt;/a&gt;&lt;a href='加stakeholder' target='_blank'&gt;averie 加stakeholder&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703135-3557' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703135-3557&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703656-7328' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703656-7328&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703187-3018' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703187-3018&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='等强哥' target='_blank'&gt;等强哥&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://等强哥' target='_blank'&gt;http://等强哥&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400217-4668' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400217-4668&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400191-10637' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400191-10637&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400212-7604' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400212-7604&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400841-3735' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022400841-3735&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022405665-9358' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022405665-9358&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022405482-8760' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022405482-8760&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022405619-9044' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022405619-9044&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022405325-1001' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022405325-1001&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703364-7166' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023022703364-7166&lt;/a&gt;</t>
   </si>
   <si>
     <t>Echo ZENG</t>
@@ -3110,7 +3164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3125,13 +3179,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3166,23 +3213,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3560,10 +3601,10 @@
         <v>842</v>
       </c>
       <c r="M2" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="N2" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O2" s="2">
         <v>44984.57083333333</v>
@@ -3598,10 +3639,10 @@
         <v>842</v>
       </c>
       <c r="M3" t="s">
-        <v>992</v>
+        <v>1010</v>
       </c>
       <c r="N3" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O3" s="2">
         <v>44984.57083333333</v>
@@ -3639,10 +3680,10 @@
         <v>843</v>
       </c>
       <c r="M4" t="s">
-        <v>993</v>
+        <v>1011</v>
       </c>
       <c r="N4" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O4" s="2">
         <v>44984.57083333333</v>
@@ -3680,10 +3721,10 @@
         <v>844</v>
       </c>
       <c r="M5" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N5" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O5" s="2">
         <v>44984.57083333333</v>
@@ -3721,10 +3762,10 @@
         <v>845</v>
       </c>
       <c r="M6" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N6" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O6" s="2">
         <v>44984.57083333333</v>
@@ -3762,10 +3803,10 @@
         <v>846</v>
       </c>
       <c r="M7" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N7" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O7" s="2">
         <v>44984.57083333333</v>
@@ -3800,10 +3841,10 @@
         <v>759</v>
       </c>
       <c r="M8" t="s">
-        <v>995</v>
+        <v>1013</v>
       </c>
       <c r="N8" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O8" s="2">
         <v>44984.57083333333</v>
@@ -3841,10 +3882,10 @@
         <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>995</v>
+        <v>1013</v>
       </c>
       <c r="N9" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O9" s="2">
         <v>44985.42986111111</v>
@@ -3881,14 +3922,14 @@
       <c r="K10" t="s">
         <v>847</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" t="s">
         <v>946</v>
       </c>
       <c r="M10" t="s">
-        <v>996</v>
+        <v>1014</v>
       </c>
       <c r="N10" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O10" s="2">
         <v>44984.57083333333</v>
@@ -3923,10 +3964,10 @@
         <v>762</v>
       </c>
       <c r="M11" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N11" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O11" s="2">
         <v>44984.57083333333</v>
@@ -3967,10 +4008,10 @@
         <v>848</v>
       </c>
       <c r="M12" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N12" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O12" s="2">
         <v>44984.57083333333</v>
@@ -4008,10 +4049,10 @@
         <v>848</v>
       </c>
       <c r="M13" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N13" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O13" s="2">
         <v>44984.57083333333</v>
@@ -4049,10 +4090,10 @@
         <v>848</v>
       </c>
       <c r="M14" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N14" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O14" s="2">
         <v>44984.57083333333</v>
@@ -4090,10 +4131,10 @@
         <v>849</v>
       </c>
       <c r="M15" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N15" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O15" s="2">
         <v>44984.57083333333</v>
@@ -4134,10 +4175,10 @@
         <v>850</v>
       </c>
       <c r="M16" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N16" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O16" s="2">
         <v>44984.57083333333</v>
@@ -4172,10 +4213,10 @@
         <v>850</v>
       </c>
       <c r="M17" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N17" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O17" s="2">
         <v>44984.57083333333</v>
@@ -4210,10 +4251,10 @@
         <v>850</v>
       </c>
       <c r="M18" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N18" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O18" s="2">
         <v>44984.57083333333</v>
@@ -4248,10 +4289,10 @@
         <v>850</v>
       </c>
       <c r="M19" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N19" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O19" s="2">
         <v>44984.57083333333</v>
@@ -4289,10 +4330,10 @@
         <v>850</v>
       </c>
       <c r="M20" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N20" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O20" s="2">
         <v>44984.57083333333</v>
@@ -4327,10 +4368,10 @@
         <v>850</v>
       </c>
       <c r="M21" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N21" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O21" s="2">
         <v>44984.57083333333</v>
@@ -4374,10 +4415,10 @@
         <v>947</v>
       </c>
       <c r="M22" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N22" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O22" s="2">
         <v>44984.74513888889</v>
@@ -4408,14 +4449,14 @@
       <c r="K23" t="s">
         <v>852</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" t="s">
         <v>948</v>
       </c>
       <c r="M23" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N23" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O23" s="2">
         <v>44984.57083333333</v>
@@ -4453,13 +4494,13 @@
         <v>851</v>
       </c>
       <c r="L24" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="M24" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N24" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O24" s="2">
         <v>44984.74513888889</v>
@@ -4497,13 +4538,13 @@
         <v>851</v>
       </c>
       <c r="L25" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="M25" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N25" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O25" s="2">
         <v>44984.74791666667</v>
@@ -4544,13 +4585,13 @@
         <v>851</v>
       </c>
       <c r="L26" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="M26" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N26" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O26" s="2">
         <v>44984.75</v>
@@ -4591,13 +4632,13 @@
         <v>851</v>
       </c>
       <c r="L27" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="M27" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N27" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O27" s="2">
         <v>44984.75208333333</v>
@@ -4638,13 +4679,13 @@
         <v>851</v>
       </c>
       <c r="L28" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="M28" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N28" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O28" s="2">
         <v>44984.75347222222</v>
@@ -4682,13 +4723,13 @@
         <v>851</v>
       </c>
       <c r="L29" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="M29" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N29" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O29" s="2">
         <v>44984.75486111111</v>
@@ -4726,13 +4767,13 @@
         <v>851</v>
       </c>
       <c r="L30" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="M30" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N30" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O30" s="2">
         <v>44984.75625</v>
@@ -4770,13 +4811,13 @@
         <v>851</v>
       </c>
       <c r="L31" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="M31" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N31" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O31" s="2">
         <v>44984.75763888889</v>
@@ -4814,13 +4855,13 @@
         <v>851</v>
       </c>
       <c r="L32" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
       <c r="M32" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N32" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O32" s="2">
         <v>44984.75902777778</v>
@@ -4858,13 +4899,13 @@
         <v>851</v>
       </c>
       <c r="L33" t="s">
-        <v>947</v>
+        <v>958</v>
       </c>
       <c r="M33" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N33" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O33" s="2">
         <v>44984.76041666666</v>
@@ -4905,13 +4946,13 @@
         <v>851</v>
       </c>
       <c r="L34" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="M34" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N34" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O34" s="2">
         <v>44984.76111111111</v>
@@ -4949,13 +4990,13 @@
         <v>851</v>
       </c>
       <c r="L35" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
       <c r="M35" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N35" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O35" s="2">
         <v>44984.7625</v>
@@ -4993,10 +5034,10 @@
         <v>851</v>
       </c>
       <c r="M36" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N36" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O36" s="2">
         <v>44985.42986111111</v>
@@ -5034,13 +5075,13 @@
         <v>851</v>
       </c>
       <c r="L37" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
       <c r="M37" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N37" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O37" s="2">
         <v>44984.76388888889</v>
@@ -5078,10 +5119,10 @@
         <v>851</v>
       </c>
       <c r="M38" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N38" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O38" s="2">
         <v>44985.42986111111</v>
@@ -5119,13 +5160,13 @@
         <v>851</v>
       </c>
       <c r="L39" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="M39" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N39" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O39" s="2">
         <v>44984.76527777778</v>
@@ -5166,13 +5207,13 @@
         <v>851</v>
       </c>
       <c r="L40" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="M40" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N40" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O40" s="2">
         <v>44984.76597222222</v>
@@ -5209,14 +5250,14 @@
       <c r="K41" t="s">
         <v>851</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>949</v>
+      <c r="L41" t="s">
+        <v>964</v>
       </c>
       <c r="M41" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N41" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O41" s="2">
         <v>44984.78125</v>
@@ -5254,10 +5295,10 @@
         <v>851</v>
       </c>
       <c r="M42" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N42" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O42" s="2">
         <v>44985.42986111111</v>
@@ -5295,13 +5336,13 @@
         <v>851</v>
       </c>
       <c r="L43" t="s">
-        <v>947</v>
+        <v>965</v>
       </c>
       <c r="M43" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N43" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O43" s="2">
         <v>44984.76805555556</v>
@@ -5339,13 +5380,13 @@
         <v>851</v>
       </c>
       <c r="L44" t="s">
-        <v>947</v>
+        <v>966</v>
       </c>
       <c r="M44" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N44" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O44" s="2">
         <v>44984.76875</v>
@@ -5383,10 +5424,10 @@
         <v>853</v>
       </c>
       <c r="M45" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N45" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O45" s="2">
         <v>44984.57083333333</v>
@@ -5424,10 +5465,10 @@
         <v>854</v>
       </c>
       <c r="M46" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N46" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O46" s="2">
         <v>44984.57083333333</v>
@@ -5458,14 +5499,14 @@
       <c r="K47" t="s">
         <v>855</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>950</v>
+      <c r="L47" t="s">
+        <v>967</v>
       </c>
       <c r="M47" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N47" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O47" s="2">
         <v>44984.57083333333</v>
@@ -5497,10 +5538,10 @@
         <v>856</v>
       </c>
       <c r="M48" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N48" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O48" s="2">
         <v>44984.57083333333</v>
@@ -5537,14 +5578,14 @@
       <c r="K49" t="s">
         <v>857</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>951</v>
+      <c r="L49" t="s">
+        <v>968</v>
       </c>
       <c r="M49" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N49" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O49" s="2">
         <v>44984.57083333333</v>
@@ -5581,14 +5622,14 @@
       <c r="K50" t="s">
         <v>857</v>
       </c>
-      <c r="L50" s="3" t="s">
-        <v>952</v>
+      <c r="L50" t="s">
+        <v>969</v>
       </c>
       <c r="M50" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N50" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O50" s="2">
         <v>44984.57083333333</v>
@@ -5625,14 +5666,14 @@
       <c r="K51" t="s">
         <v>858</v>
       </c>
-      <c r="L51" s="3" t="s">
-        <v>953</v>
+      <c r="L51" t="s">
+        <v>970</v>
       </c>
       <c r="M51" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N51" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O51" s="2">
         <v>44984.57083333333</v>
@@ -5652,10 +5693,10 @@
         <v>286</v>
       </c>
       <c r="M52" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N52" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O52" s="2">
         <v>44984.57083333333</v>
@@ -5675,10 +5716,10 @@
         <v>286</v>
       </c>
       <c r="M53" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N53" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O53" s="2">
         <v>44984.57083333333</v>
@@ -5698,10 +5739,10 @@
         <v>286</v>
       </c>
       <c r="M54" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N54" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O54" s="2">
         <v>44984.57083333333</v>
@@ -5721,10 +5762,10 @@
         <v>286</v>
       </c>
       <c r="M55" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N55" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O55" s="2">
         <v>44984.57083333333</v>
@@ -5761,14 +5802,14 @@
       <c r="K56" t="s">
         <v>859</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>954</v>
+      <c r="L56" t="s">
+        <v>971</v>
       </c>
       <c r="M56" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N56" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="O56" s="2">
         <v>44984.71666666667</v>
@@ -5805,14 +5846,14 @@
       <c r="K57" t="s">
         <v>860</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>955</v>
+      <c r="L57" t="s">
+        <v>972</v>
       </c>
       <c r="M57" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N57" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O57" s="2">
         <v>44984.57083333333</v>
@@ -5832,10 +5873,10 @@
         <v>286</v>
       </c>
       <c r="M58" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N58" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O58" s="2">
         <v>44984.57083333333</v>
@@ -5855,10 +5896,10 @@
         <v>286</v>
       </c>
       <c r="M59" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N59" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O59" s="2">
         <v>44984.57083333333</v>
@@ -5878,10 +5919,10 @@
         <v>286</v>
       </c>
       <c r="M60" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N60" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O60" s="2">
         <v>44984.57083333333</v>
@@ -5901,10 +5942,10 @@
         <v>286</v>
       </c>
       <c r="M61" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N61" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O61" s="2">
         <v>44984.57083333333</v>
@@ -5924,10 +5965,10 @@
         <v>286</v>
       </c>
       <c r="M62" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N62" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O62" s="2">
         <v>44984.57083333333</v>
@@ -5947,10 +5988,10 @@
         <v>286</v>
       </c>
       <c r="M63" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N63" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O63" s="2">
         <v>44984.57083333333</v>
@@ -5970,10 +6011,10 @@
         <v>286</v>
       </c>
       <c r="M64" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N64" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O64" s="2">
         <v>44984.57083333333</v>
@@ -5993,10 +6034,10 @@
         <v>286</v>
       </c>
       <c r="M65" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N65" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O65" s="2">
         <v>44984.57083333333</v>
@@ -6016,10 +6057,10 @@
         <v>286</v>
       </c>
       <c r="M66" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N66" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O66" s="2">
         <v>44984.57083333333</v>
@@ -6039,10 +6080,10 @@
         <v>286</v>
       </c>
       <c r="M67" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N67" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O67" s="2">
         <v>44984.57083333333</v>
@@ -6062,10 +6103,10 @@
         <v>286</v>
       </c>
       <c r="M68" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N68" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O68" s="2">
         <v>44984.57083333333</v>
@@ -6103,10 +6144,10 @@
         <v>861</v>
       </c>
       <c r="M69" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N69" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O69" s="2">
         <v>44984.57083333333</v>
@@ -6141,10 +6182,10 @@
         <v>862</v>
       </c>
       <c r="M70" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N70" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O70" s="2">
         <v>44984.57083333333</v>
@@ -6182,10 +6223,10 @@
         <v>863</v>
       </c>
       <c r="M71" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N71" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O71" s="2">
         <v>44984.57083333333</v>
@@ -6220,10 +6261,10 @@
         <v>864</v>
       </c>
       <c r="M72" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N72" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O72" s="2">
         <v>44984.57083333333</v>
@@ -6261,10 +6302,10 @@
         <v>865</v>
       </c>
       <c r="M73" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N73" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O73" s="2">
         <v>44984.57083333333</v>
@@ -6302,10 +6343,10 @@
         <v>866</v>
       </c>
       <c r="M74" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N74" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O74" s="2">
         <v>44984.57083333333</v>
@@ -6343,10 +6384,10 @@
         <v>867</v>
       </c>
       <c r="M75" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N75" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O75" s="2">
         <v>44984.57083333333</v>
@@ -6378,10 +6419,10 @@
         <v>868</v>
       </c>
       <c r="M76" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N76" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O76" s="2">
         <v>44985.42986111111</v>
@@ -6416,10 +6457,10 @@
         <v>869</v>
       </c>
       <c r="M77" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N77" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O77" s="2">
         <v>44984.57083333333</v>
@@ -6457,10 +6498,10 @@
         <v>870</v>
       </c>
       <c r="M78" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N78" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O78" s="2">
         <v>44984.57083333333</v>
@@ -6498,10 +6539,10 @@
         <v>871</v>
       </c>
       <c r="M79" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N79" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O79" s="2">
         <v>44984.57083333333</v>
@@ -6538,14 +6579,14 @@
       <c r="K80" t="s">
         <v>872</v>
       </c>
-      <c r="L80" s="3" t="s">
-        <v>956</v>
+      <c r="L80" t="s">
+        <v>973</v>
       </c>
       <c r="M80" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N80" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="O80" s="2">
         <v>44984.58819444444</v>
@@ -6577,10 +6618,10 @@
         <v>873</v>
       </c>
       <c r="M81" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N81" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O81" s="2">
         <v>44984.57083333333</v>
@@ -6618,10 +6659,10 @@
         <v>874</v>
       </c>
       <c r="M82" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N82" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O82" s="2">
         <v>44984.57083333333</v>
@@ -6659,10 +6700,10 @@
         <v>875</v>
       </c>
       <c r="M83" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N83" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O83" s="2">
         <v>44984.57083333333</v>
@@ -6700,10 +6741,10 @@
         <v>876</v>
       </c>
       <c r="M84" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N84" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O84" s="2">
         <v>44984.57083333333</v>
@@ -6735,10 +6776,10 @@
         <v>877</v>
       </c>
       <c r="M85" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N85" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O85" s="2">
         <v>44984.57083333333</v>
@@ -6776,10 +6817,10 @@
         <v>878</v>
       </c>
       <c r="M86" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N86" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O86" s="2">
         <v>44984.57083333333</v>
@@ -6817,10 +6858,10 @@
         <v>879</v>
       </c>
       <c r="M87" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N87" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O87" s="2">
         <v>44985.42986111111</v>
@@ -6858,10 +6899,10 @@
         <v>880</v>
       </c>
       <c r="M88" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N88" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O88" s="2">
         <v>44984.57083333333</v>
@@ -6899,10 +6940,10 @@
         <v>881</v>
       </c>
       <c r="M89" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N89" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O89" s="2">
         <v>44984.57083333333</v>
@@ -6940,10 +6981,10 @@
         <v>882</v>
       </c>
       <c r="M90" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N90" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O90" s="2">
         <v>44984.57083333333</v>
@@ -6981,10 +7022,10 @@
         <v>883</v>
       </c>
       <c r="M91" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N91" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O91" s="2">
         <v>44985.42986111111</v>
@@ -7022,10 +7063,10 @@
         <v>884</v>
       </c>
       <c r="M92" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N92" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O92" s="2">
         <v>44985.42986111111</v>
@@ -7063,10 +7104,10 @@
         <v>885</v>
       </c>
       <c r="M93" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N93" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O93" s="2">
         <v>44984.57083333333</v>
@@ -7098,10 +7139,10 @@
         <v>886</v>
       </c>
       <c r="M94" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N94" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O94" s="2">
         <v>44984.57083333333</v>
@@ -7139,10 +7180,10 @@
         <v>887</v>
       </c>
       <c r="M95" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N95" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O95" s="2">
         <v>44984.57083333333</v>
@@ -7180,10 +7221,10 @@
         <v>888</v>
       </c>
       <c r="M96" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N96" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O96" s="2">
         <v>44984.57083333333</v>
@@ -7221,10 +7262,10 @@
         <v>889</v>
       </c>
       <c r="M97" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N97" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O97" s="2">
         <v>44984.57083333333</v>
@@ -7259,10 +7300,10 @@
         <v>890</v>
       </c>
       <c r="M98" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N98" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O98" s="2">
         <v>44984.57083333333</v>
@@ -7297,10 +7338,10 @@
         <v>891</v>
       </c>
       <c r="M99" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N99" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O99" s="2">
         <v>44985.42986111111</v>
@@ -7326,10 +7367,10 @@
         <v>892</v>
       </c>
       <c r="M100" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N100" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O100" s="2">
         <v>44985.42986111111</v>
@@ -7367,10 +7408,10 @@
         <v>893</v>
       </c>
       <c r="M101" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N101" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O101" s="2">
         <v>44985.42986111111</v>
@@ -7408,10 +7449,10 @@
         <v>894</v>
       </c>
       <c r="M102" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N102" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="O102" s="2">
         <v>44984.69861111111</v>
@@ -7449,10 +7490,10 @@
         <v>895</v>
       </c>
       <c r="M103" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N103" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O103" s="2">
         <v>44984.57083333333</v>
@@ -7484,10 +7525,10 @@
         <v>895</v>
       </c>
       <c r="M104" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N104" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O104" s="2">
         <v>44984.57083333333</v>
@@ -7519,10 +7560,10 @@
         <v>895</v>
       </c>
       <c r="M105" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N105" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O105" s="2">
         <v>44984.57083333333</v>
@@ -7554,10 +7595,10 @@
         <v>895</v>
       </c>
       <c r="M106" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N106" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O106" s="2">
         <v>44984.57083333333</v>
@@ -7597,14 +7638,14 @@
       <c r="K107" t="s">
         <v>896</v>
       </c>
-      <c r="L107" s="3" t="s">
-        <v>957</v>
+      <c r="L107" t="s">
+        <v>974</v>
       </c>
       <c r="M107" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N107" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O107" s="2">
         <v>44984.57083333333</v>
@@ -7642,10 +7683,10 @@
         <v>896</v>
       </c>
       <c r="M108" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N108" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O108" s="2">
         <v>44984.57083333333</v>
@@ -7683,10 +7724,10 @@
         <v>896</v>
       </c>
       <c r="M109" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N109" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O109" s="2">
         <v>44984.57083333333</v>
@@ -7724,10 +7765,10 @@
         <v>896</v>
       </c>
       <c r="M110" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N110" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O110" s="2">
         <v>44984.57083333333</v>
@@ -7765,10 +7806,10 @@
         <v>896</v>
       </c>
       <c r="M111" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N111" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O111" s="2">
         <v>44984.57083333333</v>
@@ -7806,10 +7847,10 @@
         <v>896</v>
       </c>
       <c r="M112" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N112" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O112" s="2">
         <v>44984.57083333333</v>
@@ -7849,14 +7890,14 @@
       <c r="K113" t="s">
         <v>897</v>
       </c>
-      <c r="L113" s="3" t="s">
-        <v>958</v>
+      <c r="L113" t="s">
+        <v>975</v>
       </c>
       <c r="M113" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N113" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O113" s="2">
         <v>44984.57083333333</v>
@@ -7894,10 +7935,10 @@
         <v>897</v>
       </c>
       <c r="M114" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N114" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O114" s="2">
         <v>44984.57083333333</v>
@@ -7935,10 +7976,10 @@
         <v>897</v>
       </c>
       <c r="M115" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N115" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O115" s="2">
         <v>44984.57083333333</v>
@@ -7976,10 +8017,10 @@
         <v>897</v>
       </c>
       <c r="M116" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N116" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O116" s="2">
         <v>44984.57083333333</v>
@@ -8017,10 +8058,10 @@
         <v>897</v>
       </c>
       <c r="M117" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N117" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O117" s="2">
         <v>44984.57083333333</v>
@@ -8058,10 +8099,10 @@
         <v>897</v>
       </c>
       <c r="M118" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N118" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O118" s="2">
         <v>44984.57083333333</v>
@@ -8099,10 +8140,10 @@
         <v>897</v>
       </c>
       <c r="M119" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N119" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O119" s="2">
         <v>44984.57083333333</v>
@@ -8142,14 +8183,14 @@
       <c r="K120" t="s">
         <v>898</v>
       </c>
-      <c r="L120" s="3" t="s">
-        <v>959</v>
+      <c r="L120" t="s">
+        <v>976</v>
       </c>
       <c r="M120" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N120" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="O120" s="2">
         <v>44984.58541666667</v>
@@ -8187,10 +8228,10 @@
         <v>898</v>
       </c>
       <c r="M121" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N121" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="O121" s="2">
         <v>44984.57222222222</v>
@@ -8228,10 +8269,10 @@
         <v>898</v>
       </c>
       <c r="M122" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N122" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="O122" s="2">
         <v>44984.57291666666</v>
@@ -8269,10 +8310,10 @@
         <v>899</v>
       </c>
       <c r="M123" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N123" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="O123" s="2">
         <v>44984.58125</v>
@@ -8310,10 +8351,10 @@
         <v>900</v>
       </c>
       <c r="M124" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N124" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="O124" s="2">
         <v>44984.64444444444</v>
@@ -8336,10 +8377,10 @@
         <v>901</v>
       </c>
       <c r="M125" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N125" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O125" s="2">
         <v>44985.43055555555</v>
@@ -8362,10 +8403,10 @@
         <v>902</v>
       </c>
       <c r="M126" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N126" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O126" s="2">
         <v>44985.43055555555</v>
@@ -8403,10 +8444,10 @@
         <v>903</v>
       </c>
       <c r="M127" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N127" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O127" s="2">
         <v>44984.57083333333</v>
@@ -8447,10 +8488,10 @@
         <v>904</v>
       </c>
       <c r="M128" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N128" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O128" s="2">
         <v>44984.69236111111</v>
@@ -8487,14 +8528,14 @@
       <c r="K129" t="s">
         <v>905</v>
       </c>
-      <c r="L129" s="3" t="s">
-        <v>960</v>
+      <c r="L129" t="s">
+        <v>977</v>
       </c>
       <c r="M129" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N129" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O129" s="2">
         <v>44984.57083333333</v>
@@ -8531,14 +8572,14 @@
       <c r="K130" t="s">
         <v>905</v>
       </c>
-      <c r="L130" s="3" t="s">
-        <v>961</v>
+      <c r="L130" t="s">
+        <v>978</v>
       </c>
       <c r="M130" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N130" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O130" s="2">
         <v>44984.57083333333</v>
@@ -8575,14 +8616,14 @@
       <c r="K131" t="s">
         <v>905</v>
       </c>
-      <c r="L131" s="3" t="s">
-        <v>962</v>
+      <c r="L131" t="s">
+        <v>979</v>
       </c>
       <c r="M131" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N131" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O131" s="2">
         <v>44984.57083333333</v>
@@ -8619,14 +8660,14 @@
       <c r="K132" t="s">
         <v>905</v>
       </c>
-      <c r="L132" s="3" t="s">
-        <v>963</v>
+      <c r="L132" t="s">
+        <v>980</v>
       </c>
       <c r="M132" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N132" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O132" s="2">
         <v>44984.58055555556</v>
@@ -8664,10 +8705,10 @@
         <v>905</v>
       </c>
       <c r="M133" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N133" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O133" s="2">
         <v>44984.69236111111</v>
@@ -8705,10 +8746,10 @@
         <v>905</v>
       </c>
       <c r="M134" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N134" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O134" s="2">
         <v>44984.69236111111</v>
@@ -8746,10 +8787,10 @@
         <v>905</v>
       </c>
       <c r="M135" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N135" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O135" s="2">
         <v>44984.69236111111</v>
@@ -8787,10 +8828,10 @@
         <v>905</v>
       </c>
       <c r="M136" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N136" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O136" s="2">
         <v>44984.69236111111</v>
@@ -8828,10 +8869,10 @@
         <v>905</v>
       </c>
       <c r="M137" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N137" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O137" s="2">
         <v>44984.69236111111</v>
@@ -8869,10 +8910,10 @@
         <v>905</v>
       </c>
       <c r="M138" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N138" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O138" s="2">
         <v>44984.69236111111</v>
@@ -8910,10 +8951,10 @@
         <v>905</v>
       </c>
       <c r="M139" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N139" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O139" s="2">
         <v>44984.69236111111</v>
@@ -8951,10 +8992,10 @@
         <v>905</v>
       </c>
       <c r="M140" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N140" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O140" s="2">
         <v>44984.69236111111</v>
@@ -8992,10 +9033,10 @@
         <v>905</v>
       </c>
       <c r="M141" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N141" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O141" s="2">
         <v>44984.69236111111</v>
@@ -9036,10 +9077,10 @@
         <v>906</v>
       </c>
       <c r="M142" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N142" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O142" s="2">
         <v>44984.57083333333</v>
@@ -9079,14 +9120,14 @@
       <c r="K143" t="s">
         <v>906</v>
       </c>
-      <c r="L143" s="3" t="s">
-        <v>964</v>
+      <c r="L143" t="s">
+        <v>981</v>
       </c>
       <c r="M143" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N143" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O143" s="2">
         <v>44984.57083333333</v>
@@ -9121,10 +9162,10 @@
         <v>906</v>
       </c>
       <c r="M144" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N144" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O144" s="2">
         <v>44984.57083333333</v>
@@ -9165,10 +9206,10 @@
         <v>906</v>
       </c>
       <c r="M145" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N145" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O145" s="2">
         <v>44984.57083333333</v>
@@ -9200,10 +9241,10 @@
         <v>906</v>
       </c>
       <c r="M146" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N146" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O146" s="2">
         <v>44984.57083333333</v>
@@ -9235,10 +9276,10 @@
         <v>906</v>
       </c>
       <c r="M147" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N147" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O147" s="2">
         <v>44984.57083333333</v>
@@ -9270,10 +9311,10 @@
         <v>906</v>
       </c>
       <c r="M148" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N148" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O148" s="2">
         <v>44984.57083333333</v>
@@ -9308,10 +9349,10 @@
         <v>906</v>
       </c>
       <c r="M149" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N149" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O149" s="2">
         <v>44984.57083333333</v>
@@ -9349,10 +9390,10 @@
         <v>906</v>
       </c>
       <c r="M150" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N150" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O150" s="2">
         <v>44984.57083333333</v>
@@ -9387,10 +9428,10 @@
         <v>906</v>
       </c>
       <c r="M151" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N151" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O151" s="2">
         <v>44984.57083333333</v>
@@ -9425,10 +9466,10 @@
         <v>761</v>
       </c>
       <c r="M152" t="s">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="N152" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O152" s="2">
         <v>44984.57083333333</v>
@@ -9465,14 +9506,14 @@
       <c r="K153" t="s">
         <v>907</v>
       </c>
-      <c r="L153" s="3" t="s">
-        <v>965</v>
+      <c r="L153" t="s">
+        <v>982</v>
       </c>
       <c r="M153" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="N153" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O153" s="2">
         <v>44984.57083333333</v>
@@ -9510,10 +9551,10 @@
         <v>908</v>
       </c>
       <c r="M154" t="s">
-        <v>1000</v>
+        <v>1018</v>
       </c>
       <c r="N154" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O154" s="2">
         <v>44984.57083333333</v>
@@ -9548,10 +9589,10 @@
         <v>785</v>
       </c>
       <c r="M155" t="s">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="N155" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O155" s="2">
         <v>44984.57083333333</v>
@@ -9586,10 +9627,10 @@
         <v>786</v>
       </c>
       <c r="M156" t="s">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="N156" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O156" s="2">
         <v>44985.42986111111</v>
@@ -9624,10 +9665,10 @@
         <v>787</v>
       </c>
       <c r="M157" t="s">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="N157" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O157" s="2">
         <v>44984.57083333333</v>
@@ -9662,10 +9703,10 @@
         <v>788</v>
       </c>
       <c r="M158" t="s">
-        <v>1003</v>
+        <v>1021</v>
       </c>
       <c r="N158" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O158" s="2">
         <v>44984.57083333333</v>
@@ -9700,10 +9741,10 @@
         <v>761</v>
       </c>
       <c r="M159" t="s">
-        <v>1003</v>
+        <v>1021</v>
       </c>
       <c r="N159" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O159" s="2">
         <v>44984.57083333333</v>
@@ -9738,10 +9779,10 @@
         <v>789</v>
       </c>
       <c r="M160" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="N160" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O160" s="2">
         <v>44984.57083333333</v>
@@ -9776,10 +9817,10 @@
         <v>761</v>
       </c>
       <c r="M161" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="N161" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O161" s="2">
         <v>44984.57083333333</v>
@@ -9814,10 +9855,10 @@
         <v>761</v>
       </c>
       <c r="M162" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="N162" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O162" s="2">
         <v>44984.57083333333</v>
@@ -9852,10 +9893,10 @@
         <v>789</v>
       </c>
       <c r="M163" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="N163" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O163" s="2">
         <v>44984.57083333333</v>
@@ -9890,10 +9931,10 @@
         <v>789</v>
       </c>
       <c r="M164" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="N164" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O164" s="2">
         <v>44984.57083333333</v>
@@ -9928,10 +9969,10 @@
         <v>761</v>
       </c>
       <c r="M165" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="N165" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O165" s="2">
         <v>44984.57083333333</v>
@@ -9966,10 +10007,10 @@
         <v>761</v>
       </c>
       <c r="M166" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="N166" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O166" s="2">
         <v>44984.57083333333</v>
@@ -10004,10 +10045,10 @@
         <v>761</v>
       </c>
       <c r="M167" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="N167" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O167" s="2">
         <v>44984.57083333333</v>
@@ -10036,10 +10077,10 @@
         <v>909</v>
       </c>
       <c r="M168" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N168" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O168" s="2">
         <v>44984.57083333333</v>
@@ -10068,10 +10109,10 @@
         <v>910</v>
       </c>
       <c r="M169" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N169" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O169" s="2">
         <v>44984.57083333333</v>
@@ -10100,10 +10141,10 @@
         <v>911</v>
       </c>
       <c r="M170" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N170" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O170" s="2">
         <v>44984.57083333333</v>
@@ -10129,10 +10170,10 @@
         <v>912</v>
       </c>
       <c r="M171" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N171" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O171" s="2">
         <v>44984.57083333333</v>
@@ -10158,10 +10199,10 @@
         <v>913</v>
       </c>
       <c r="M172" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N172" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O172" s="2">
         <v>44984.57083333333</v>
@@ -10187,10 +10228,10 @@
         <v>903</v>
       </c>
       <c r="M173" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N173" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O173" s="2">
         <v>44984.57083333333</v>
@@ -10216,10 +10257,10 @@
         <v>914</v>
       </c>
       <c r="M174" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N174" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O174" s="2">
         <v>44984.57083333333</v>
@@ -10245,10 +10286,10 @@
         <v>915</v>
       </c>
       <c r="M175" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N175" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O175" s="2">
         <v>44984.57083333333</v>
@@ -10274,10 +10315,10 @@
         <v>916</v>
       </c>
       <c r="M176" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N176" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O176" s="2">
         <v>44984.57083333333</v>
@@ -10303,10 +10344,10 @@
         <v>917</v>
       </c>
       <c r="M177" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N177" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O177" s="2">
         <v>44984.57083333333</v>
@@ -10332,10 +10373,10 @@
         <v>918</v>
       </c>
       <c r="M178" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N178" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O178" s="2">
         <v>44984.57083333333</v>
@@ -10372,14 +10413,14 @@
       <c r="K179" t="s">
         <v>919</v>
       </c>
-      <c r="L179" s="3" t="s">
-        <v>966</v>
+      <c r="L179" t="s">
+        <v>983</v>
       </c>
       <c r="M179" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N179" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O179" s="2">
         <v>44984.57083333333</v>
@@ -10416,14 +10457,14 @@
       <c r="K180" t="s">
         <v>920</v>
       </c>
-      <c r="L180" s="3" t="s">
-        <v>967</v>
+      <c r="L180" t="s">
+        <v>984</v>
       </c>
       <c r="M180" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N180" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O180" s="2">
         <v>44984.57083333333</v>
@@ -10460,14 +10501,14 @@
       <c r="K181" t="s">
         <v>921</v>
       </c>
-      <c r="L181" s="3" t="s">
-        <v>968</v>
+      <c r="L181" t="s">
+        <v>985</v>
       </c>
       <c r="M181" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N181" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O181" s="2">
         <v>44984.57083333333</v>
@@ -10504,14 +10545,14 @@
       <c r="K182" t="s">
         <v>922</v>
       </c>
-      <c r="L182" s="3" t="s">
-        <v>969</v>
+      <c r="L182" t="s">
+        <v>986</v>
       </c>
       <c r="M182" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N182" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O182" s="2">
         <v>44984.57083333333</v>
@@ -10549,10 +10590,10 @@
         <v>197</v>
       </c>
       <c r="M183" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N183" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O183" s="2">
         <v>44984.57083333333</v>
@@ -10590,10 +10631,10 @@
         <v>923</v>
       </c>
       <c r="M184" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N184" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O184" s="2">
         <v>44984.74652777778</v>
@@ -10625,10 +10666,10 @@
         <v>833</v>
       </c>
       <c r="M185" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N185" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O185" s="2">
         <v>44984.57083333333</v>
@@ -10665,14 +10706,14 @@
       <c r="K186" t="s">
         <v>923</v>
       </c>
-      <c r="L186" s="3" t="s">
-        <v>970</v>
+      <c r="L186" t="s">
+        <v>987</v>
       </c>
       <c r="M186" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N186" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O186" s="2">
         <v>44984.57083333333</v>
@@ -10709,14 +10750,14 @@
       <c r="K187" t="s">
         <v>923</v>
       </c>
-      <c r="L187" s="3" t="s">
-        <v>971</v>
+      <c r="L187" t="s">
+        <v>988</v>
       </c>
       <c r="M187" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N187" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O187" s="2">
         <v>44984.57083333333</v>
@@ -10745,10 +10786,10 @@
         <v>604</v>
       </c>
       <c r="M188" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N188" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O188" s="2">
         <v>44984.57083333333</v>
@@ -10786,13 +10827,13 @@
         <v>924</v>
       </c>
       <c r="L189" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
       <c r="M189" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N189" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O189" s="2">
         <v>44984.57083333333</v>
@@ -10815,10 +10856,10 @@
         <v>542</v>
       </c>
       <c r="M190" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N190" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O190" s="2">
         <v>44984.57083333333</v>
@@ -10850,10 +10891,10 @@
         <v>834</v>
       </c>
       <c r="M191" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N191" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O191" s="2">
         <v>44984.57083333333</v>
@@ -10890,14 +10931,14 @@
       <c r="K192" t="s">
         <v>925</v>
       </c>
-      <c r="L192" s="3" t="s">
-        <v>973</v>
+      <c r="L192" t="s">
+        <v>990</v>
       </c>
       <c r="M192" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N192" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O192" s="2">
         <v>44984.57083333333</v>
@@ -10935,13 +10976,13 @@
         <v>926</v>
       </c>
       <c r="L193" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
       <c r="M193" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N193" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O193" s="2">
         <v>44984.57083333333</v>
@@ -10978,14 +11019,14 @@
       <c r="K194" t="s">
         <v>927</v>
       </c>
-      <c r="L194" s="3" t="s">
-        <v>974</v>
+      <c r="L194" t="s">
+        <v>991</v>
       </c>
       <c r="M194" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N194" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O194" s="2">
         <v>44984.57083333333</v>
@@ -11022,14 +11063,14 @@
       <c r="K195" t="s">
         <v>928</v>
       </c>
-      <c r="L195" s="3" t="s">
-        <v>975</v>
+      <c r="L195" t="s">
+        <v>992</v>
       </c>
       <c r="M195" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N195" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O195" s="2">
         <v>44984.57083333333</v>
@@ -11067,10 +11108,10 @@
         <v>835</v>
       </c>
       <c r="M196" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N196" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O196" s="2">
         <v>44984.57083333333</v>
@@ -11108,13 +11149,13 @@
         <v>929</v>
       </c>
       <c r="L197" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M197" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N197" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O197" s="2">
         <v>44984.71805555555</v>
@@ -11143,10 +11184,10 @@
         <v>759</v>
       </c>
       <c r="M198" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N198" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O198" s="2">
         <v>44984.57083333333</v>
@@ -11184,10 +11225,10 @@
         <v>836</v>
       </c>
       <c r="M199" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N199" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O199" s="2">
         <v>44984.57083333333</v>
@@ -11225,13 +11266,13 @@
         <v>930</v>
       </c>
       <c r="L200" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M200" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N200" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O200" s="2">
         <v>44984.71805555555</v>
@@ -11269,13 +11310,13 @@
         <v>930</v>
       </c>
       <c r="L201" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M201" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N201" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O201" s="2">
         <v>44984.71805555555</v>
@@ -11313,13 +11354,13 @@
         <v>930</v>
       </c>
       <c r="L202" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M202" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N202" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O202" s="2">
         <v>44984.71805555555</v>
@@ -11357,13 +11398,13 @@
         <v>930</v>
       </c>
       <c r="L203" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M203" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N203" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O203" s="2">
         <v>44984.72222222222</v>
@@ -11401,13 +11442,13 @@
         <v>930</v>
       </c>
       <c r="L204" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M204" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N204" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O204" s="2">
         <v>44984.71805555555</v>
@@ -11445,13 +11486,13 @@
         <v>930</v>
       </c>
       <c r="L205" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M205" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N205" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O205" s="2">
         <v>44984.71805555555</v>
@@ -11489,13 +11530,13 @@
         <v>930</v>
       </c>
       <c r="L206" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M206" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N206" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O206" s="2">
         <v>44984.71805555555</v>
@@ -11533,13 +11574,13 @@
         <v>930</v>
       </c>
       <c r="L207" t="s">
-        <v>977</v>
+        <v>994</v>
       </c>
       <c r="M207" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N207" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O207" s="2">
         <v>44984.57083333333</v>
@@ -11577,13 +11618,13 @@
         <v>930</v>
       </c>
       <c r="L208" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M208" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N208" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O208" s="2">
         <v>44984.71805555555</v>
@@ -11621,13 +11662,13 @@
         <v>930</v>
       </c>
       <c r="L209" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M209" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N209" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O209" s="2">
         <v>44984.71805555555</v>
@@ -11665,10 +11706,10 @@
         <v>837</v>
       </c>
       <c r="M210" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N210" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O210" s="2">
         <v>44984.57083333333</v>
@@ -11706,13 +11747,13 @@
         <v>931</v>
       </c>
       <c r="L211" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M211" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N211" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O211" s="2">
         <v>44984.72083333333</v>
@@ -11750,13 +11791,13 @@
         <v>931</v>
       </c>
       <c r="L212" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M212" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N212" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O212" s="2">
         <v>44984.72083333333</v>
@@ -11791,10 +11832,10 @@
         <v>802</v>
       </c>
       <c r="M213" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N213" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O213" s="2">
         <v>44984.57083333333</v>
@@ -11832,13 +11873,13 @@
         <v>932</v>
       </c>
       <c r="L214" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M214" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N214" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O214" s="2">
         <v>44984.72083333333</v>
@@ -11876,13 +11917,13 @@
         <v>933</v>
       </c>
       <c r="L215" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M215" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N215" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O215" s="2">
         <v>44984.72083333333</v>
@@ -11920,13 +11961,13 @@
         <v>933</v>
       </c>
       <c r="L216" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M216" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N216" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O216" s="2">
         <v>44984.72083333333</v>
@@ -11952,10 +11993,10 @@
         <v>743</v>
       </c>
       <c r="M217" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N217" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O217" s="2">
         <v>44984.57083333333</v>
@@ -11996,13 +12037,13 @@
         <v>934</v>
       </c>
       <c r="L218" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M218" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N218" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O218" s="2">
         <v>44984.72083333333</v>
@@ -12040,10 +12081,10 @@
         <v>838</v>
       </c>
       <c r="M219" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N219" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O219" s="2">
         <v>44984.57083333333</v>
@@ -12080,14 +12121,14 @@
       <c r="K220" t="s">
         <v>935</v>
       </c>
-      <c r="L220" s="3" t="s">
-        <v>978</v>
+      <c r="L220" t="s">
+        <v>995</v>
       </c>
       <c r="M220" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N220" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O220" s="2">
         <v>44984.57083333333</v>
@@ -12116,10 +12157,10 @@
         <v>762</v>
       </c>
       <c r="M221" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N221" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O221" s="2">
         <v>44984.57083333333</v>
@@ -12157,13 +12198,13 @@
         <v>936</v>
       </c>
       <c r="L222" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M222" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N222" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O222" s="2">
         <v>44984.72083333333</v>
@@ -12192,10 +12233,10 @@
         <v>762</v>
       </c>
       <c r="M223" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N223" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O223" s="2">
         <v>44984.57083333333</v>
@@ -12232,14 +12273,14 @@
       <c r="K224" t="s">
         <v>937</v>
       </c>
-      <c r="L224" s="3" t="s">
-        <v>979</v>
+      <c r="L224" t="s">
+        <v>996</v>
       </c>
       <c r="M224" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N224" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O224" s="2">
         <v>44984.57083333333</v>
@@ -12271,10 +12312,10 @@
         <v>239</v>
       </c>
       <c r="M225" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N225" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O225" s="2">
         <v>44984.57083333333</v>
@@ -12311,14 +12352,14 @@
       <c r="K226" t="s">
         <v>938</v>
       </c>
-      <c r="L226" s="3" t="s">
-        <v>980</v>
+      <c r="L226" t="s">
+        <v>997</v>
       </c>
       <c r="M226" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N226" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O226" s="2">
         <v>44984.57083333333</v>
@@ -12353,10 +12394,10 @@
         <v>839</v>
       </c>
       <c r="M227" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N227" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O227" s="2">
         <v>44984.57083333333</v>
@@ -12391,10 +12432,10 @@
         <v>840</v>
       </c>
       <c r="M228" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N228" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O228" s="2">
         <v>44984.57083333333</v>
@@ -12432,13 +12473,13 @@
         <v>939</v>
       </c>
       <c r="L229" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M229" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N229" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O229" s="2">
         <v>44984.72083333333</v>
@@ -12476,13 +12517,13 @@
         <v>939</v>
       </c>
       <c r="L230" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M230" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N230" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O230" s="2">
         <v>44984.72083333333</v>
@@ -12508,10 +12549,10 @@
         <v>747</v>
       </c>
       <c r="M231" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N231" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O231" s="2">
         <v>44984.57083333333</v>
@@ -12537,10 +12578,10 @@
         <v>747</v>
       </c>
       <c r="M232" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N232" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O232" s="2">
         <v>44984.57083333333</v>
@@ -12569,10 +12610,10 @@
         <v>747</v>
       </c>
       <c r="M233" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N233" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O233" s="2">
         <v>44984.57083333333</v>
@@ -12610,13 +12651,13 @@
         <v>940</v>
       </c>
       <c r="L234" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M234" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N234" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O234" s="2">
         <v>44984.72083333333</v>
@@ -12642,10 +12683,10 @@
         <v>748</v>
       </c>
       <c r="M235" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N235" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O235" s="2">
         <v>44984.57083333333</v>
@@ -12683,10 +12724,10 @@
         <v>250</v>
       </c>
       <c r="M236" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N236" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O236" s="2">
         <v>44984.57083333333</v>
@@ -12724,10 +12765,10 @@
         <v>251</v>
       </c>
       <c r="M237" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N237" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O237" s="2">
         <v>44984.57083333333</v>
@@ -12765,13 +12806,13 @@
         <v>941</v>
       </c>
       <c r="L238" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="M238" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N238" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O238" s="2">
         <v>44984.72083333333</v>
@@ -12803,10 +12844,10 @@
         <v>253</v>
       </c>
       <c r="M239" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N239" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O239" s="2">
         <v>44984.57083333333</v>
@@ -12832,10 +12873,10 @@
         <v>841</v>
       </c>
       <c r="M240" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N240" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O240" s="2">
         <v>44984.57083333333</v>
@@ -12858,10 +12899,10 @@
         <v>405</v>
       </c>
       <c r="M241" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N241" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O241" s="2">
         <v>44984.57083333333</v>
@@ -12884,10 +12925,10 @@
         <v>405</v>
       </c>
       <c r="M242" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N242" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O242" s="2">
         <v>44984.57083333333</v>
@@ -12910,10 +12951,10 @@
         <v>405</v>
       </c>
       <c r="M243" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N243" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O243" s="2">
         <v>44984.57083333333</v>
@@ -12936,10 +12977,10 @@
         <v>405</v>
       </c>
       <c r="M244" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N244" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O244" s="2">
         <v>44984.57083333333</v>
@@ -12962,10 +13003,10 @@
         <v>405</v>
       </c>
       <c r="M245" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N245" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O245" s="2">
         <v>44984.57083333333</v>
@@ -13000,13 +13041,13 @@
         <v>761</v>
       </c>
       <c r="L246" t="s">
-        <v>981</v>
+        <v>998</v>
       </c>
       <c r="M246" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="N246" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O246" s="2">
         <v>44984.64930555555</v>
@@ -13041,13 +13082,13 @@
         <v>760</v>
       </c>
       <c r="L247" t="s">
-        <v>981</v>
+        <v>998</v>
       </c>
       <c r="M247" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="N247" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O247" s="2">
         <v>44984.64930555555</v>
@@ -13082,13 +13123,13 @@
         <v>760</v>
       </c>
       <c r="L248" t="s">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="M248" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="N248" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O248" s="2">
         <v>44984.64930555555</v>
@@ -13123,13 +13164,13 @@
         <v>760</v>
       </c>
       <c r="L249" t="s">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="M249" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="N249" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O249" s="2">
         <v>44984.64930555555</v>
@@ -13164,13 +13205,13 @@
         <v>806</v>
       </c>
       <c r="L250" t="s">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="M250" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="N250" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O250" s="2">
         <v>44984.64930555555</v>
@@ -13205,13 +13246,13 @@
         <v>761</v>
       </c>
       <c r="L251" t="s">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="M251" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="N251" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O251" s="2">
         <v>44984.64930555555</v>
@@ -13246,13 +13287,13 @@
         <v>760</v>
       </c>
       <c r="L252" t="s">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="M252" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="N252" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O252" s="2">
         <v>44984.64930555555</v>
@@ -13287,13 +13328,13 @@
         <v>760</v>
       </c>
       <c r="L253" t="s">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="M253" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="N253" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O253" s="2">
         <v>44984.64930555555</v>
@@ -13318,14 +13359,14 @@
       <c r="H254" t="s">
         <v>752</v>
       </c>
-      <c r="L254" s="3" t="s">
-        <v>982</v>
+      <c r="L254" t="s">
+        <v>1000</v>
       </c>
       <c r="M254" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N254" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O254" s="2">
         <v>44984.57083333333</v>
@@ -13350,14 +13391,14 @@
       <c r="H255" t="s">
         <v>752</v>
       </c>
-      <c r="L255" s="3" t="s">
-        <v>983</v>
+      <c r="L255" t="s">
+        <v>1001</v>
       </c>
       <c r="M255" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N255" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O255" s="2">
         <v>44984.57083333333</v>
@@ -13382,14 +13423,14 @@
       <c r="H256" t="s">
         <v>752</v>
       </c>
-      <c r="L256" s="3" t="s">
-        <v>984</v>
+      <c r="L256" t="s">
+        <v>1002</v>
       </c>
       <c r="M256" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N256" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O256" s="2">
         <v>44984.57083333333</v>
@@ -13414,14 +13455,14 @@
       <c r="H257" t="s">
         <v>753</v>
       </c>
-      <c r="L257" s="3" t="s">
-        <v>985</v>
+      <c r="L257" t="s">
+        <v>1003</v>
       </c>
       <c r="M257" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N257" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O257" s="2">
         <v>44984.57083333333</v>
@@ -13458,14 +13499,14 @@
       <c r="K258" t="s">
         <v>942</v>
       </c>
-      <c r="L258" s="3" t="s">
-        <v>986</v>
+      <c r="L258" t="s">
+        <v>1004</v>
       </c>
       <c r="M258" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N258" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O258" s="2">
         <v>44984.57083333333</v>
@@ -13502,14 +13543,14 @@
       <c r="K259" t="s">
         <v>943</v>
       </c>
-      <c r="L259" s="3" t="s">
-        <v>987</v>
+      <c r="L259" t="s">
+        <v>1005</v>
       </c>
       <c r="M259" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N259" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O259" s="2">
         <v>44984.57083333333</v>
@@ -13546,14 +13587,14 @@
       <c r="K260" t="s">
         <v>944</v>
       </c>
-      <c r="L260" s="3" t="s">
-        <v>988</v>
+      <c r="L260" t="s">
+        <v>1006</v>
       </c>
       <c r="M260" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N260" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O260" s="2">
         <v>44984.57083333333</v>
@@ -13590,14 +13631,14 @@
       <c r="K261" t="s">
         <v>945</v>
       </c>
-      <c r="L261" s="3" t="s">
-        <v>989</v>
+      <c r="L261" t="s">
+        <v>1007</v>
       </c>
       <c r="M261" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N261" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O261" s="2">
         <v>44984.57083333333</v>
@@ -13620,10 +13661,10 @@
         <v>405</v>
       </c>
       <c r="M262" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="N262" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="O262" s="2">
         <v>44984.69583333333</v>
@@ -13654,62 +13695,20 @@
       <c r="K263" t="s">
         <v>930</v>
       </c>
-      <c r="L263" s="3" t="s">
-        <v>990</v>
+      <c r="L263" t="s">
+        <v>1008</v>
       </c>
       <c r="M263" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="N263" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="O263" s="2">
         <v>44984.57083333333</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L10" r:id="rId1"/>
-    <hyperlink ref="L23" r:id="rId2"/>
-    <hyperlink ref="L41" r:id="rId3"/>
-    <hyperlink ref="L47" r:id="rId4"/>
-    <hyperlink ref="L49" r:id="rId5"/>
-    <hyperlink ref="L50" r:id="rId6"/>
-    <hyperlink ref="L51" r:id="rId7"/>
-    <hyperlink ref="L56" r:id="rId8"/>
-    <hyperlink ref="L57" r:id="rId9"/>
-    <hyperlink ref="L80" r:id="rId10"/>
-    <hyperlink ref="L107" r:id="rId11"/>
-    <hyperlink ref="L113" r:id="rId12"/>
-    <hyperlink ref="L120" r:id="rId13"/>
-    <hyperlink ref="L129" r:id="rId14"/>
-    <hyperlink ref="L130" r:id="rId15"/>
-    <hyperlink ref="L131" r:id="rId16"/>
-    <hyperlink ref="L132" r:id="rId17"/>
-    <hyperlink ref="L143" r:id="rId18"/>
-    <hyperlink ref="L153" r:id="rId19"/>
-    <hyperlink ref="L179" r:id="rId20"/>
-    <hyperlink ref="L180" r:id="rId21"/>
-    <hyperlink ref="L181" r:id="rId22"/>
-    <hyperlink ref="L182" r:id="rId23"/>
-    <hyperlink ref="L186" r:id="rId24"/>
-    <hyperlink ref="L187" r:id="rId25"/>
-    <hyperlink ref="L192" r:id="rId26"/>
-    <hyperlink ref="L194" r:id="rId27"/>
-    <hyperlink ref="L195" r:id="rId28"/>
-    <hyperlink ref="L220" r:id="rId29"/>
-    <hyperlink ref="L224" r:id="rId30"/>
-    <hyperlink ref="L226" r:id="rId31"/>
-    <hyperlink ref="L254" r:id="rId32"/>
-    <hyperlink ref="L255" r:id="rId33"/>
-    <hyperlink ref="L256" r:id="rId34"/>
-    <hyperlink ref="L257" r:id="rId35"/>
-    <hyperlink ref="L258" r:id="rId36"/>
-    <hyperlink ref="L259" r:id="rId37"/>
-    <hyperlink ref="L260" r:id="rId38"/>
-    <hyperlink ref="L261" r:id="rId39"/>
-    <hyperlink ref="L263" r:id="rId40"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/helper/Employee_Process.xlsx
+++ b/helper/Employee_Process.xlsx
@@ -10529,10 +10529,10 @@
         <v>1037</v>
       </c>
       <c r="N165" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="O165" s="2">
-        <v>44986.52222222222</v>
+        <v>44987.75069444445</v>
       </c>
       <c r="P165" t="s">
         <v>1050</v>

--- a/helper/Employee_Process.xlsx
+++ b/helper/Employee_Process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="1135">
   <si>
     <t>Employee_Process</t>
   </si>
@@ -3260,6 +3260,9 @@
   </si>
   <si>
     <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023030606181-4030' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023030606181-4030&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023030706296-3558' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023030706296-3558&lt;/a&gt;</t>
   </si>
   <si>
     <t>&lt;a href='https://groot.eu.nio.com/wf3/lark/approve/PPRL-2023030607129-3092' target='_blank'&gt;groot.eu.nio.com/wf3/lark/approve/PPRL-2023030607129-3092&lt;/a&gt;</t>
@@ -3934,16 +3937,16 @@
         <v>903</v>
       </c>
       <c r="M2" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="N2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O2" s="2">
         <v>44986.52361111111</v>
       </c>
       <c r="P2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3975,16 +3978,16 @@
         <v>903</v>
       </c>
       <c r="M3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="N3" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O3" s="2">
         <v>44986.52361111111</v>
       </c>
       <c r="P3" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4016,16 +4019,16 @@
         <v>904</v>
       </c>
       <c r="M4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="N4" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O4" s="2">
         <v>44986.52361111111</v>
       </c>
       <c r="P4" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4057,16 +4060,16 @@
         <v>905</v>
       </c>
       <c r="M5" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N5" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O5" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P5" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4098,16 +4101,16 @@
         <v>821</v>
       </c>
       <c r="M6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N6" t="s">
         <v>1114</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1113</v>
       </c>
       <c r="O6" s="2">
         <v>44986.52222222222</v>
       </c>
       <c r="P6" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4142,16 +4145,16 @@
         <v>19</v>
       </c>
       <c r="M7" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N7" t="s">
         <v>1114</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1113</v>
       </c>
       <c r="O7" s="2">
         <v>44986.52222222222</v>
       </c>
       <c r="P7" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4192,16 +4195,16 @@
         <v>1018</v>
       </c>
       <c r="M8" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="N8" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O8" s="2">
         <v>44987.48125</v>
       </c>
       <c r="P8" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4236,16 +4239,16 @@
         <v>1019</v>
       </c>
       <c r="M9" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N9" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O9" s="2">
         <v>44988.55694444444</v>
       </c>
       <c r="P9" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -4280,16 +4283,16 @@
         <v>1020</v>
       </c>
       <c r="M10" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N10" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O10" s="2">
         <v>44988.55902777778</v>
       </c>
       <c r="P10" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4324,16 +4327,16 @@
         <v>1021</v>
       </c>
       <c r="M11" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N11" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O11" s="2">
         <v>44988.56111111111</v>
       </c>
       <c r="P11" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -4368,16 +4371,16 @@
         <v>1022</v>
       </c>
       <c r="M12" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N12" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O12" s="2">
         <v>44988.5625</v>
       </c>
       <c r="P12" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4412,16 +4415,16 @@
         <v>1023</v>
       </c>
       <c r="M13" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N13" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O13" s="2">
         <v>44988.56388888889</v>
       </c>
       <c r="P13" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -4456,16 +4459,16 @@
         <v>1024</v>
       </c>
       <c r="M14" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N14" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O14" s="2">
         <v>44988.56597222222</v>
       </c>
       <c r="P14" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -4503,16 +4506,16 @@
         <v>908</v>
       </c>
       <c r="M15" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N15" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O15" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P15" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -4547,16 +4550,16 @@
         <v>908</v>
       </c>
       <c r="M16" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N16" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O16" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P16" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -4591,16 +4594,16 @@
         <v>908</v>
       </c>
       <c r="M17" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N17" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O17" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P17" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -4635,16 +4638,16 @@
         <v>909</v>
       </c>
       <c r="M18" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N18" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O18" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P18" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -4682,16 +4685,16 @@
         <v>910</v>
       </c>
       <c r="M19" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N19" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O19" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P19" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4723,16 +4726,16 @@
         <v>910</v>
       </c>
       <c r="M20" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N20" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O20" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P20" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -4764,16 +4767,16 @@
         <v>910</v>
       </c>
       <c r="M21" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N21" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O21" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P21" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -4805,16 +4808,16 @@
         <v>910</v>
       </c>
       <c r="M22" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N22" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O22" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P22" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -4849,16 +4852,16 @@
         <v>910</v>
       </c>
       <c r="M23" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N23" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O23" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P23" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -4890,16 +4893,16 @@
         <v>910</v>
       </c>
       <c r="M24" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N24" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O24" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P24" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -4934,16 +4937,16 @@
         <v>911</v>
       </c>
       <c r="M25" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N25" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O25" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P25" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4975,16 +4978,16 @@
         <v>1025</v>
       </c>
       <c r="M26" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N26" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O26" s="2">
         <v>44988.67638888889</v>
       </c>
       <c r="P26" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -5019,16 +5022,16 @@
         <v>911</v>
       </c>
       <c r="M27" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N27" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O27" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P27" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -5063,16 +5066,16 @@
         <v>911</v>
       </c>
       <c r="M28" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N28" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O28" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P28" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -5107,16 +5110,16 @@
         <v>911</v>
       </c>
       <c r="M29" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N29" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O29" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P29" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -5151,16 +5154,16 @@
         <v>911</v>
       </c>
       <c r="M30" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N30" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O30" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P30" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -5195,16 +5198,16 @@
         <v>911</v>
       </c>
       <c r="M31" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N31" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O31" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P31" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -5239,16 +5242,16 @@
         <v>911</v>
       </c>
       <c r="M32" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N32" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O32" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P32" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -5283,16 +5286,16 @@
         <v>911</v>
       </c>
       <c r="M33" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N33" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O33" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P33" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -5327,16 +5330,16 @@
         <v>911</v>
       </c>
       <c r="M34" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N34" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O34" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P34" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -5371,16 +5374,16 @@
         <v>911</v>
       </c>
       <c r="M35" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N35" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O35" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P35" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -5415,16 +5418,16 @@
         <v>911</v>
       </c>
       <c r="M36" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N36" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O36" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P36" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -5459,16 +5462,16 @@
         <v>911</v>
       </c>
       <c r="M37" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N37" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O37" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P37" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -5503,16 +5506,16 @@
         <v>911</v>
       </c>
       <c r="M38" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N38" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O38" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P38" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -5547,16 +5550,16 @@
         <v>911</v>
       </c>
       <c r="M39" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N39" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O39" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P39" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -5591,16 +5594,16 @@
         <v>911</v>
       </c>
       <c r="M40" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N40" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O40" s="2">
         <v>44986.56458333333</v>
       </c>
       <c r="P40" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -5635,16 +5638,16 @@
         <v>911</v>
       </c>
       <c r="M41" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N41" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O41" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P41" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -5679,16 +5682,16 @@
         <v>911</v>
       </c>
       <c r="M42" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N42" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O42" s="2">
         <v>44986.56527777778</v>
       </c>
       <c r="P42" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -5723,16 +5726,16 @@
         <v>911</v>
       </c>
       <c r="M43" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N43" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O43" s="2">
         <v>44986.56527777778</v>
       </c>
       <c r="P43" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -5767,16 +5770,16 @@
         <v>911</v>
       </c>
       <c r="M44" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N44" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O44" s="2">
         <v>44986.56527777778</v>
       </c>
       <c r="P44" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -5811,16 +5814,16 @@
         <v>911</v>
       </c>
       <c r="M45" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N45" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O45" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P45" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -5855,16 +5858,16 @@
         <v>911</v>
       </c>
       <c r="M46" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N46" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O46" s="2">
         <v>44986.56527777778</v>
       </c>
       <c r="P46" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -5899,16 +5902,16 @@
         <v>911</v>
       </c>
       <c r="M47" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N47" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O47" s="2">
         <v>44986.56527777778</v>
       </c>
       <c r="P47" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -5943,16 +5946,16 @@
         <v>913</v>
       </c>
       <c r="M48" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N48" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O48" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P48" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -5987,16 +5990,16 @@
         <v>914</v>
       </c>
       <c r="M49" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N49" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O49" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P49" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -6028,16 +6031,16 @@
         <v>1026</v>
       </c>
       <c r="M50" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N50" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O50" s="2">
         <v>44991.48055555556</v>
       </c>
       <c r="P50" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -6066,16 +6069,16 @@
         <v>916</v>
       </c>
       <c r="M51" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N51" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O51" s="2">
         <v>44986.56527777778</v>
       </c>
       <c r="P51" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -6113,16 +6116,16 @@
         <v>1027</v>
       </c>
       <c r="M52" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N52" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O52" s="2">
         <v>44985.79583333333</v>
       </c>
       <c r="P52" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -6160,16 +6163,16 @@
         <v>1028</v>
       </c>
       <c r="M53" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N53" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O53" s="2">
         <v>44985.79722222222</v>
       </c>
       <c r="P53" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -6207,16 +6210,16 @@
         <v>1029</v>
       </c>
       <c r="M54" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N54" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O54" s="2">
         <v>44985.79722222222</v>
       </c>
       <c r="P54" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -6233,16 +6236,16 @@
         <v>306</v>
       </c>
       <c r="M55" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N55" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O55" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P55" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -6259,16 +6262,16 @@
         <v>306</v>
       </c>
       <c r="M56" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N56" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O56" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P56" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -6285,16 +6288,16 @@
         <v>306</v>
       </c>
       <c r="M57" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N57" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O57" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P57" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -6311,16 +6314,16 @@
         <v>306</v>
       </c>
       <c r="M58" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N58" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O58" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P58" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -6358,16 +6361,16 @@
         <v>1030</v>
       </c>
       <c r="M59" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N59" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O59" s="2">
         <v>44985.79722222222</v>
       </c>
       <c r="P59" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -6405,16 +6408,16 @@
         <v>1031</v>
       </c>
       <c r="M60" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N60" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O60" s="2">
         <v>44991.48194444444</v>
       </c>
       <c r="P60" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -6431,16 +6434,16 @@
         <v>306</v>
       </c>
       <c r="M61" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N61" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O61" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P61" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -6457,16 +6460,16 @@
         <v>306</v>
       </c>
       <c r="M62" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N62" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O62" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P62" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -6483,16 +6486,16 @@
         <v>306</v>
       </c>
       <c r="M63" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N63" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O63" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P63" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -6509,16 +6512,16 @@
         <v>306</v>
       </c>
       <c r="M64" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N64" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O64" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P64" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -6535,16 +6538,16 @@
         <v>306</v>
       </c>
       <c r="M65" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N65" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O65" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P65" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -6561,16 +6564,16 @@
         <v>306</v>
       </c>
       <c r="M66" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N66" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O66" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P66" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -6587,16 +6590,16 @@
         <v>306</v>
       </c>
       <c r="M67" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N67" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O67" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P67" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -6613,16 +6616,16 @@
         <v>306</v>
       </c>
       <c r="M68" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N68" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O68" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P68" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -6639,16 +6642,16 @@
         <v>306</v>
       </c>
       <c r="M69" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N69" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O69" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P69" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -6665,16 +6668,16 @@
         <v>306</v>
       </c>
       <c r="M70" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N70" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O70" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P70" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -6691,16 +6694,16 @@
         <v>306</v>
       </c>
       <c r="M71" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N71" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O71" s="2">
         <v>44986.56875</v>
       </c>
       <c r="P71" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -6735,16 +6738,16 @@
         <v>921</v>
       </c>
       <c r="M72" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N72" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O72" s="2">
         <v>44986.60138888889</v>
       </c>
       <c r="P72" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -6782,16 +6785,16 @@
         <v>922</v>
       </c>
       <c r="M73" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N73" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O73" s="2">
         <v>44987.49791666667</v>
       </c>
       <c r="P73" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -6826,16 +6829,16 @@
         <v>923</v>
       </c>
       <c r="M74" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N74" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O74" s="2">
         <v>44986.75</v>
       </c>
       <c r="P74" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -6867,16 +6870,16 @@
         <v>924</v>
       </c>
       <c r="M75" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N75" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O75" s="2">
         <v>44986.75</v>
       </c>
       <c r="P75" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -6911,16 +6914,16 @@
         <v>925</v>
       </c>
       <c r="M76" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N76" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O76" s="2">
         <v>44987.54583333333</v>
       </c>
       <c r="P76" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -6955,16 +6958,16 @@
         <v>926</v>
       </c>
       <c r="M77" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N77" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O77" s="2">
         <v>44986.60208333333</v>
       </c>
       <c r="P77" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -6999,16 +7002,16 @@
         <v>927</v>
       </c>
       <c r="M78" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N78" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O78" s="2">
         <v>44986.60208333333</v>
       </c>
       <c r="P78" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -7037,16 +7040,16 @@
         <v>928</v>
       </c>
       <c r="M79" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N79" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O79" s="2">
         <v>44986.60208333333</v>
       </c>
       <c r="P79" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -7081,16 +7084,16 @@
         <v>929</v>
       </c>
       <c r="M80" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N80" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O80" s="2">
         <v>44987.63888888889</v>
       </c>
       <c r="P80" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -7128,16 +7131,16 @@
         <v>1032</v>
       </c>
       <c r="M81" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N81" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O81" s="2">
         <v>44991.48194444444</v>
       </c>
       <c r="P81" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -7175,16 +7178,16 @@
         <v>1033</v>
       </c>
       <c r="M82" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N82" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O82" s="2">
         <v>44991.48194444444</v>
       </c>
       <c r="P82" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -7222,16 +7225,16 @@
         <v>1034</v>
       </c>
       <c r="M83" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N83" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O83" s="2">
         <v>44987.61597222222</v>
       </c>
       <c r="P83" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -7260,16 +7263,16 @@
         <v>933</v>
       </c>
       <c r="M84" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N84" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O84" s="2">
         <v>44986.60208333333</v>
       </c>
       <c r="P84" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -7307,16 +7310,16 @@
         <v>1035</v>
       </c>
       <c r="M85" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N85" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O85" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P85" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -7354,16 +7357,16 @@
         <v>1036</v>
       </c>
       <c r="M86" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N86" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O86" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P86" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -7401,16 +7404,16 @@
         <v>1037</v>
       </c>
       <c r="M87" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N87" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O87" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P87" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -7439,16 +7442,16 @@
         <v>937</v>
       </c>
       <c r="M88" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N88" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O88" s="2">
         <v>44986.60208333333</v>
       </c>
       <c r="P88" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -7486,16 +7489,16 @@
         <v>1038</v>
       </c>
       <c r="M89" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N89" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O89" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P89" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -7533,16 +7536,16 @@
         <v>1039</v>
       </c>
       <c r="M90" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N90" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O90" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P90" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -7580,16 +7583,16 @@
         <v>1040</v>
       </c>
       <c r="M91" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N91" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O91" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P91" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -7627,16 +7630,16 @@
         <v>1041</v>
       </c>
       <c r="M92" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N92" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O92" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P92" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -7674,16 +7677,16 @@
         <v>1042</v>
       </c>
       <c r="M93" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N93" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O93" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P93" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -7721,16 +7724,16 @@
         <v>1043</v>
       </c>
       <c r="M94" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N94" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O94" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P94" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -7768,16 +7771,16 @@
         <v>1044</v>
       </c>
       <c r="M95" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N95" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O95" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P95" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -7815,16 +7818,16 @@
         <v>1045</v>
       </c>
       <c r="M96" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N96" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O96" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P96" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -7862,16 +7865,16 @@
         <v>1046</v>
       </c>
       <c r="M97" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N97" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O97" s="2">
         <v>44991.48263888889</v>
       </c>
       <c r="P97" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -7906,16 +7909,16 @@
         <v>947</v>
       </c>
       <c r="M98" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N98" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O98" s="2">
         <v>44986.75</v>
       </c>
       <c r="P98" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -7950,16 +7953,16 @@
         <v>948</v>
       </c>
       <c r="M99" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N99" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O99" s="2">
         <v>44986.75</v>
       </c>
       <c r="P99" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -7994,16 +7997,16 @@
         <v>949</v>
       </c>
       <c r="M100" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N100" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O100" s="2">
         <v>44986.75</v>
       </c>
       <c r="P100" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -8035,16 +8038,16 @@
         <v>950</v>
       </c>
       <c r="M101" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N101" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O101" s="2">
         <v>44986.75</v>
       </c>
       <c r="P101" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -8076,16 +8079,16 @@
         <v>951</v>
       </c>
       <c r="M102" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N102" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O102" s="2">
         <v>44986.75</v>
       </c>
       <c r="P102" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -8108,16 +8111,16 @@
         <v>952</v>
       </c>
       <c r="M103" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N103" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O103" s="2">
         <v>44986.75</v>
       </c>
       <c r="P103" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -8152,16 +8155,16 @@
         <v>953</v>
       </c>
       <c r="M104" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N104" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O104" s="2">
         <v>44986.75</v>
       </c>
       <c r="P104" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -8196,16 +8199,16 @@
         <v>954</v>
       </c>
       <c r="M105" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N105" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O105" s="2">
         <v>44986.75</v>
       </c>
       <c r="P105" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -8234,16 +8237,16 @@
         <v>954</v>
       </c>
       <c r="M106" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N106" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O106" s="2">
         <v>44986.75</v>
       </c>
       <c r="P106" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -8272,16 +8275,16 @@
         <v>954</v>
       </c>
       <c r="M107" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N107" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O107" s="2">
         <v>44986.75</v>
       </c>
       <c r="P107" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -8310,16 +8313,16 @@
         <v>954</v>
       </c>
       <c r="M108" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N108" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O108" s="2">
         <v>44986.75</v>
       </c>
       <c r="P108" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -8360,16 +8363,16 @@
         <v>1047</v>
       </c>
       <c r="M109" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N109" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O109" s="2">
         <v>44988.6875</v>
       </c>
       <c r="P109" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -8404,16 +8407,16 @@
         <v>955</v>
       </c>
       <c r="M110" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N110" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O110" s="2">
         <v>44986.75</v>
       </c>
       <c r="P110" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -8448,16 +8451,16 @@
         <v>955</v>
       </c>
       <c r="M111" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N111" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O111" s="2">
         <v>44986.75</v>
       </c>
       <c r="P111" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -8492,16 +8495,16 @@
         <v>955</v>
       </c>
       <c r="M112" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N112" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O112" s="2">
         <v>44986.75</v>
       </c>
       <c r="P112" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -8536,16 +8539,16 @@
         <v>955</v>
       </c>
       <c r="M113" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N113" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O113" s="2">
         <v>44986.75</v>
       </c>
       <c r="P113" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -8580,16 +8583,16 @@
         <v>955</v>
       </c>
       <c r="M114" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N114" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O114" s="2">
         <v>44986.75</v>
       </c>
       <c r="P114" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -8630,16 +8633,16 @@
         <v>1048</v>
       </c>
       <c r="M115" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N115" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O115" s="2">
         <v>44991.48680555556</v>
       </c>
       <c r="P115" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -8671,16 +8674,16 @@
         <v>956</v>
       </c>
       <c r="M116" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N116" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O116" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P116" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -8712,16 +8715,16 @@
         <v>956</v>
       </c>
       <c r="M117" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N117" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O117" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P117" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -8753,16 +8756,16 @@
         <v>956</v>
       </c>
       <c r="M118" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N118" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O118" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P118" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -8794,16 +8797,16 @@
         <v>956</v>
       </c>
       <c r="M119" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N119" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O119" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P119" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -8835,16 +8838,16 @@
         <v>956</v>
       </c>
       <c r="M120" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N120" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O120" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P120" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -8876,16 +8879,16 @@
         <v>956</v>
       </c>
       <c r="M121" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N121" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O121" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P121" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -8926,16 +8929,16 @@
         <v>1049</v>
       </c>
       <c r="M122" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N122" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O122" s="2">
         <v>44985.79861111111</v>
       </c>
       <c r="P122" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -8970,16 +8973,16 @@
         <v>957</v>
       </c>
       <c r="M123" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N123" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O123" s="2">
         <v>44986.75</v>
       </c>
       <c r="P123" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -9014,16 +9017,16 @@
         <v>957</v>
       </c>
       <c r="M124" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N124" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O124" s="2">
         <v>44986.75</v>
       </c>
       <c r="P124" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -9058,16 +9061,16 @@
         <v>958</v>
       </c>
       <c r="M125" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N125" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O125" s="2">
         <v>44986.75</v>
       </c>
       <c r="P125" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -9102,16 +9105,16 @@
         <v>959</v>
       </c>
       <c r="M126" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N126" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O126" s="2">
         <v>44986.75</v>
       </c>
       <c r="P126" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -9143,16 +9146,16 @@
         <v>960</v>
       </c>
       <c r="M127" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N127" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O127" s="2">
         <v>44991.4875</v>
       </c>
       <c r="P127" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -9172,16 +9175,16 @@
         <v>961</v>
       </c>
       <c r="M128" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N128" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O128" s="2">
         <v>44986.75</v>
       </c>
       <c r="P128" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -9210,10 +9213,10 @@
         <v>962</v>
       </c>
       <c r="M129" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N129" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O129" s="2">
         <v>44991.49444444444</v>
@@ -9251,10 +9254,10 @@
         <v>963</v>
       </c>
       <c r="M130" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N130" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O130" s="2">
         <v>44991.49861111111</v>
@@ -9295,16 +9298,16 @@
         <v>1050</v>
       </c>
       <c r="M131" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N131" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O131" s="2">
         <v>44991.48680555556</v>
       </c>
       <c r="P131" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -9342,16 +9345,16 @@
         <v>1051</v>
       </c>
       <c r="M132" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N132" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O132" s="2">
         <v>44986.54861111111</v>
       </c>
       <c r="P132" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -9389,16 +9392,16 @@
         <v>1052</v>
       </c>
       <c r="M133" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N133" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O133" s="2">
         <v>44986.54791666667</v>
       </c>
       <c r="P133" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -9436,16 +9439,16 @@
         <v>1053</v>
       </c>
       <c r="M134" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N134" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O134" s="2">
         <v>44986.54861111111</v>
       </c>
       <c r="P134" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -9480,16 +9483,16 @@
         <v>964</v>
       </c>
       <c r="M135" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N135" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O135" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P135" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -9524,16 +9527,16 @@
         <v>964</v>
       </c>
       <c r="M136" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N136" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O136" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P136" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -9568,16 +9571,16 @@
         <v>964</v>
       </c>
       <c r="M137" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N137" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O137" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P137" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -9612,16 +9615,16 @@
         <v>964</v>
       </c>
       <c r="M138" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N138" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O138" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P138" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -9656,16 +9659,16 @@
         <v>964</v>
       </c>
       <c r="M139" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N139" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O139" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P139" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -9700,16 +9703,16 @@
         <v>964</v>
       </c>
       <c r="M140" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N140" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O140" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P140" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -9744,16 +9747,16 @@
         <v>964</v>
       </c>
       <c r="M141" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N141" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O141" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P141" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -9788,16 +9791,16 @@
         <v>964</v>
       </c>
       <c r="M142" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N142" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O142" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P142" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -9832,16 +9835,16 @@
         <v>964</v>
       </c>
       <c r="M143" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N143" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O143" s="2">
         <v>44986.44444444445</v>
       </c>
       <c r="P143" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -9879,16 +9882,16 @@
         <v>965</v>
       </c>
       <c r="M144" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N144" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O144" s="2">
         <v>44986.75</v>
       </c>
       <c r="P144" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -9929,13 +9932,13 @@
         <v>1054</v>
       </c>
       <c r="M145" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N145" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O145" s="2">
-        <v>44985.79930555556</v>
+        <v>44992.61597222222</v>
       </c>
       <c r="P145" t="s">
         <v>1130</v>
@@ -9970,16 +9973,16 @@
         <v>965</v>
       </c>
       <c r="M146" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N146" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O146" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P146" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -10017,16 +10020,16 @@
         <v>965</v>
       </c>
       <c r="M147" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N147" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O147" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P147" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -10055,16 +10058,16 @@
         <v>965</v>
       </c>
       <c r="M148" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N148" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O148" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P148" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -10093,16 +10096,16 @@
         <v>965</v>
       </c>
       <c r="M149" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N149" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O149" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P149" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -10131,16 +10134,16 @@
         <v>965</v>
       </c>
       <c r="M150" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N150" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O150" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P150" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -10172,16 +10175,16 @@
         <v>965</v>
       </c>
       <c r="M151" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N151" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O151" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P151" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -10216,16 +10219,16 @@
         <v>965</v>
       </c>
       <c r="M152" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N152" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O152" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P152" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -10257,16 +10260,16 @@
         <v>965</v>
       </c>
       <c r="M153" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N153" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O153" s="2">
         <v>44986.75069444445</v>
       </c>
       <c r="P153" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -10298,16 +10301,16 @@
         <v>822</v>
       </c>
       <c r="M154" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="N154" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O154" s="2">
         <v>44986.52291666667</v>
       </c>
       <c r="P154" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -10345,16 +10348,16 @@
         <v>1055</v>
       </c>
       <c r="M155" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N155" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O155" s="2">
         <v>44986.43125</v>
       </c>
       <c r="P155" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -10392,16 +10395,16 @@
         <v>1056</v>
       </c>
       <c r="M156" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="N156" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O156" s="2">
         <v>44985.79930555556</v>
       </c>
       <c r="P156" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -10433,16 +10436,16 @@
         <v>848</v>
       </c>
       <c r="M157" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="N157" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O157" s="2">
         <v>44986.52291666667</v>
       </c>
       <c r="P157" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -10474,16 +10477,16 @@
         <v>822</v>
       </c>
       <c r="M158" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="N158" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O158" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P158" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -10518,16 +10521,16 @@
         <v>968</v>
       </c>
       <c r="M159" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="N159" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O159" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P159" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -10562,16 +10565,16 @@
         <v>968</v>
       </c>
       <c r="M160" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="N160" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O160" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P160" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -10606,16 +10609,16 @@
         <v>968</v>
       </c>
       <c r="M161" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="N161" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O161" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P161" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -10650,16 +10653,16 @@
         <v>968</v>
       </c>
       <c r="M162" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="N162" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O162" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P162" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -10694,16 +10697,16 @@
         <v>968</v>
       </c>
       <c r="M163" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="N163" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O163" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P163" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -10738,16 +10741,16 @@
         <v>968</v>
       </c>
       <c r="M164" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="N164" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O164" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P164" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -10782,16 +10785,16 @@
         <v>968</v>
       </c>
       <c r="M165" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="N165" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O165" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P165" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -10826,16 +10829,16 @@
         <v>968</v>
       </c>
       <c r="M166" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="N166" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O166" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P166" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -10870,16 +10873,16 @@
         <v>968</v>
       </c>
       <c r="M167" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="N167" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O167" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P167" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -10914,16 +10917,16 @@
         <v>968</v>
       </c>
       <c r="M168" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="N168" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O168" s="2">
         <v>44988.46388888889</v>
       </c>
       <c r="P168" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -10958,16 +10961,16 @@
         <v>969</v>
       </c>
       <c r="M169" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N169" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O169" s="2">
         <v>44986.75</v>
       </c>
       <c r="P169" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -10999,16 +11002,16 @@
         <v>822</v>
       </c>
       <c r="M170" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="N170" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O170" s="2">
         <v>44986.52291666667</v>
       </c>
       <c r="P170" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -11040,10 +11043,10 @@
         <v>970</v>
       </c>
       <c r="M171" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N171" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O171" s="2">
         <v>44988.58194444444</v>
@@ -11078,10 +11081,10 @@
         <v>971</v>
       </c>
       <c r="M172" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N172" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O172" s="2">
         <v>44988.71944444445</v>
@@ -11116,10 +11119,10 @@
         <v>972</v>
       </c>
       <c r="M173" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N173" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O173" s="2">
         <v>44988.72152777778</v>
@@ -11142,10 +11145,10 @@
         <v>973</v>
       </c>
       <c r="M174" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N174" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O174" s="2">
         <v>44988.59444444445</v>
@@ -11174,10 +11177,10 @@
         <v>974</v>
       </c>
       <c r="M175" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N175" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O175" s="2">
         <v>44988.77569444444</v>
@@ -11206,10 +11209,10 @@
         <v>975</v>
       </c>
       <c r="M176" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N176" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O176" s="2">
         <v>44988.78263888889</v>
@@ -11238,10 +11241,10 @@
         <v>976</v>
       </c>
       <c r="M177" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N177" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O177" s="2">
         <v>44988.78541666667</v>
@@ -11285,16 +11288,16 @@
         <v>1057</v>
       </c>
       <c r="M178" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N178" t="s">
         <v>1117</v>
       </c>
       <c r="O178" s="2">
-        <v>44991.61388888889</v>
+        <v>44992.55763888889</v>
       </c>
       <c r="P178" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -11329,16 +11332,16 @@
         <v>978</v>
       </c>
       <c r="M179" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N179" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O179" s="2">
         <v>44986.60208333333</v>
       </c>
       <c r="P179" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -11372,17 +11375,20 @@
       <c r="K180" t="s">
         <v>979</v>
       </c>
+      <c r="L180" t="s">
+        <v>1058</v>
+      </c>
       <c r="M180" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N180" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O180" s="2">
-        <v>44991.63958333333</v>
+        <v>44992.61041666667</v>
       </c>
       <c r="P180" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -11417,19 +11423,19 @@
         <v>980</v>
       </c>
       <c r="L181" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M181" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N181" t="s">
         <v>1117</v>
       </c>
       <c r="O181" s="2">
-        <v>44991.65277777778</v>
+        <v>44992.55833333333</v>
       </c>
       <c r="P181" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -11464,16 +11470,16 @@
         <v>981</v>
       </c>
       <c r="M182" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N182" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O182" s="2">
         <v>44991.65625</v>
       </c>
       <c r="P182" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -11508,16 +11514,16 @@
         <v>982</v>
       </c>
       <c r="M183" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N183" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O183" s="2">
         <v>44991.67986111111</v>
       </c>
       <c r="P183" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -11552,16 +11558,16 @@
         <v>978</v>
       </c>
       <c r="M184" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N184" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O184" s="2">
         <v>44991.68958333333</v>
       </c>
       <c r="P184" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -11596,16 +11602,16 @@
         <v>983</v>
       </c>
       <c r="M185" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N185" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O185" s="2">
         <v>44991.69305555556</v>
       </c>
       <c r="P185" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -11640,16 +11646,16 @@
         <v>984</v>
       </c>
       <c r="M186" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N186" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O186" s="2">
         <v>44991.69791666666</v>
       </c>
       <c r="P186" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -11684,16 +11690,16 @@
         <v>985</v>
       </c>
       <c r="M187" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N187" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O187" s="2">
         <v>44991.70833333334</v>
       </c>
       <c r="P187" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -11716,16 +11722,16 @@
         <v>986</v>
       </c>
       <c r="M188" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N188" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O188" s="2">
         <v>44986.52222222222</v>
       </c>
       <c r="P188" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -11751,16 +11757,16 @@
         <v>987</v>
       </c>
       <c r="M189" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N189" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O189" s="2">
         <v>44987.75069444445</v>
       </c>
       <c r="P189" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11783,16 +11789,16 @@
         <v>988</v>
       </c>
       <c r="M190" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N190" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O190" s="2">
         <v>44986.52222222222</v>
       </c>
       <c r="P190" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11827,19 +11833,19 @@
         <v>989</v>
       </c>
       <c r="L191" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="M191" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N191" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O191" s="2">
         <v>44987.56666666667</v>
       </c>
       <c r="P191" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11874,19 +11880,19 @@
         <v>990</v>
       </c>
       <c r="L192" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="M192" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N192" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O192" s="2">
         <v>44985.8</v>
       </c>
       <c r="P192" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11921,19 +11927,19 @@
         <v>991</v>
       </c>
       <c r="L193" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="M193" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N193" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O193" s="2">
         <v>44985.8</v>
       </c>
       <c r="P193" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11968,19 +11974,19 @@
         <v>992</v>
       </c>
       <c r="L194" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="M194" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N194" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O194" s="2">
         <v>44985.8</v>
       </c>
       <c r="P194" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -12015,16 +12021,16 @@
         <v>209</v>
       </c>
       <c r="M195" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N195" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O195" s="2">
         <v>44985.80833333333</v>
       </c>
       <c r="P195" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -12059,19 +12065,19 @@
         <v>993</v>
       </c>
       <c r="L196" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="M196" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N196" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O196" s="2">
         <v>44986.47986111111</v>
       </c>
       <c r="P196" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -12100,16 +12106,16 @@
         <v>892</v>
       </c>
       <c r="M197" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N197" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O197" s="2">
         <v>44985.80902777778</v>
       </c>
       <c r="P197" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -12144,19 +12150,19 @@
         <v>993</v>
       </c>
       <c r="L198" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="M198" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N198" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O198" s="2">
         <v>44985.80138888889</v>
       </c>
       <c r="P198" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -12191,19 +12197,19 @@
         <v>993</v>
       </c>
       <c r="L199" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="M199" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N199" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O199" s="2">
         <v>44985.80138888889</v>
       </c>
       <c r="P199" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -12229,16 +12235,16 @@
         <v>656</v>
       </c>
       <c r="M200" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N200" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O200" s="2">
         <v>44985.80902777778</v>
       </c>
       <c r="P200" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -12273,19 +12279,19 @@
         <v>994</v>
       </c>
       <c r="L201" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="M201" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N201" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O201" s="2">
         <v>44985.80138888889</v>
       </c>
       <c r="P201" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -12305,16 +12311,16 @@
         <v>593</v>
       </c>
       <c r="M202" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N202" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O202" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P202" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -12343,16 +12349,16 @@
         <v>893</v>
       </c>
       <c r="M203" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N203" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O203" s="2">
         <v>44985.80902777778</v>
       </c>
       <c r="P203" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -12387,19 +12393,19 @@
         <v>995</v>
       </c>
       <c r="L204" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="M204" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N204" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O204" s="2">
         <v>44985.80138888889</v>
       </c>
       <c r="P204" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -12434,19 +12440,19 @@
         <v>996</v>
       </c>
       <c r="L205" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="M205" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N205" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O205" s="2">
         <v>44985.80138888889</v>
       </c>
       <c r="P205" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -12481,19 +12487,19 @@
         <v>997</v>
       </c>
       <c r="L206" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M206" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N206" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O206" s="2">
         <v>44985.80208333334</v>
       </c>
       <c r="P206" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -12528,19 +12534,19 @@
         <v>998</v>
       </c>
       <c r="L207" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="M207" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N207" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O207" s="2">
         <v>44985.80208333334</v>
       </c>
       <c r="P207" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -12575,16 +12581,16 @@
         <v>894</v>
       </c>
       <c r="M208" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N208" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O208" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P208" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -12619,19 +12625,19 @@
         <v>999</v>
       </c>
       <c r="L209" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="M209" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N209" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O209" s="2">
         <v>44986.47986111111</v>
       </c>
       <c r="P209" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12657,16 +12663,16 @@
         <v>821</v>
       </c>
       <c r="M210" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N210" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O210" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P210" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -12701,16 +12707,16 @@
         <v>895</v>
       </c>
       <c r="M211" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N211" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O211" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P211" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12745,19 +12751,19 @@
         <v>1000</v>
       </c>
       <c r="L212" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="M212" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N212" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O212" s="2">
         <v>44985.80208333334</v>
       </c>
       <c r="P212" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12792,19 +12798,19 @@
         <v>1000</v>
       </c>
       <c r="L213" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M213" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N213" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O213" s="2">
         <v>44985.80208333334</v>
       </c>
       <c r="P213" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12839,19 +12845,19 @@
         <v>1000</v>
       </c>
       <c r="L214" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="M214" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N214" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O214" s="2">
         <v>44985.80208333334</v>
       </c>
       <c r="P214" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12886,19 +12892,19 @@
         <v>1000</v>
       </c>
       <c r="L215" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="M215" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N215" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O215" s="2">
         <v>44985.80208333334</v>
       </c>
       <c r="P215" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12933,19 +12939,19 @@
         <v>1000</v>
       </c>
       <c r="L216" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="M216" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N216" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O216" s="2">
         <v>44985.80208333334</v>
       </c>
       <c r="P216" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12980,19 +12986,19 @@
         <v>1000</v>
       </c>
       <c r="L217" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="M217" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N217" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O217" s="2">
         <v>44985.73055555556</v>
       </c>
       <c r="P217" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -13027,19 +13033,19 @@
         <v>1000</v>
       </c>
       <c r="L218" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="M218" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N218" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O218" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P218" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -13074,19 +13080,19 @@
         <v>1000</v>
       </c>
       <c r="L219" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="M219" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N219" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O219" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P219" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -13121,19 +13127,19 @@
         <v>1000</v>
       </c>
       <c r="L220" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="M220" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N220" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O220" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P220" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -13168,19 +13174,19 @@
         <v>1000</v>
       </c>
       <c r="L221" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="M221" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N221" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O221" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P221" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -13215,16 +13221,16 @@
         <v>896</v>
       </c>
       <c r="M222" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N222" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O222" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P222" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -13259,19 +13265,19 @@
         <v>1001</v>
       </c>
       <c r="L223" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="M223" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N223" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O223" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P223" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -13306,19 +13312,19 @@
         <v>1001</v>
       </c>
       <c r="L224" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="M224" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N224" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O224" s="2">
         <v>44991.61736111111</v>
       </c>
       <c r="P224" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -13350,16 +13356,16 @@
         <v>866</v>
       </c>
       <c r="M225" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N225" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O225" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P225" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -13394,19 +13400,19 @@
         <v>1002</v>
       </c>
       <c r="L226" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="M226" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N226" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O226" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P226" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -13441,19 +13447,19 @@
         <v>1003</v>
       </c>
       <c r="L227" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="M227" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N227" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O227" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P227" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -13488,19 +13494,19 @@
         <v>1003</v>
       </c>
       <c r="L228" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="M228" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N228" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O228" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P228" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -13523,16 +13529,16 @@
         <v>802</v>
       </c>
       <c r="M229" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N229" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O229" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P229" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -13567,19 +13573,19 @@
         <v>1004</v>
       </c>
       <c r="L230" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="M230" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N230" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O230" s="2">
         <v>44986.47986111111</v>
       </c>
       <c r="P230" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -13614,16 +13620,16 @@
         <v>897</v>
       </c>
       <c r="M231" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N231" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O231" s="2">
         <v>44986.54027777778</v>
       </c>
       <c r="P231" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -13658,19 +13664,19 @@
         <v>1005</v>
       </c>
       <c r="L232" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="M232" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N232" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O232" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P232" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13696,16 +13702,16 @@
         <v>823</v>
       </c>
       <c r="M233" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N233" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O233" s="2">
         <v>44986.54097222222</v>
       </c>
       <c r="P233" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13740,19 +13746,19 @@
         <v>1006</v>
       </c>
       <c r="L234" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="M234" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N234" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O234" s="2">
         <v>44986.52361111111</v>
       </c>
       <c r="P234" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13778,16 +13784,16 @@
         <v>823</v>
       </c>
       <c r="M235" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N235" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O235" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P235" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13822,19 +13828,19 @@
         <v>1007</v>
       </c>
       <c r="L236" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="M236" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N236" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O236" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P236" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13869,19 +13875,19 @@
         <v>1008</v>
       </c>
       <c r="L237" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="M237" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N237" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O237" s="2">
         <v>44985.80277777778</v>
       </c>
       <c r="P237" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13913,16 +13919,16 @@
         <v>898</v>
       </c>
       <c r="M238" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N238" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O238" s="2">
         <v>44985.80972222222</v>
       </c>
       <c r="P238" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13954,19 +13960,19 @@
         <v>821</v>
       </c>
       <c r="L239" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="M239" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N239" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O239" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P239" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -14001,19 +14007,19 @@
         <v>1009</v>
       </c>
       <c r="L240" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="M240" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N240" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O240" s="2">
         <v>44986.54722222222</v>
       </c>
       <c r="P240" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -14036,16 +14042,16 @@
         <v>806</v>
       </c>
       <c r="M241" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N241" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O241" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P241" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -14068,16 +14074,16 @@
         <v>806</v>
       </c>
       <c r="M242" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N242" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O242" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P242" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -14103,16 +14109,16 @@
         <v>806</v>
       </c>
       <c r="M243" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N243" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O243" s="2">
         <v>44986.75208333333</v>
       </c>
       <c r="P243" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -14147,19 +14153,19 @@
         <v>1010</v>
       </c>
       <c r="L244" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="M244" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N244" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O244" s="2">
         <v>44986.47986111111</v>
       </c>
       <c r="P244" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -14182,16 +14188,16 @@
         <v>807</v>
       </c>
       <c r="M245" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N245" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O245" s="2">
         <v>44986.55555555555</v>
       </c>
       <c r="P245" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -14226,16 +14232,16 @@
         <v>260</v>
       </c>
       <c r="M246" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N246" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O246" s="2">
         <v>44985.77916666667</v>
       </c>
       <c r="P246" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -14270,16 +14276,16 @@
         <v>261</v>
       </c>
       <c r="M247" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N247" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O247" s="2">
         <v>44985.77916666667</v>
       </c>
       <c r="P247" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -14314,19 +14320,19 @@
         <v>1011</v>
       </c>
       <c r="L248" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="M248" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N248" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O248" s="2">
         <v>44986.47986111111</v>
       </c>
       <c r="P248" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -14355,16 +14361,16 @@
         <v>263</v>
       </c>
       <c r="M249" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N249" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O249" s="2">
         <v>44985.80972222222</v>
       </c>
       <c r="P249" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -14387,16 +14393,16 @@
         <v>899</v>
       </c>
       <c r="M250" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N250" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O250" s="2">
         <v>44986.55486111111</v>
       </c>
       <c r="P250" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -14416,16 +14422,16 @@
         <v>436</v>
       </c>
       <c r="M251" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N251" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O251" s="2">
         <v>44986.55555555555</v>
       </c>
       <c r="P251" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -14445,16 +14451,16 @@
         <v>436</v>
       </c>
       <c r="M252" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N252" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O252" s="2">
         <v>44986.55555555555</v>
       </c>
       <c r="P252" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14474,16 +14480,16 @@
         <v>436</v>
       </c>
       <c r="M253" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N253" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O253" s="2">
         <v>44986.55555555555</v>
       </c>
       <c r="P253" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14503,16 +14509,16 @@
         <v>436</v>
       </c>
       <c r="M254" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N254" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O254" s="2">
         <v>44986.55555555555</v>
       </c>
       <c r="P254" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14532,16 +14538,16 @@
         <v>436</v>
       </c>
       <c r="M255" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N255" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O255" s="2">
         <v>44986.55555555555</v>
       </c>
       <c r="P255" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14573,16 +14579,16 @@
         <v>822</v>
       </c>
       <c r="M256" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="N256" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O256" s="2">
         <v>44986.44791666666</v>
       </c>
       <c r="P256" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14614,16 +14620,16 @@
         <v>841</v>
       </c>
       <c r="M257" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="N257" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O257" s="2">
         <v>44986.44722222222</v>
       </c>
       <c r="P257" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14655,16 +14661,16 @@
         <v>841</v>
       </c>
       <c r="M258" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="N258" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O258" s="2">
         <v>44986.44722222222</v>
       </c>
       <c r="P258" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14696,16 +14702,16 @@
         <v>841</v>
       </c>
       <c r="M259" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="N259" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O259" s="2">
         <v>44986.44722222222</v>
       </c>
       <c r="P259" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14737,16 +14743,16 @@
         <v>870</v>
       </c>
       <c r="M260" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="N260" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O260" s="2">
         <v>44986.44722222222</v>
       </c>
       <c r="P260" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -14778,16 +14784,16 @@
         <v>822</v>
       </c>
       <c r="M261" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="N261" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O261" s="2">
         <v>44986.44722222222</v>
       </c>
       <c r="P261" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -14819,16 +14825,16 @@
         <v>841</v>
       </c>
       <c r="M262" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="N262" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O262" s="2">
         <v>44986.44722222222</v>
       </c>
       <c r="P262" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -14860,16 +14866,16 @@
         <v>841</v>
       </c>
       <c r="M263" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="N263" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O263" s="2">
         <v>44986.44722222222</v>
       </c>
       <c r="P263" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -14892,19 +14898,19 @@
         <v>811</v>
       </c>
       <c r="L264" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M264" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N264" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O264" s="2">
         <v>44985.80347222222</v>
       </c>
       <c r="P264" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -14927,19 +14933,19 @@
         <v>811</v>
       </c>
       <c r="L265" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="M265" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N265" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O265" s="2">
         <v>44985.80347222222</v>
       </c>
       <c r="P265" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -14962,19 +14968,19 @@
         <v>811</v>
       </c>
       <c r="L266" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="M266" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N266" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O266" s="2">
-        <v>44985.80347222222</v>
+        <v>44992.55833333333</v>
       </c>
       <c r="P266" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -14997,19 +15003,19 @@
         <v>812</v>
       </c>
       <c r="L267" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="M267" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N267" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O267" s="2">
-        <v>44985.80347222222</v>
+        <v>44992.55902777778</v>
       </c>
       <c r="P267" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -15044,19 +15050,19 @@
         <v>1012</v>
       </c>
       <c r="L268" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="M268" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N268" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O268" s="2">
         <v>44985.80347222222</v>
       </c>
       <c r="P268" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -15091,19 +15097,19 @@
         <v>1013</v>
       </c>
       <c r="L269" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="M269" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N269" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O269" s="2">
         <v>44985.80347222222</v>
       </c>
       <c r="P269" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15138,19 +15144,19 @@
         <v>1014</v>
       </c>
       <c r="L270" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="M270" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N270" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O270" s="2">
         <v>44985.80347222222</v>
       </c>
       <c r="P270" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15185,19 +15191,19 @@
         <v>1015</v>
       </c>
       <c r="L271" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="M271" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N271" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O271" s="2">
         <v>44985.80347222222</v>
       </c>
       <c r="P271" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -15226,19 +15232,19 @@
         <v>1000</v>
       </c>
       <c r="L272" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="M272" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N272" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O272" s="2">
         <v>44985.80347222222</v>
       </c>
       <c r="P272" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -15276,19 +15282,19 @@
         <v>908</v>
       </c>
       <c r="L273" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="M273" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N273" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O273" s="2">
         <v>44986.57916666667</v>
       </c>
       <c r="P273" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15323,19 +15329,19 @@
         <v>909</v>
       </c>
       <c r="L274" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="M274" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N274" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O274" s="2">
         <v>44986.57916666667</v>
       </c>
       <c r="P274" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15373,19 +15379,19 @@
         <v>910</v>
       </c>
       <c r="L275" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="M275" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N275" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O275" s="2">
         <v>44986.57916666667</v>
       </c>
       <c r="P275" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15423,19 +15429,19 @@
         <v>911</v>
       </c>
       <c r="L276" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="M276" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N276" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O276" s="2">
         <v>44986.57916666667</v>
       </c>
       <c r="P276" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -15470,19 +15476,19 @@
         <v>1016</v>
       </c>
       <c r="L277" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="M277" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N277" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O277" s="2">
         <v>44986.57916666667</v>
       </c>
       <c r="P277" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -15520,19 +15526,19 @@
         <v>914</v>
       </c>
       <c r="L278" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="M278" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N278" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O278" s="2">
         <v>44986.57916666667</v>
       </c>
       <c r="P278" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -15564,16 +15570,16 @@
         <v>914</v>
       </c>
       <c r="M279" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N279" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O279" s="2">
         <v>44986.55416666667</v>
       </c>
       <c r="P279" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15605,16 +15611,16 @@
         <v>914</v>
       </c>
       <c r="M280" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N280" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O280" s="2">
         <v>44986.55416666667</v>
       </c>
       <c r="P280" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -15646,16 +15652,16 @@
         <v>914</v>
       </c>
       <c r="M281" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N281" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O281" s="2">
         <v>44986.55416666667</v>
       </c>
       <c r="P281" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15690,19 +15696,19 @@
         <v>1017</v>
       </c>
       <c r="L282" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="M282" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N282" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O282" s="2">
         <v>44986.55486111111</v>
       </c>
       <c r="P282" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15734,19 +15740,19 @@
         <v>821</v>
       </c>
       <c r="L283" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="M283" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="N283" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O283" s="2">
         <v>44991.49722222222</v>
       </c>
       <c r="P283" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -15778,19 +15784,19 @@
         <v>821</v>
       </c>
       <c r="L284" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="M284" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="N284" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O284" s="2">
         <v>44991.49722222222</v>
       </c>
       <c r="P284" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
